--- a/Critical_RT_Calcs_IR-3.125.xlsx
+++ b/Critical_RT_Calcs_IR-3.125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F4BEB4-42E6-4D1A-BA5C-D8AF42748E35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1494B2-1484-44FD-84BD-C1A4850DF71B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Worst case RT-inj. Plumbing pressure (located at bottom of plumbing tree, just above injector) (psi)</t>
+  </si>
+  <si>
+    <t>gees (ft/s^2)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -891,9 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,9 +1001,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,8 +1231,26 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,23 +1285,8 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2088,232 +2088,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>238.00026166501797</c:v>
+                  <c:v>1071.0011774925808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.33091823520419</c:v>
+                  <c:v>1067.9891320584188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236.65658949564269</c:v>
+                  <c:v>1064.9546527303921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.97780021578055</c:v>
+                  <c:v>1061.9001009710125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235.29428801089432</c:v>
+                  <c:v>1058.8242960490243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>234.60579049626034</c:v>
+                  <c:v>1055.7260572331713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233.91204528715502</c:v>
+                  <c:v>1052.6042037921975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.21357715302554</c:v>
+                  <c:v>1049.4610971886148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>232.50933655497764</c:v>
+                  <c:v>1046.2920144973994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>231.80011064718204</c:v>
+                  <c:v>1043.100497912319</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>231.08511227546799</c:v>
+                  <c:v>1039.8830052396061</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>230.36460382455908</c:v>
+                  <c:v>1036.6407172105157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>229.6380605250082</c:v>
+                  <c:v>1033.3712723625367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>228.90548237681529</c:v>
+                  <c:v>1030.0746706956688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>228.16686937998043</c:v>
+                  <c:v>1026.750912209912</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>227.42195914977995</c:v>
+                  <c:v>1023.3988161740098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>226.67048930149042</c:v>
+                  <c:v>1020.0172018567068</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225.91245983511175</c:v>
+                  <c:v>1016.6060692580028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>225.14734598119685</c:v>
+                  <c:v>1013.1630569153857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>224.3751477397457</c:v>
+                  <c:v>1009.6881648288556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.59560272603466</c:v>
+                  <c:v>1006.180212267156</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>222.80871094006389</c:v>
+                  <c:v>1002.6391992302874</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>222.01394761238618</c:v>
+                  <c:v>999.06276425573765</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>221.21105035827787</c:v>
+                  <c:v>995.4497266122504</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>220.40001917773915</c:v>
+                  <c:v>991.80008629982615</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>219.58006691659915</c:v>
+                  <c:v>988.11030112469621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>218.75145595958156</c:v>
+                  <c:v>984.38155181811715</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>217.91366153723919</c:v>
+                  <c:v>980.61147691757617</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>217.06642126484849</c:v>
+                  <c:v>976.79889569181819</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>216.2092103729623</c:v>
+                  <c:v>972.94144667833029</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.34176647685715</c:v>
+                  <c:v>969.03794914585717</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>214.46356480708582</c:v>
+                  <c:v>965.08604163188602</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>213.57434297892473</c:v>
+                  <c:v>961.0845434051613</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>212.67357622292684</c:v>
+                  <c:v>957.03109300317067</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>211.76073976964491</c:v>
+                  <c:v>952.92332896340213</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>210.8353088496319</c:v>
+                  <c:v>948.75888982334345</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>209.89702107816422</c:v>
+                  <c:v>944.53659485173887</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>208.94482691634764</c:v>
+                  <c:v>940.25172112356427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>207.97820159473491</c:v>
+                  <c:v>935.90190717630719</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206.99662034387904</c:v>
+                  <c:v>931.48479154745553</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>205.99929600960931</c:v>
+                  <c:v>926.99683204324185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>204.9851790530314</c:v>
+                  <c:v>922.43330573864137</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>203.95374470469821</c:v>
+                  <c:v>917.79185117114196</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>203.72045553159094</c:v>
+                  <c:v>916.74204989215912</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>202.90394342571548</c:v>
+                  <c:v>913.06774541571974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>201.83446329246541</c:v>
+                  <c:v>908.25508481609427</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>200.74425476605376</c:v>
+                  <c:v>903.34914644724176</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>199.63226830758614</c:v>
+                  <c:v>898.34520738413767</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>198.49692960872133</c:v>
+                  <c:v>893.23618323924586</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>197.59450108280751</c:v>
+                  <c:v>889.17525487263367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>197.33666436111784</c:v>
+                  <c:v>888.01498962503024</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>196.14963587171076</c:v>
+                  <c:v>882.67336142269835</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>194.93426983215863</c:v>
+                  <c:v>877.20421424471374</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>193.68820477994944</c:v>
+                  <c:v>871.59692150977241</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>192.40907925257108</c:v>
+                  <c:v>865.84085663656992</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>191.09400701806442</c:v>
+                  <c:v>859.92303158128971</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>189.74010184447008</c:v>
+                  <c:v>853.8304583001152</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.34342796093469</c:v>
+                  <c:v>847.54542582420606</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>186.90031198132837</c:v>
+                  <c:v>841.05140391597763</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>185.40550621117978</c:v>
+                  <c:v>834.324777950309</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>183.85323818657048</c:v>
+                  <c:v>827.33957183956716</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>182.23694828941143</c:v>
+                  <c:v>820.06626730235143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>180.54850259327202</c:v>
+                  <c:v>812.46826166972403</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>178.77766809393324</c:v>
+                  <c:v>804.49950642269948</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>176.91237509411118</c:v>
+                  <c:v>796.10568792350023</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>174.9366181256683</c:v>
+                  <c:v>787.21478156550734</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>172.83019356489021</c:v>
+                  <c:v>777.73587104200601</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.56660055469678</c:v>
+                  <c:v>767.54970249613541</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>168.10831807961827</c:v>
+                  <c:v>756.48743135828227</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>165.40260681021817</c:v>
+                  <c:v>744.3117306459817</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>162.36917702108568</c:v>
+                  <c:v>730.66129659488536</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>158.87631158099123</c:v>
+                  <c:v>714.94340211446047</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>154.68235415953163</c:v>
+                  <c:v>696.07059371789228</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>149.25230230535834</c:v>
+                  <c:v>671.63536037411257</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>140.84392145400116</c:v>
+                  <c:v>633.79764654300516</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>118.60078128324339</c:v>
+                  <c:v>533.70351577459519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,235 +2584,235 @@
             <c:numRef>
               <c:f>'N2O Pressure Calcs'!$H$4:$H$79</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>662.48452805698594</c:v>
+                  <c:v>1523.8214165325808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>667.72830406392427</c:v>
+                  <c:v>1526.6427994584187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>673.0242531250027</c:v>
+                  <c:v>1529.4983133103922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>678.36993677136456</c:v>
+                  <c:v>1532.3874187910124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>683.76657423743836</c:v>
+                  <c:v>1535.3103855490242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>689.21538475765237</c:v>
+                  <c:v>1538.2674832331713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>694.714686806435</c:v>
+                  <c:v>1541.2560807321975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700.26784343492955</c:v>
+                  <c:v>1544.2814402686147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>705.87247968084966</c:v>
+                  <c:v>1547.3373885373994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>711.52928898091011</c:v>
+                  <c:v>1550.4274677323192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>717.240478658396</c:v>
+                  <c:v>1553.5510364196061</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>723.00337909887901</c:v>
+                  <c:v>1556.7063745705157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>728.81897839121621</c:v>
+                  <c:v>1559.8925711025367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>734.68872691540741</c:v>
+                  <c:v>1563.111076395669</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>740.61262467145252</c:v>
+                  <c:v>1566.3618904499122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>746.59189089378003</c:v>
+                  <c:v>1569.6452829140098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>752.62339367681852</c:v>
+                  <c:v>1572.9571722967069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>758.71003378056776</c:v>
+                  <c:v>1576.3004593580026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>764.8527992938848</c:v>
+                  <c:v>1579.6742330153857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>771.04878945676967</c:v>
+                  <c:v>1583.0755925088556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>777.30067388365069</c:v>
+                  <c:v>1586.5062578671559</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>783.60845257452797</c:v>
+                  <c:v>1589.9662290902875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>789.97166323825809</c:v>
+                  <c:v>1593.4531447157376</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>796.39152510926999</c:v>
+                  <c:v>1596.9672743922506</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>802.86658780756318</c:v>
+                  <c:v>1600.5071677398262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>809.39905865642322</c:v>
+                  <c:v>1604.0721833246962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>815.9877184214215</c:v>
+                  <c:v>1607.6620514981171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>822.63355519141521</c:v>
+                  <c:v>1611.2758611775762</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>829.33633782083257</c:v>
+                  <c:v>1614.9124316318182</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>836.09560401853037</c:v>
+                  <c:v>1618.5694013983302</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>842.91402339893716</c:v>
+                  <c:v>1622.2484905058573</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>849.78823291090987</c:v>
+                  <c:v>1625.9444367318861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>856.72235254887687</c:v>
+                  <c:v>1629.6604104851613</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>863.71301926169485</c:v>
+                  <c:v>1633.3911495431707</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>870.76122113822089</c:v>
+                  <c:v>1637.1357428234021</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>877.86794626731194</c:v>
+                  <c:v>1640.8932792433434</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>885.03441388339627</c:v>
+                  <c:v>1644.6640284517389</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>892.25679864418771</c:v>
+                  <c:v>1648.4403667635643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>899.53898939854287</c:v>
+                  <c:v>1652.224283856307</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>906.8805238553191</c:v>
+                  <c:v>1656.0134182674556</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>914.27925819780137</c:v>
+                  <c:v>1659.8027774232419</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>921.73716860370348</c:v>
+                  <c:v>1663.5905391586414</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>929.25234240188217</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.0000">
-                  <c:v>930.93554537258649</c:v>
+                  <c:v>1667.372891631142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1668.2118074188256</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>936.82675577005148</c:v>
+                  <c:v>1671.1480126757197</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>944.45925298035331</c:v>
+                  <c:v>1674.9099986360943</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>952.14890945050183</c:v>
+                  <c:v>1678.6541265872418</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>959.89625097821022</c:v>
+                  <c:v>1682.3771239841376</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>967.69989069004941</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.0000">
-                  <c:v>973.81435318758076</c:v>
+                  <c:v>1686.071906439246</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1688.9204272393004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>975.56134247258979</c:v>
+                  <c:v>1689.7342903250301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>983.47898830683084</c:v>
+                  <c:v>1693.3560105226984</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>991.45144131934262</c:v>
+                  <c:v>1696.9299826447136</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>999.47807157998159</c:v>
+                  <c:v>1700.4470304897725</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1007.5582491586031</c:v>
+                  <c:v>1703.8979778565699</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1015.6908818339203</c:v>
+                  <c:v>1707.2712870812898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1023.8734270046461</c:v>
+                  <c:v>1710.5539701201151</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1032.1053182472067</c:v>
+                  <c:v>1713.731216764206</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1040.3818691436004</c:v>
+                  <c:v>1716.7850463959776</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1048.7028079223958</c:v>
+                  <c:v>1719.6961955303091</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1057.0644997610184</c:v>
+                  <c:v>1722.4401384595672</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1065.4597156401794</c:v>
+                  <c:v>1724.9859065223513</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1073.88709156716</c:v>
+                  <c:v>1727.302698569724</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1082.3361624846693</c:v>
+                  <c:v>1729.3430157026996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1090.8006468364154</c:v>
+                  <c:v>1731.0568954235005</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1099.2693455025324</c:v>
+                  <c:v>1732.3752138855073</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1107.7244602740104</c:v>
+                  <c:v>1733.2070547820063</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1116.1469965881208</c:v>
+                  <c:v>1733.4375153961355</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1124.5097021481304</c:v>
+                  <c:v>1732.9035526782823</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1132.7661166941543</c:v>
+                  <c:v>1731.3678396459818</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1140.8556623412937</c:v>
+                  <c:v>1728.4792251948852</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1148.6652047726232</c:v>
+                  <c:v>1723.6478829944604</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1155.9920115767318</c:v>
+                  <c:v>1715.7965122178923</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1162.3763799731985</c:v>
+                  <c:v>1702.5292048741126</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1166.3067094468331</c:v>
+                  <c:v>1676.0291115030052</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1155.2806509485715</c:v>
+                  <c:v>1584.5038257745953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,8 +3972,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,44 +3985,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="D5" s="153" t="s">
+      <c r="B5" s="151"/>
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="153"/>
+      <c r="E5" s="151"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.19120539318078697</v>
+        <v>0.34080172949531423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>9.1141451881999139E-2</v>
+        <v>0.15672716517621357</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.19120539318078697</v>
+        <v>0.34080172949531423</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,21 +4098,21 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="142">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>9.2764757093841771E-2</v>
+        <v>0.16158965910121664</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="144">
         <f>E12</f>
-        <v>9.2764757093841771E-2</v>
+        <v>0.16158965910121664</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,51 +4124,51 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <f>'N2O Pressure Calcs'!H53</f>
-        <v>973.81435318758076</v>
+        <v>1688.9204272393004</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="58">
         <f>B10*B16</f>
-        <v>1947.6287063751615</v>
+        <v>3377.8408544786007</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <f>'N2O Pressure Calcs'!J53</f>
-        <v>1044.3903139732606</v>
+        <v>2006.5122507748604</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,23 +4176,23 @@
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4213,8 +4213,8 @@
   <dimension ref="A1:P819"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,27 +4228,27 @@
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="47" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="161" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="45"/>
       <c r="L1" t="s">
         <v>26</v>
       </c>
@@ -4278,19 +4278,19 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156" t="s">
+      <c r="H2" s="154"/>
+      <c r="I2" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="62" t="s">
+      <c r="J2" s="155"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="61">
         <f>P1+(2*P3)</f>
         <v>3.6996134140387036</v>
       </c>
@@ -4329,11 +4329,11 @@
       <c r="J3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="150" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="150">
+      <c r="M3" s="148">
         <v>32.200000000000003</v>
       </c>
       <c r="O3" t="s">
@@ -4360,25 +4360,25 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36">
-        <f>C4*$M$3*($M$2+$M$4)</f>
-        <v>238.00026166501797</v>
-      </c>
-      <c r="H4" s="35">
-        <f t="shared" ref="H4:H46" si="0">B4+(C4*$M$3*$M$2)</f>
-        <v>662.48452805698594</v>
+        <f>C4*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>1071.0011774925808</v>
+      </c>
+      <c r="H4" s="180">
+        <f>B4+G4</f>
+        <v>1523.8214165325808</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I46" si="1">C4*$M$3*$M$1</f>
-        <v>85.007917944096008</v>
+        <f>C4*($M$3*$P$5)*$M$1</f>
+        <v>382.53563074843203</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" ref="J4:J33" si="2">H4+I4</f>
-        <v>747.49244600108193</v>
-      </c>
-      <c r="L4" s="148" t="s">
+        <f t="shared" ref="J4:J33" si="0">H4+I4</f>
+        <v>1906.3570472810129</v>
+      </c>
+      <c r="L4" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="148">
+      <c r="M4" s="146">
         <v>0.5</v>
       </c>
     </row>
@@ -4398,26 +4398,32 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="36">
-        <f t="shared" ref="G5:G68" si="3">C5*$M$3*($M$2+$M$4)</f>
-        <v>237.33091823520419</v>
-      </c>
-      <c r="H5" s="35">
+        <f t="shared" ref="G5:G68" si="1">C5*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>1067.9891320584188</v>
+      </c>
+      <c r="H5" s="180">
+        <f t="shared" ref="H5:H68" si="2">B5+G5</f>
+        <v>1526.6427994584187</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" ref="I5:I68" si="3">C5*($M$3*$P$5)*$M$1</f>
+        <v>381.45980121228001</v>
+      </c>
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>667.72830406392427</v>
-      </c>
-      <c r="I5" s="37">
-        <f t="shared" si="1"/>
-        <v>84.768844713840011</v>
-      </c>
-      <c r="J5" s="35">
-        <f t="shared" si="2"/>
-        <v>752.49714877776432</v>
+        <v>1908.1026006706988</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
       </c>
       <c r="M5">
         <v>0.87815195180003003</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4436,20 +4442,20 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="36">
+        <f t="shared" si="1"/>
+        <v>1064.9546527303921</v>
+      </c>
+      <c r="H6" s="180">
+        <f t="shared" si="2"/>
+        <v>1529.4983133103922</v>
+      </c>
+      <c r="I6" s="37">
         <f t="shared" si="3"/>
-        <v>236.65658949564269</v>
-      </c>
-      <c r="H6" s="35">
+        <v>380.37595883364003</v>
+      </c>
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>673.0242531250027</v>
-      </c>
-      <c r="I6" s="37">
-        <f t="shared" si="1"/>
-        <v>84.527990851920009</v>
-      </c>
-      <c r="J6" s="35">
-        <f t="shared" si="2"/>
-        <v>757.55224397692268</v>
+        <v>1909.8742721440321</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -4474,25 +4480,25 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="36">
+        <f t="shared" si="1"/>
+        <v>1061.9001009710125</v>
+      </c>
+      <c r="H7" s="180">
+        <f t="shared" si="2"/>
+        <v>1532.3874187910124</v>
+      </c>
+      <c r="I7" s="37">
         <f t="shared" si="3"/>
-        <v>235.97780021578055</v>
-      </c>
-      <c r="H7" s="35">
+        <v>379.28494706961601</v>
+      </c>
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>678.36993677136456</v>
-      </c>
-      <c r="I7" s="37">
-        <f t="shared" si="1"/>
-        <v>84.285543793247996</v>
-      </c>
-      <c r="J7" s="35">
-        <f t="shared" si="2"/>
-        <v>762.65548056461262</v>
-      </c>
-      <c r="L7" s="149" t="s">
+        <v>1911.6723658606284</v>
+      </c>
+      <c r="L7" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="149">
+      <c r="M7" s="147">
         <f>M5*M6</f>
         <v>1.0976899397500375</v>
       </c>
@@ -4513,20 +4519,20 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="36">
+        <f t="shared" si="1"/>
+        <v>1058.8242960490243</v>
+      </c>
+      <c r="H8" s="180">
+        <f t="shared" si="2"/>
+        <v>1535.3103855490242</v>
+      </c>
+      <c r="I8" s="37">
         <f t="shared" si="3"/>
-        <v>235.29428801089432</v>
-      </c>
-      <c r="H8" s="35">
+        <v>378.18634419165596</v>
+      </c>
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>683.76657423743836</v>
-      </c>
-      <c r="I8" s="37">
-        <f t="shared" si="1"/>
-        <v>84.041409820368003</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>767.80798405780638</v>
+        <v>1913.4967297406802</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4545,20 +4551,20 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="36">
+        <f t="shared" si="1"/>
+        <v>1055.7260572331713</v>
+      </c>
+      <c r="H9" s="180">
+        <f t="shared" si="2"/>
+        <v>1538.2674832331713</v>
+      </c>
+      <c r="I9" s="37">
         <f t="shared" si="3"/>
-        <v>234.60579049626034</v>
-      </c>
-      <c r="H9" s="35">
+        <v>377.079728471208</v>
+      </c>
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>689.21538475765237</v>
-      </c>
-      <c r="I9" s="37">
-        <f t="shared" si="1"/>
-        <v>83.795495215824019</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>773.01087997347645</v>
+        <v>1915.3472117043793</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4577,20 +4583,20 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="36">
+        <f t="shared" si="1"/>
+        <v>1052.6042037921975</v>
+      </c>
+      <c r="H10" s="180">
+        <f t="shared" si="2"/>
+        <v>1541.2560807321975</v>
+      </c>
+      <c r="I10" s="37">
         <f t="shared" si="3"/>
-        <v>233.91204528715502</v>
-      </c>
-      <c r="H10" s="35">
+        <v>375.96467817972001</v>
+      </c>
+      <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>694.714686806435</v>
-      </c>
-      <c r="I10" s="37">
-        <f t="shared" si="1"/>
-        <v>83.547706262160006</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>778.26239306859497</v>
+        <v>1917.2207589119175</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4609,20 +4615,20 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="36">
+        <f t="shared" si="1"/>
+        <v>1049.4610971886148</v>
+      </c>
+      <c r="H11" s="180">
+        <f t="shared" si="2"/>
+        <v>1544.2814402686147</v>
+      </c>
+      <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>233.21357715302554</v>
-      </c>
-      <c r="H11" s="35">
+        <v>374.84203677429599</v>
+      </c>
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>700.26784343492955</v>
-      </c>
-      <c r="I11" s="37">
-        <f t="shared" si="1"/>
-        <v>83.298230394287998</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="2"/>
-        <v>783.56607382921754</v>
+        <v>1919.1234770429107</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4641,20 +4647,20 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>1046.2920144973994</v>
+      </c>
+      <c r="H12" s="180">
+        <f t="shared" si="2"/>
+        <v>1547.3373885373994</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>232.50933655497764</v>
-      </c>
-      <c r="H12" s="35">
+        <v>373.710117340728</v>
+      </c>
+      <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>705.87247968084966</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" si="1"/>
-        <v>83.046692742383996</v>
-      </c>
-      <c r="J12" s="35">
-        <f t="shared" si="2"/>
-        <v>788.9191724232337</v>
+        <v>1921.0475058781274</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4673,20 +4679,20 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>1043.100497912319</v>
+      </c>
+      <c r="H13" s="180">
+        <f t="shared" si="2"/>
+        <v>1550.4274677323192</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>231.80011064718204</v>
-      </c>
-      <c r="H13" s="35">
+        <v>372.57018506467205</v>
+      </c>
+      <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>711.52928898091011</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="1"/>
-        <v>82.793374458816004</v>
-      </c>
-      <c r="J13" s="35">
-        <f t="shared" si="2"/>
-        <v>794.32266343972606</v>
+        <v>1922.9976527969911</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4705,20 +4711,20 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>1039.8830052396061</v>
+      </c>
+      <c r="H14" s="180">
+        <f t="shared" si="2"/>
+        <v>1553.5510364196061</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>231.08511227546799</v>
-      </c>
-      <c r="H14" s="35">
+        <v>371.42097476047206</v>
+      </c>
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>717.240478658396</v>
-      </c>
-      <c r="I14" s="37">
-        <f t="shared" si="1"/>
-        <v>82.537994391216003</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="2"/>
-        <v>799.77847304961199</v>
+        <v>1924.9720111800782</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4737,20 +4743,20 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>1036.6407172105157</v>
+      </c>
+      <c r="H15" s="180">
+        <f t="shared" si="2"/>
+        <v>1556.7063745705157</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>230.36460382455908</v>
-      </c>
-      <c r="H15" s="35">
+        <v>370.26290815668</v>
+      </c>
+      <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>723.00337909887901</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" si="1"/>
-        <v>82.280646257040004</v>
-      </c>
-      <c r="J15" s="35">
-        <f t="shared" si="2"/>
-        <v>805.28402535591897</v>
+        <v>1926.9692827271956</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4769,20 +4775,20 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>1033.3712723625367</v>
+      </c>
+      <c r="H16" s="180">
+        <f t="shared" si="2"/>
+        <v>1559.8925711025367</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="3"/>
-        <v>229.6380605250082</v>
-      </c>
-      <c r="H16" s="35">
+        <v>369.09514179619202</v>
+      </c>
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>728.81897839121621</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="1"/>
-        <v>82.021142621376015</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="2"/>
-        <v>810.84012101259225</v>
+        <v>1928.9877128987287</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4801,20 +4807,20 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>1030.0746706956688</v>
+      </c>
+      <c r="H17" s="180">
+        <f t="shared" si="2"/>
+        <v>1563.111076395669</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>228.90548237681529</v>
-      </c>
-      <c r="H17" s="35">
+        <v>367.91767567900803</v>
+      </c>
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>734.68872691540741</v>
-      </c>
-      <c r="I17" s="37">
-        <f t="shared" si="1"/>
-        <v>81.759483484224006</v>
-      </c>
-      <c r="J17" s="35">
-        <f t="shared" si="2"/>
-        <v>816.44821039963142</v>
+        <v>1931.028752074677</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4833,20 +4839,20 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>1026.750912209912</v>
+      </c>
+      <c r="H18" s="180">
+        <f t="shared" si="2"/>
+        <v>1566.3618904499122</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>228.16686937998043</v>
-      </c>
-      <c r="H18" s="35">
+        <v>366.73050980512807</v>
+      </c>
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>740.61262467145252</v>
-      </c>
-      <c r="I18" s="37">
-        <f t="shared" si="1"/>
-        <v>81.495668845584021</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="2"/>
-        <v>822.1082935170366</v>
+        <v>1933.0924002550403</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4865,20 +4871,20 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>1023.3988161740098</v>
+      </c>
+      <c r="H19" s="180">
+        <f t="shared" si="2"/>
+        <v>1569.6452829140098</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="3"/>
-        <v>227.42195914977995</v>
-      </c>
-      <c r="H19" s="35">
+        <v>365.53322244599997</v>
+      </c>
+      <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>746.59189089378003</v>
-      </c>
-      <c r="I19" s="37">
-        <f t="shared" si="1"/>
-        <v>81.229604988000006</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="2"/>
-        <v>827.82149588178004</v>
+        <v>1935.1785053600097</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4897,20 +4903,20 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>1020.0172018567068</v>
+      </c>
+      <c r="H20" s="180">
+        <f t="shared" si="2"/>
+        <v>1572.9571722967069</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="3"/>
-        <v>226.67048930149042</v>
-      </c>
-      <c r="H20" s="35">
+        <v>364.32539187307202</v>
+      </c>
+      <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>752.62339367681852</v>
-      </c>
-      <c r="I20" s="37">
-        <f t="shared" si="1"/>
-        <v>80.961198194015992</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="2"/>
-        <v>833.58459187083452</v>
+        <v>1937.2825641697789</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4929,20 +4935,20 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="36">
+        <f t="shared" si="1"/>
+        <v>1016.6060692580028</v>
+      </c>
+      <c r="H21" s="180">
+        <f t="shared" si="2"/>
+        <v>1576.3004593580026</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="3"/>
-        <v>225.91245983511175</v>
-      </c>
-      <c r="H21" s="35">
+        <v>363.107018086344</v>
+      </c>
+      <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>758.71003378056776</v>
-      </c>
-      <c r="I21" s="37">
-        <f t="shared" si="1"/>
-        <v>80.690448463632009</v>
-      </c>
-      <c r="J21" s="35">
-        <f t="shared" si="2"/>
-        <v>839.40048224419979</v>
+        <v>1939.4074774443466</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4961,20 +4967,20 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="36">
+        <f t="shared" si="1"/>
+        <v>1013.1630569153857</v>
+      </c>
+      <c r="H22" s="180">
+        <f t="shared" si="2"/>
+        <v>1579.6742330153857</v>
+      </c>
+      <c r="I22" s="37">
         <f t="shared" si="3"/>
-        <v>225.14734598119685</v>
-      </c>
-      <c r="H22" s="35">
+        <v>361.87725762871196</v>
+      </c>
+      <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>764.8527992938848</v>
-      </c>
-      <c r="I22" s="37">
-        <f t="shared" si="1"/>
-        <v>80.417168361936007</v>
-      </c>
-      <c r="J22" s="35">
-        <f t="shared" si="2"/>
-        <v>845.26996765582078</v>
+        <v>1941.5514906440976</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4993,20 +4999,20 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="36">
+        <f t="shared" si="1"/>
+        <v>1009.6881648288556</v>
+      </c>
+      <c r="H23" s="180">
+        <f t="shared" si="2"/>
+        <v>1583.0755925088556</v>
+      </c>
+      <c r="I23" s="37">
         <f t="shared" si="3"/>
-        <v>224.3751477397457</v>
-      </c>
-      <c r="H23" s="35">
+        <v>360.63611050017607</v>
+      </c>
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>771.04878945676967</v>
-      </c>
-      <c r="I23" s="37">
-        <f t="shared" si="1"/>
-        <v>80.141357888928013</v>
-      </c>
-      <c r="J23" s="35">
-        <f t="shared" si="2"/>
-        <v>851.19014734569771</v>
+        <v>1943.7117030090317</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5025,20 +5031,20 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="36">
+        <f t="shared" si="1"/>
+        <v>1006.180212267156</v>
+      </c>
+      <c r="H24" s="180">
+        <f t="shared" si="2"/>
+        <v>1586.5062578671559</v>
+      </c>
+      <c r="I24" s="37">
         <f t="shared" si="3"/>
-        <v>223.59560272603466</v>
-      </c>
-      <c r="H24" s="35">
+        <v>359.383154972184</v>
+      </c>
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>777.30067388365069</v>
-      </c>
-      <c r="I24" s="37">
-        <f t="shared" si="1"/>
-        <v>79.862923327152004</v>
-      </c>
-      <c r="J24" s="35">
-        <f t="shared" si="2"/>
-        <v>857.16359721080266</v>
+        <v>1945.8894128393399</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5057,20 +5063,20 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="36">
+        <f t="shared" si="1"/>
+        <v>1002.6391992302874</v>
+      </c>
+      <c r="H25" s="180">
+        <f t="shared" si="2"/>
+        <v>1589.9662290902875</v>
+      </c>
+      <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>222.80871094006389</v>
-      </c>
-      <c r="H25" s="35">
+        <v>358.11839104473603</v>
+      </c>
+      <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>783.60845257452797</v>
-      </c>
-      <c r="I25" s="37">
-        <f t="shared" si="1"/>
-        <v>79.581864676608006</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="2"/>
-        <v>863.19031725113598</v>
+        <v>1948.0846201350234</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5089,20 +5095,20 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="36">
-        <f>C26*$M$3*($M$2+$M$4)</f>
-        <v>222.01394761238618</v>
-      </c>
-      <c r="H26" s="35">
+        <f t="shared" si="1"/>
+        <v>999.06276425573765</v>
+      </c>
+      <c r="H26" s="180">
+        <f t="shared" si="2"/>
+        <v>1593.4531447157376</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="3"/>
+        <v>356.84097526072804</v>
+      </c>
+      <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>789.97166323825809</v>
-      </c>
-      <c r="I26" s="37">
-        <f t="shared" si="1"/>
-        <v>79.297994502384014</v>
-      </c>
-      <c r="J26" s="35">
-        <f t="shared" si="2"/>
-        <v>869.26965774064206</v>
+        <v>1950.2941199764657</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5121,20 +5127,20 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="36">
+        <f t="shared" si="1"/>
+        <v>995.4497266122504</v>
+      </c>
+      <c r="H27" s="180">
+        <f t="shared" si="2"/>
+        <v>1596.9672743922506</v>
+      </c>
+      <c r="I27" s="37">
         <f t="shared" si="3"/>
-        <v>221.21105035827787</v>
-      </c>
-      <c r="H27" s="35">
+        <v>355.55048589160799</v>
+      </c>
+      <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>796.39152510926999</v>
-      </c>
-      <c r="I27" s="37">
-        <f t="shared" si="1"/>
-        <v>79.011219087024003</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="2"/>
-        <v>875.40274419629395</v>
+        <v>1952.5177602838585</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5153,20 +5159,20 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="36">
+        <f t="shared" si="1"/>
+        <v>991.80008629982615</v>
+      </c>
+      <c r="H28" s="180">
+        <f t="shared" si="2"/>
+        <v>1600.5071677398262</v>
+      </c>
+      <c r="I28" s="37">
         <f t="shared" si="3"/>
-        <v>220.40001917773915</v>
-      </c>
-      <c r="H28" s="35">
+        <v>354.24692293737604</v>
+      </c>
+      <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>802.86658780756318</v>
-      </c>
-      <c r="I28" s="37">
-        <f t="shared" si="1"/>
-        <v>78.721538430528014</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="2"/>
-        <v>881.58812623809115</v>
+        <v>1954.7540906772022</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5185,20 +5191,20 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="36">
+        <f t="shared" si="1"/>
+        <v>988.11030112469621</v>
+      </c>
+      <c r="H29" s="180">
+        <f t="shared" si="2"/>
+        <v>1604.0721833246962</v>
+      </c>
+      <c r="I29" s="37">
         <f t="shared" si="3"/>
-        <v>219.58006691659915</v>
-      </c>
-      <c r="H29" s="35">
+        <v>352.92902121237603</v>
+      </c>
+      <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>809.39905865642322</v>
-      </c>
-      <c r="I29" s="37">
-        <f t="shared" si="1"/>
-        <v>78.428671380528002</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="2"/>
-        <v>887.82773003695127</v>
+        <v>1957.0012045370722</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5217,20 +5223,20 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="36">
+        <f t="shared" si="1"/>
+        <v>984.38155181811715</v>
+      </c>
+      <c r="H30" s="180">
+        <f t="shared" si="2"/>
+        <v>1607.6620514981171</v>
+      </c>
+      <c r="I30" s="37">
         <f t="shared" si="3"/>
-        <v>218.75145595958156</v>
-      </c>
-      <c r="H30" s="35">
+        <v>351.59720244516006</v>
+      </c>
+      <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>815.9877184214215</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="1"/>
-        <v>78.132711654480005</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="2"/>
-        <v>894.12043007590148</v>
+        <v>1959.2592539432771</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5249,20 +5255,20 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="36">
+        <f t="shared" si="1"/>
+        <v>980.61147691757617</v>
+      </c>
+      <c r="H31" s="180">
+        <f t="shared" si="2"/>
+        <v>1611.2758611775762</v>
+      </c>
+      <c r="I31" s="37">
         <f t="shared" si="3"/>
-        <v>217.91366153723919</v>
-      </c>
-      <c r="H31" s="35">
+        <v>350.25062317862398</v>
+      </c>
+      <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>822.63355519141521</v>
-      </c>
-      <c r="I31" s="37">
-        <f t="shared" si="1"/>
-        <v>77.833471817472002</v>
-      </c>
-      <c r="J31" s="35">
-        <f t="shared" si="2"/>
-        <v>900.46702700888727</v>
+        <v>1961.5264843562002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5281,20 +5287,20 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="36">
+        <f t="shared" si="1"/>
+        <v>976.79889569181819</v>
+      </c>
+      <c r="H32" s="180">
+        <f t="shared" si="2"/>
+        <v>1614.9124316318182</v>
+      </c>
+      <c r="I32" s="37">
         <f t="shared" si="3"/>
-        <v>217.06642126484849</v>
-      </c>
-      <c r="H32" s="35">
+        <v>348.88886168421601</v>
+      </c>
+      <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>829.33633782083257</v>
-      </c>
-      <c r="I32" s="37">
-        <f t="shared" si="1"/>
-        <v>77.530858152048012</v>
-      </c>
-      <c r="J32" s="35">
-        <f t="shared" si="2"/>
-        <v>906.86719597288061</v>
+        <v>1963.8012933160342</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5313,20 +5319,20 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="36">
+        <f t="shared" si="1"/>
+        <v>972.94144667833029</v>
+      </c>
+      <c r="H33" s="180">
+        <f t="shared" si="2"/>
+        <v>1618.5694013983302</v>
+      </c>
+      <c r="I33" s="37">
         <f t="shared" si="3"/>
-        <v>216.2092103729623</v>
-      </c>
-      <c r="H33" s="35">
+        <v>347.51107450483198</v>
+      </c>
+      <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>836.09560401853037</v>
-      </c>
-      <c r="I33" s="37">
-        <f t="shared" si="1"/>
-        <v>77.224683223295997</v>
-      </c>
-      <c r="J33" s="35">
-        <f t="shared" si="2"/>
-        <v>913.32028724182635</v>
+        <v>1966.0804759031621</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5345,20 +5351,20 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="36">
+        <f t="shared" si="1"/>
+        <v>969.03794914585717</v>
+      </c>
+      <c r="H34" s="180">
+        <f t="shared" si="2"/>
+        <v>1622.2484905058573</v>
+      </c>
+      <c r="I34" s="37">
         <f t="shared" si="3"/>
-        <v>215.34176647685715</v>
-      </c>
-      <c r="H34" s="35">
-        <f t="shared" si="0"/>
-        <v>842.91402339893716</v>
-      </c>
-      <c r="I34" s="37">
-        <f t="shared" si="1"/>
-        <v>76.914853313760005</v>
+        <v>346.11683991192001</v>
       </c>
       <c r="J34" s="35">
         <f t="shared" ref="J34:J79" si="4">H34+I34</f>
-        <v>919.82887671269714</v>
+        <v>1968.3653304177774</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5377,20 +5383,20 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="36">
+        <f t="shared" si="1"/>
+        <v>965.08604163188602</v>
+      </c>
+      <c r="H35" s="180">
+        <f t="shared" si="2"/>
+        <v>1625.9444367318861</v>
+      </c>
+      <c r="I35" s="37">
         <f t="shared" si="3"/>
-        <v>214.46356480708582</v>
-      </c>
-      <c r="H35" s="35">
-        <f t="shared" si="0"/>
-        <v>849.78823291090987</v>
-      </c>
-      <c r="I35" s="37">
-        <f t="shared" si="1"/>
-        <v>76.601180988528014</v>
+        <v>344.70531444837599</v>
       </c>
       <c r="J35" s="35">
         <f t="shared" si="4"/>
-        <v>926.38941389943784</v>
+        <v>1970.649751180262</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5409,20 +5415,20 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="36">
+        <f t="shared" si="1"/>
+        <v>961.0845434051613</v>
+      </c>
+      <c r="H36" s="180">
+        <f t="shared" si="2"/>
+        <v>1629.6604104851613</v>
+      </c>
+      <c r="I36" s="37">
         <f t="shared" si="3"/>
-        <v>213.57434297892473</v>
-      </c>
-      <c r="H36" s="35">
-        <f t="shared" si="0"/>
-        <v>856.72235254887687</v>
-      </c>
-      <c r="I36" s="37">
-        <f t="shared" si="1"/>
-        <v>76.283572530144014</v>
+        <v>343.27607638564803</v>
       </c>
       <c r="J36" s="35">
         <f t="shared" si="4"/>
-        <v>933.00592507902093</v>
+        <v>1972.9364868708094</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5441,20 +5447,20 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="36">
+        <f t="shared" si="1"/>
+        <v>957.03109300317067</v>
+      </c>
+      <c r="H37" s="180">
+        <f t="shared" si="2"/>
+        <v>1633.3911495431707</v>
+      </c>
+      <c r="I37" s="37">
         <f t="shared" si="3"/>
-        <v>212.67357622292684</v>
-      </c>
-      <c r="H37" s="35">
-        <f t="shared" si="0"/>
-        <v>863.71301926169485</v>
-      </c>
-      <c r="I37" s="37">
-        <f t="shared" si="1"/>
-        <v>75.96184050369601</v>
+        <v>341.82828226663207</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="4"/>
-        <v>939.67485976539092</v>
+        <v>1975.2194318098027</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5473,20 +5479,20 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="36">
+        <f t="shared" si="1"/>
+        <v>952.92332896340213</v>
+      </c>
+      <c r="H38" s="180">
+        <f t="shared" si="2"/>
+        <v>1637.1357428234021</v>
+      </c>
+      <c r="I38" s="37">
         <f t="shared" si="3"/>
-        <v>211.76073976964491</v>
-      </c>
-      <c r="H38" s="35">
-        <f t="shared" si="0"/>
-        <v>870.76122113822089</v>
-      </c>
-      <c r="I38" s="37">
-        <f t="shared" si="1"/>
-        <v>75.63579747427201</v>
+        <v>340.36108863422402</v>
       </c>
       <c r="J38" s="35">
         <f t="shared" si="4"/>
-        <v>946.39701861249296</v>
+        <v>1977.4968314576261</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5505,20 +5511,20 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="36">
+        <f t="shared" si="1"/>
+        <v>948.75888982334345</v>
+      </c>
+      <c r="H39" s="180">
+        <f t="shared" si="2"/>
+        <v>1640.8932792433434</v>
+      </c>
+      <c r="I39" s="37">
         <f t="shared" si="3"/>
-        <v>210.8353088496319</v>
-      </c>
-      <c r="H39" s="35">
-        <f t="shared" si="0"/>
-        <v>877.86794626731194</v>
-      </c>
-      <c r="I39" s="37">
-        <f t="shared" si="1"/>
-        <v>75.305256006960008</v>
+        <v>338.87365203131998</v>
       </c>
       <c r="J39" s="35">
         <f t="shared" si="4"/>
-        <v>953.17320227427194</v>
+        <v>1979.7669312746634</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5537,20 +5543,20 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="36">
+        <f t="shared" si="1"/>
+        <v>944.53659485173887</v>
+      </c>
+      <c r="H40" s="180">
+        <f t="shared" si="2"/>
+        <v>1644.6640284517389</v>
+      </c>
+      <c r="I40" s="37">
         <f t="shared" si="3"/>
-        <v>209.89702107816422</v>
-      </c>
-      <c r="H40" s="35">
-        <f t="shared" si="0"/>
-        <v>885.03441388339627</v>
-      </c>
-      <c r="I40" s="37">
-        <f t="shared" si="1"/>
-        <v>74.970122384304005</v>
+        <v>337.36555072936801</v>
       </c>
       <c r="J40" s="35">
         <f t="shared" si="4"/>
-        <v>960.00453626770025</v>
+        <v>1982.0295791811068</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5569,20 +5575,20 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="36">
+        <f t="shared" si="1"/>
+        <v>940.25172112356427</v>
+      </c>
+      <c r="H41" s="180">
+        <f t="shared" si="2"/>
+        <v>1648.4403667635643</v>
+      </c>
+      <c r="I41" s="37">
         <f t="shared" si="3"/>
-        <v>208.94482691634764</v>
-      </c>
-      <c r="H41" s="35">
-        <f t="shared" si="0"/>
-        <v>892.25679864418771</v>
-      </c>
-      <c r="I41" s="37">
-        <f t="shared" si="1"/>
-        <v>74.630021736480018</v>
+        <v>335.83509781416001</v>
       </c>
       <c r="J41" s="35">
         <f t="shared" si="4"/>
-        <v>966.8868203806677</v>
+        <v>1984.2754645777243</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5601,20 +5607,20 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="36">
+        <f t="shared" si="1"/>
+        <v>935.90190717630719</v>
+      </c>
+      <c r="H42" s="180">
+        <f t="shared" si="2"/>
+        <v>1652.224283856307</v>
+      </c>
+      <c r="I42" s="37">
         <f t="shared" si="3"/>
-        <v>207.97820159473491</v>
-      </c>
-      <c r="H42" s="35">
-        <f t="shared" si="0"/>
-        <v>899.53898939854287</v>
-      </c>
-      <c r="I42" s="37">
-        <f t="shared" si="1"/>
-        <v>74.284766628575994</v>
+        <v>334.28144982859203</v>
       </c>
       <c r="J42" s="35">
         <f t="shared" si="4"/>
-        <v>973.82375602711886</v>
+        <v>1986.505733684899</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5633,20 +5639,20 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="36">
+        <f t="shared" si="1"/>
+        <v>931.48479154745553</v>
+      </c>
+      <c r="H43" s="180">
+        <f t="shared" si="2"/>
+        <v>1656.0134182674556</v>
+      </c>
+      <c r="I43" s="37">
         <f t="shared" si="3"/>
-        <v>206.99662034387904</v>
-      </c>
-      <c r="H43" s="35">
-        <f t="shared" si="0"/>
-        <v>906.8805238553191</v>
-      </c>
-      <c r="I43" s="37">
-        <f t="shared" si="1"/>
-        <v>73.934169625679999</v>
+        <v>332.70376331555997</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="4"/>
-        <v>980.81469348099904</v>
+        <v>1988.7171815830156</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5665,20 +5671,20 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="36">
+        <f t="shared" si="1"/>
+        <v>926.99683204324185</v>
+      </c>
+      <c r="H44" s="180">
+        <f t="shared" si="2"/>
+        <v>1659.8027774232419</v>
+      </c>
+      <c r="I44" s="37">
         <f t="shared" si="3"/>
-        <v>205.99929600960931</v>
-      </c>
-      <c r="H44" s="35">
-        <f t="shared" si="0"/>
-        <v>914.27925819780137</v>
-      </c>
-      <c r="I44" s="37">
-        <f t="shared" si="1"/>
-        <v>73.577949575424014</v>
+        <v>331.10077308940799</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="4"/>
-        <v>987.85720777322535</v>
+        <v>1990.9035505126499</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5697,20 +5703,20 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="36">
+        <f t="shared" si="1"/>
+        <v>922.43330573864137</v>
+      </c>
+      <c r="H45" s="180">
+        <f t="shared" si="2"/>
+        <v>1663.5905391586414</v>
+      </c>
+      <c r="I45" s="37">
         <f t="shared" si="3"/>
-        <v>204.9851790530314</v>
-      </c>
-      <c r="H45" s="35">
-        <f t="shared" si="0"/>
-        <v>921.73716860370348</v>
-      </c>
-      <c r="I45" s="37">
-        <f t="shared" si="1"/>
-        <v>73.215731607984011</v>
+        <v>329.470792235928</v>
       </c>
       <c r="J45" s="35">
         <f t="shared" si="4"/>
-        <v>994.95290021168751</v>
+        <v>1993.0613313945694</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5729,60 +5735,60 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="36">
+        <f t="shared" si="1"/>
+        <v>917.79185117114196</v>
+      </c>
+      <c r="H46" s="180">
+        <f t="shared" si="2"/>
+        <v>1667.372891631142</v>
+      </c>
+      <c r="I46" s="37">
         <f t="shared" si="3"/>
-        <v>203.95374470469821</v>
-      </c>
-      <c r="H46" s="35">
-        <f t="shared" si="0"/>
-        <v>929.25234240188217</v>
-      </c>
-      <c r="I46" s="37">
-        <f t="shared" si="1"/>
-        <v>72.847328288447997</v>
+        <v>327.81297729801599</v>
       </c>
       <c r="J46" s="35">
         <f t="shared" si="4"/>
-        <v>1002.0996706903302</v>
+        <v>1995.185868929158</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="65">
         <v>70</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="66">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="42">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="43">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="36">
-        <f>G46+(((G48-G46)/($A$48-$A$46))*($A$47-$A$46))</f>
-        <v>203.72045553159094</v>
-      </c>
-      <c r="H47" s="43">
-        <f t="shared" ref="H47:J47" si="5">H46+(((H48-H46)/($A$48-$A$46))*($A$47-$A$46))</f>
-        <v>930.93554537258649</v>
-      </c>
-      <c r="I47" s="40">
-        <f t="shared" si="5"/>
-        <v>72.764003057013326</v>
-      </c>
-      <c r="J47" s="43">
-        <f t="shared" si="5"/>
-        <v>1003.6995484295998</v>
-      </c>
-      <c r="K47" s="41" t="s">
+        <f t="shared" si="1"/>
+        <v>916.74204989215912</v>
+      </c>
+      <c r="H47" s="180">
+        <f t="shared" si="2"/>
+        <v>1668.2118074188256</v>
+      </c>
+      <c r="I47" s="37">
+        <f t="shared" si="3"/>
+        <v>327.43801375655994</v>
+      </c>
+      <c r="J47" s="42">
+        <f t="shared" ref="H47:J47" si="5">J46+(((J48-J46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>1995.649821175386</v>
+      </c>
+      <c r="K47" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="51"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
@@ -5800,20 +5806,20 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="36">
+        <f t="shared" si="1"/>
+        <v>913.06774541571974</v>
+      </c>
+      <c r="H48" s="180">
+        <f t="shared" si="2"/>
+        <v>1671.1480126757197</v>
+      </c>
+      <c r="I48" s="37">
         <f t="shared" si="3"/>
-        <v>202.90394342571548</v>
-      </c>
-      <c r="H48" s="35">
-        <f>B48+(C48*$M$3*$M$2)</f>
-        <v>936.82675577005148</v>
-      </c>
-      <c r="I48" s="37">
-        <f>C48*$M$3*$M$1</f>
-        <v>72.472364746992</v>
+        <v>326.12564136146403</v>
       </c>
       <c r="J48" s="35">
         <f t="shared" si="4"/>
-        <v>1009.2991205170434</v>
+        <v>1997.2736540371836</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5832,20 +5838,20 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="36">
+        <f t="shared" si="1"/>
+        <v>908.25508481609427</v>
+      </c>
+      <c r="H49" s="180">
+        <f t="shared" si="2"/>
+        <v>1674.9099986360943</v>
+      </c>
+      <c r="I49" s="37">
         <f t="shared" si="3"/>
-        <v>201.83446329246541</v>
-      </c>
-      <c r="H49" s="35">
-        <f>B49+(C49*$M$3*$M$2)</f>
-        <v>944.45925298035331</v>
-      </c>
-      <c r="I49" s="37">
-        <f>C49*$M$3*$M$1</f>
-        <v>72.090372396335994</v>
+        <v>324.40667578351196</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="4"/>
-        <v>1016.5496253766893</v>
+        <v>1999.3166744196062</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5864,20 +5870,20 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="36">
+        <f t="shared" si="1"/>
+        <v>903.34914644724176</v>
+      </c>
+      <c r="H50" s="180">
+        <f t="shared" si="2"/>
+        <v>1678.6541265872418</v>
+      </c>
+      <c r="I50" s="37">
         <f t="shared" si="3"/>
-        <v>200.74425476605376</v>
-      </c>
-      <c r="H50" s="35">
-        <f>B50+(C50*$M$3*$M$2)</f>
-        <v>952.14890945050183</v>
-      </c>
-      <c r="I50" s="37">
-        <f>C50*$M$3*$M$1</f>
-        <v>71.700976366656008</v>
+        <v>322.654393649952</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="4"/>
-        <v>1023.8498858171579</v>
+        <v>2001.3085202371938</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5896,20 +5902,20 @@
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="36">
+        <f t="shared" si="1"/>
+        <v>898.34520738413767</v>
+      </c>
+      <c r="H51" s="180">
+        <f t="shared" si="2"/>
+        <v>1682.3771239841376</v>
+      </c>
+      <c r="I51" s="37">
         <f t="shared" si="3"/>
-        <v>199.63226830758614</v>
-      </c>
-      <c r="H51" s="35">
-        <f>B51+(C51*$M$3*$M$2)</f>
-        <v>959.89625097821022</v>
-      </c>
-      <c r="I51" s="37">
-        <f>C51*$M$3*$M$1</f>
-        <v>71.303801788127998</v>
+        <v>320.86710804657599</v>
       </c>
       <c r="J51" s="35">
         <f t="shared" si="4"/>
-        <v>1031.2000527663381</v>
+        <v>2003.2442320307136</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5928,60 +5934,60 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="36">
+        <f t="shared" si="1"/>
+        <v>893.23618323924586</v>
+      </c>
+      <c r="H52" s="180">
+        <f t="shared" si="2"/>
+        <v>1686.071906439246</v>
+      </c>
+      <c r="I52" s="37">
         <f t="shared" si="3"/>
-        <v>198.49692960872133</v>
-      </c>
-      <c r="H52" s="35">
-        <f>B52+(C52*$M$3*$M$2)</f>
-        <v>967.69989069004941</v>
-      </c>
-      <c r="I52" s="36">
-        <f>C52*$M$3*$M$1</f>
-        <v>70.898286356016001</v>
+        <v>319.04228860207201</v>
       </c>
       <c r="J52" s="35">
         <f t="shared" si="4"/>
-        <v>1038.5981770460653</v>
+        <v>2005.114195041318</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="77">
         <v>75</v>
       </c>
-      <c r="B53" s="79">
+      <c r="B53" s="78">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="80">
+      <c r="C53" s="79">
         <f t="shared" ref="C53:D53" si="6">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="80">
         <f t="shared" si="6"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="36">
-        <f>G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>197.59450108280751</v>
-      </c>
-      <c r="H53" s="81">
-        <f t="shared" ref="H53" si="7">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>973.81435318758076</v>
-      </c>
-      <c r="I53" s="83">
-        <f t="shared" ref="I53" si="8">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>70.57596078568001</v>
-      </c>
-      <c r="J53" s="81">
-        <f t="shared" ref="J53" si="9">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>1044.3903139732606</v>
-      </c>
-      <c r="K53" s="42" t="s">
+        <f t="shared" si="1"/>
+        <v>889.17525487263367</v>
+      </c>
+      <c r="H53" s="180">
+        <f t="shared" si="2"/>
+        <v>1688.9204272393004</v>
+      </c>
+      <c r="I53" s="37">
+        <f t="shared" si="3"/>
+        <v>317.59182353556002</v>
+      </c>
+      <c r="J53" s="80">
+        <f t="shared" ref="J53" si="7">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
+        <v>2006.5122507748604</v>
+      </c>
+      <c r="K53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="77" t="s">
+      <c r="L53" s="76" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6001,20 +6007,20 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="36">
+        <f t="shared" si="1"/>
+        <v>888.01498962503024</v>
+      </c>
+      <c r="H54" s="180">
+        <f t="shared" si="2"/>
+        <v>1689.7342903250301</v>
+      </c>
+      <c r="I54" s="37">
         <f t="shared" si="3"/>
-        <v>197.33666436111784</v>
-      </c>
-      <c r="H54" s="35">
-        <f t="shared" ref="H54:H79" si="10">B54+(C54*$M$3*$M$2)</f>
-        <v>975.56134247258979</v>
-      </c>
-      <c r="I54" s="37">
-        <f t="shared" ref="I54:I79" si="11">C54*$M$3*$M$1</f>
-        <v>70.483867765584009</v>
+        <v>317.17740494512805</v>
       </c>
       <c r="J54" s="35">
         <f t="shared" si="4"/>
-        <v>1046.0452102381737</v>
+        <v>2006.9116952701581</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6033,20 +6039,20 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="36">
+        <f t="shared" si="1"/>
+        <v>882.67336142269835</v>
+      </c>
+      <c r="H55" s="180">
+        <f t="shared" si="2"/>
+        <v>1693.3560105226984</v>
+      </c>
+      <c r="I55" s="37">
         <f t="shared" si="3"/>
-        <v>196.14963587171076</v>
-      </c>
-      <c r="H55" s="35">
-        <f t="shared" si="10"/>
-        <v>983.47898830683084</v>
-      </c>
-      <c r="I55" s="37">
-        <f t="shared" si="11"/>
-        <v>70.059889994640017</v>
+        <v>315.26950497588007</v>
       </c>
       <c r="J55" s="35">
         <f t="shared" si="4"/>
-        <v>1053.538878301471</v>
+        <v>2008.6255154985784</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6065,20 +6071,20 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="36">
+        <f t="shared" si="1"/>
+        <v>877.20421424471374</v>
+      </c>
+      <c r="H56" s="180">
+        <f t="shared" si="2"/>
+        <v>1696.9299826447136</v>
+      </c>
+      <c r="I56" s="37">
         <f t="shared" si="3"/>
-        <v>194.93426983215863</v>
-      </c>
-      <c r="H56" s="35">
-        <f t="shared" si="10"/>
-        <v>991.45144131934262</v>
-      </c>
-      <c r="I56" s="37">
-        <f t="shared" si="11"/>
-        <v>69.625790738448003</v>
+        <v>313.31605832301602</v>
       </c>
       <c r="J56" s="35">
         <f t="shared" si="4"/>
-        <v>1061.0772320577905</v>
+        <v>2010.2460409677296</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6097,20 +6103,20 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="36">
+        <f t="shared" si="1"/>
+        <v>871.59692150977241</v>
+      </c>
+      <c r="H57" s="180">
+        <f t="shared" si="2"/>
+        <v>1700.4470304897725</v>
+      </c>
+      <c r="I57" s="37">
         <f t="shared" si="3"/>
-        <v>193.68820477994944</v>
-      </c>
-      <c r="H57" s="35">
-        <f t="shared" si="10"/>
-        <v>999.47807157998159</v>
-      </c>
-      <c r="I57" s="37">
-        <f t="shared" si="11"/>
-        <v>69.180726539904001</v>
+        <v>311.31326942956798</v>
       </c>
       <c r="J57" s="35">
         <f t="shared" si="4"/>
-        <v>1068.6587981198857</v>
+        <v>2011.7602999193405</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6129,20 +6135,20 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="36">
+        <f t="shared" si="1"/>
+        <v>865.84085663656992</v>
+      </c>
+      <c r="H58" s="180">
+        <f t="shared" si="2"/>
+        <v>1703.8979778565699</v>
+      </c>
+      <c r="I58" s="37">
         <f t="shared" si="3"/>
-        <v>192.40907925257108</v>
-      </c>
-      <c r="H58" s="35">
-        <f t="shared" si="10"/>
-        <v>1007.5582491586031</v>
-      </c>
-      <c r="I58" s="37">
-        <f t="shared" si="11"/>
-        <v>68.723853941903997</v>
+        <v>309.25734273856801</v>
       </c>
       <c r="J58" s="35">
         <f t="shared" si="4"/>
-        <v>1076.2821031005071</v>
+        <v>2013.1553205951379</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6161,20 +6167,20 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="36">
+        <f t="shared" si="1"/>
+        <v>859.92303158128971</v>
+      </c>
+      <c r="H59" s="180">
+        <f t="shared" si="2"/>
+        <v>1707.2712870812898</v>
+      </c>
+      <c r="I59" s="37">
         <f t="shared" si="3"/>
-        <v>191.09400701806442</v>
-      </c>
-      <c r="H59" s="35">
-        <f t="shared" si="10"/>
-        <v>1015.6908818339203</v>
-      </c>
-      <c r="I59" s="37">
-        <f t="shared" si="11"/>
-        <v>68.254142052432002</v>
+        <v>307.14363923594402</v>
       </c>
       <c r="J59" s="35">
         <f t="shared" si="4"/>
-        <v>1083.9450238863524</v>
+        <v>2014.4149263172337</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6193,20 +6199,20 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="36">
+        <f t="shared" si="1"/>
+        <v>853.8304583001152</v>
+      </c>
+      <c r="H60" s="180">
+        <f t="shared" si="2"/>
+        <v>1710.5539701201151</v>
+      </c>
+      <c r="I60" s="37">
         <f t="shared" si="3"/>
-        <v>189.74010184447008</v>
-      </c>
-      <c r="H60" s="35">
-        <f t="shared" si="10"/>
-        <v>1023.8734270046461</v>
-      </c>
-      <c r="I60" s="37">
-        <f t="shared" si="11"/>
-        <v>67.770559979471997</v>
+        <v>304.96751990762397</v>
       </c>
       <c r="J60" s="35">
         <f t="shared" si="4"/>
-        <v>1091.6439869841181</v>
+        <v>2015.521490027739</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6225,20 +6231,20 @@
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="36">
+        <f t="shared" si="1"/>
+        <v>847.54542582420606</v>
+      </c>
+      <c r="H61" s="180">
+        <f t="shared" si="2"/>
+        <v>1713.731216764206</v>
+      </c>
+      <c r="I61" s="37">
         <f t="shared" si="3"/>
-        <v>188.34342796093469</v>
-      </c>
-      <c r="H61" s="35">
-        <f t="shared" si="10"/>
-        <v>1032.1053182472067</v>
-      </c>
-      <c r="I61" s="37">
-        <f t="shared" si="11"/>
-        <v>67.271701961183993</v>
+        <v>302.72265882532798</v>
       </c>
       <c r="J61" s="35">
         <f t="shared" si="4"/>
-        <v>1099.3770202083906</v>
+        <v>2016.4538755895339</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6257,20 +6263,20 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="36">
+        <f t="shared" si="1"/>
+        <v>841.05140391597763</v>
+      </c>
+      <c r="H62" s="180">
+        <f t="shared" si="2"/>
+        <v>1716.7850463959776</v>
+      </c>
+      <c r="I62" s="37">
         <f t="shared" si="3"/>
-        <v>186.90031198132837</v>
-      </c>
-      <c r="H62" s="35">
-        <f t="shared" si="10"/>
-        <v>1040.3818691436004</v>
-      </c>
-      <c r="I62" s="37">
-        <f t="shared" si="11"/>
-        <v>66.756255953183995</v>
+        <v>300.40315178932798</v>
       </c>
       <c r="J62" s="35">
         <f t="shared" si="4"/>
-        <v>1107.1381250967843</v>
+        <v>2017.1881981853055</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6289,20 +6295,20 @@
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="36">
+        <f t="shared" si="1"/>
+        <v>834.324777950309</v>
+      </c>
+      <c r="H63" s="180">
+        <f t="shared" si="2"/>
+        <v>1719.6961955303091</v>
+      </c>
+      <c r="I63" s="37">
         <f t="shared" si="3"/>
-        <v>185.40550621117978</v>
-      </c>
-      <c r="H63" s="35">
-        <f t="shared" si="10"/>
-        <v>1048.7028079223958</v>
-      </c>
-      <c r="I63" s="37">
-        <f t="shared" si="11"/>
-        <v>66.222347606352002</v>
+        <v>298.00056422858404</v>
       </c>
       <c r="J63" s="35">
         <f t="shared" si="4"/>
-        <v>1114.9251555287478</v>
+        <v>2017.6967597588932</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6321,20 +6327,20 @@
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="36">
+        <f t="shared" si="1"/>
+        <v>827.33957183956716</v>
+      </c>
+      <c r="H64" s="180">
+        <f t="shared" si="2"/>
+        <v>1722.4401384595672</v>
+      </c>
+      <c r="I64" s="37">
         <f t="shared" si="3"/>
-        <v>183.85323818657048</v>
-      </c>
-      <c r="H64" s="35">
-        <f t="shared" si="10"/>
-        <v>1057.0644997610184</v>
-      </c>
-      <c r="I64" s="37">
-        <f t="shared" si="11"/>
-        <v>65.667915136656006</v>
+        <v>295.50561811495197</v>
       </c>
       <c r="J64" s="35">
         <f t="shared" si="4"/>
-        <v>1122.7324148976745</v>
+        <v>2017.9457565745192</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6353,20 +6359,20 @@
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="36">
+        <f t="shared" si="1"/>
+        <v>820.06626730235143</v>
+      </c>
+      <c r="H65" s="180">
+        <f t="shared" si="2"/>
+        <v>1724.9859065223513</v>
+      </c>
+      <c r="I65" s="37">
         <f t="shared" si="3"/>
-        <v>182.23694828941143</v>
-      </c>
-      <c r="H65" s="35">
-        <f t="shared" si="10"/>
-        <v>1065.4597156401794</v>
-      </c>
-      <c r="I65" s="37">
-        <f t="shared" si="11"/>
-        <v>65.090615607696009</v>
+        <v>292.90777023463204</v>
       </c>
       <c r="J65" s="35">
         <f t="shared" si="4"/>
-        <v>1130.5503312478754</v>
+        <v>2017.8936767569835</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6385,20 +6391,20 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="36">
+        <f t="shared" si="1"/>
+        <v>812.46826166972403</v>
+      </c>
+      <c r="H66" s="180">
+        <f t="shared" si="2"/>
+        <v>1727.302698569724</v>
+      </c>
+      <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>180.54850259327202</v>
-      </c>
-      <c r="H66" s="35">
-        <f t="shared" si="10"/>
-        <v>1073.88709156716</v>
-      </c>
-      <c r="I66" s="37">
-        <f t="shared" si="11"/>
-        <v>64.487543778336004</v>
+        <v>290.193947002512</v>
       </c>
       <c r="J66" s="35">
         <f t="shared" si="4"/>
-        <v>1138.374635345496</v>
+        <v>2017.496645572236</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6417,20 +6423,20 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="36">
+        <f t="shared" si="1"/>
+        <v>804.49950642269948</v>
+      </c>
+      <c r="H67" s="180">
+        <f t="shared" si="2"/>
+        <v>1729.3430157026996</v>
+      </c>
+      <c r="I67" s="37">
         <f t="shared" si="3"/>
-        <v>178.77766809393324</v>
-      </c>
-      <c r="H67" s="35">
-        <f t="shared" si="10"/>
-        <v>1082.3361624846693</v>
-      </c>
-      <c r="I67" s="37">
-        <f t="shared" si="11"/>
-        <v>63.855044667792001</v>
+        <v>287.34770100506398</v>
       </c>
       <c r="J67" s="35">
         <f t="shared" si="4"/>
-        <v>1146.1912071524614</v>
+        <v>2016.6907167077636</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6449,20 +6455,20 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="36">
+        <f t="shared" si="1"/>
+        <v>796.10568792350023</v>
+      </c>
+      <c r="H68" s="180">
+        <f t="shared" si="2"/>
+        <v>1731.0568954235005</v>
+      </c>
+      <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>176.91237509411118</v>
-      </c>
-      <c r="H68" s="35">
-        <f t="shared" si="10"/>
-        <v>1090.8006468364154</v>
-      </c>
-      <c r="I68" s="37">
-        <f t="shared" si="11"/>
-        <v>63.18880727308801</v>
+        <v>284.34963272889604</v>
       </c>
       <c r="J68" s="35">
         <f t="shared" si="4"/>
-        <v>1153.9894541095034</v>
+        <v>2015.4065281523965</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6481,20 +6487,20 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:G79" si="12">C69*$M$3*($M$2+$M$4)</f>
-        <v>174.9366181256683</v>
-      </c>
-      <c r="H69" s="35">
-        <f t="shared" si="10"/>
-        <v>1099.2693455025324</v>
+        <f t="shared" ref="G69:G79" si="8">C69*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>787.21478156550734</v>
+      </c>
+      <c r="H69" s="180">
+        <f t="shared" ref="H69:H79" si="9">B69+G69</f>
+        <v>1732.3752138855073</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" si="11"/>
-        <v>62.483114829408009</v>
+        <f t="shared" ref="I69:I79" si="10">C69*($M$3*$P$5)*$M$1</f>
+        <v>281.17401673233599</v>
       </c>
       <c r="J69" s="35">
         <f t="shared" si="4"/>
-        <v>1161.7524603319403</v>
+        <v>2013.5492306178433</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6513,20 +6519,20 @@
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="36">
-        <f t="shared" si="12"/>
-        <v>172.83019356489021</v>
-      </c>
-      <c r="H70" s="35">
+        <f t="shared" si="8"/>
+        <v>777.73587104200601</v>
+      </c>
+      <c r="H70" s="180">
+        <f t="shared" si="9"/>
+        <v>1733.2070547820063</v>
+      </c>
+      <c r="I70" s="37">
         <f t="shared" si="10"/>
-        <v>1107.7244602740104</v>
-      </c>
-      <c r="I70" s="37">
-        <f t="shared" si="11"/>
-        <v>61.730751092640013</v>
+        <v>277.78837991688005</v>
       </c>
       <c r="J70" s="35">
         <f t="shared" si="4"/>
-        <v>1169.4552113666505</v>
+        <v>2010.9954346988864</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6545,20 +6551,20 @@
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="36">
-        <f t="shared" si="12"/>
-        <v>170.56660055469678</v>
-      </c>
-      <c r="H71" s="35">
+        <f t="shared" si="8"/>
+        <v>767.54970249613541</v>
+      </c>
+      <c r="H71" s="180">
+        <f t="shared" si="9"/>
+        <v>1733.4375153961355</v>
+      </c>
+      <c r="I71" s="37">
         <f t="shared" si="10"/>
-        <v>1116.1469965881208</v>
-      </c>
-      <c r="I71" s="37">
-        <f t="shared" si="11"/>
-        <v>60.922250599728002</v>
+        <v>274.15012769877598</v>
       </c>
       <c r="J71" s="35">
         <f t="shared" si="4"/>
-        <v>1177.0692471878488</v>
+        <v>2007.5876430949115</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6577,20 +6583,20 @@
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="36">
-        <f t="shared" si="12"/>
-        <v>168.10831807961827</v>
-      </c>
-      <c r="H72" s="35">
+        <f t="shared" si="8"/>
+        <v>756.48743135828227</v>
+      </c>
+      <c r="H72" s="180">
+        <f t="shared" si="9"/>
+        <v>1732.9035526782823</v>
+      </c>
+      <c r="I72" s="37">
         <f t="shared" si="10"/>
-        <v>1124.5097021481304</v>
-      </c>
-      <c r="I72" s="37">
-        <f t="shared" si="11"/>
-        <v>60.044211754464001</v>
+        <v>270.19895289508804</v>
       </c>
       <c r="J72" s="35">
         <f t="shared" si="4"/>
-        <v>1184.5539139025943</v>
+        <v>2003.1025055733703</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6609,20 +6615,20 @@
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="36">
-        <f t="shared" si="12"/>
-        <v>165.40260681021817</v>
-      </c>
-      <c r="H73" s="35">
+        <f t="shared" si="8"/>
+        <v>744.3117306459817</v>
+      </c>
+      <c r="H73" s="180">
+        <f t="shared" si="9"/>
+        <v>1731.3678396459818</v>
+      </c>
+      <c r="I73" s="37">
         <f t="shared" si="10"/>
-        <v>1132.7661166941543</v>
-      </c>
-      <c r="I73" s="37">
-        <f t="shared" si="11"/>
-        <v>59.077797348192007</v>
+        <v>265.85008806686398</v>
       </c>
       <c r="J73" s="35">
         <f t="shared" si="4"/>
-        <v>1191.8439140423463</v>
+        <v>1997.2179277128457</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6641,20 +6647,20 @@
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="36">
-        <f t="shared" si="12"/>
-        <v>162.36917702108568</v>
-      </c>
-      <c r="H74" s="35">
+        <f t="shared" si="8"/>
+        <v>730.66129659488536</v>
+      </c>
+      <c r="H74" s="180">
+        <f t="shared" si="9"/>
+        <v>1728.4792251948852</v>
+      </c>
+      <c r="I74" s="37">
         <f t="shared" si="10"/>
-        <v>1140.8556623412937</v>
-      </c>
-      <c r="I74" s="37">
-        <f t="shared" si="11"/>
-        <v>57.994329839376007</v>
+        <v>260.974484277192</v>
       </c>
       <c r="J74" s="35">
         <f t="shared" si="4"/>
-        <v>1198.8499921806697</v>
+        <v>1989.4537094720772</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6673,20 +6679,20 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="36">
-        <f t="shared" si="12"/>
-        <v>158.87631158099123</v>
-      </c>
-      <c r="H75" s="35">
+        <f t="shared" si="8"/>
+        <v>714.94340211446047</v>
+      </c>
+      <c r="H75" s="180">
+        <f t="shared" si="9"/>
+        <v>1723.6478829944604</v>
+      </c>
+      <c r="I75" s="37">
         <f t="shared" si="10"/>
-        <v>1148.6652047726232</v>
-      </c>
-      <c r="I75" s="37">
-        <f t="shared" si="11"/>
-        <v>56.746763065104005</v>
+        <v>255.36043379296802</v>
       </c>
       <c r="J75" s="35">
         <f t="shared" si="4"/>
-        <v>1205.4119678377272</v>
+        <v>1979.0083167874284</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6705,20 +6711,20 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="36">
-        <f t="shared" si="12"/>
-        <v>154.68235415953163</v>
-      </c>
-      <c r="H76" s="35">
+        <f t="shared" si="8"/>
+        <v>696.07059371789228</v>
+      </c>
+      <c r="H76" s="180">
+        <f t="shared" si="9"/>
+        <v>1715.7965122178923</v>
+      </c>
+      <c r="I76" s="37">
         <f t="shared" si="10"/>
-        <v>1155.9920115767318</v>
-      </c>
-      <c r="I76" s="37">
-        <f t="shared" si="11"/>
-        <v>55.248783248400002</v>
+        <v>248.61952461780001</v>
       </c>
       <c r="J76" s="35">
         <f t="shared" si="4"/>
-        <v>1211.2407948251318</v>
+        <v>1964.4160368356922</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6737,20 +6743,20 @@
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="36">
-        <f t="shared" si="12"/>
-        <v>149.25230230535834</v>
-      </c>
-      <c r="H77" s="35">
+        <f t="shared" si="8"/>
+        <v>671.63536037411257</v>
+      </c>
+      <c r="H77" s="180">
+        <f t="shared" si="9"/>
+        <v>1702.5292048741126</v>
+      </c>
+      <c r="I77" s="37">
         <f t="shared" si="10"/>
-        <v>1162.3763799731985</v>
-      </c>
-      <c r="I77" s="37">
-        <f t="shared" si="11"/>
-        <v>53.309300496480006</v>
+        <v>239.89185223416001</v>
       </c>
       <c r="J77" s="35">
         <f t="shared" si="4"/>
-        <v>1215.6856804696786</v>
+        <v>1942.4210571082726</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6769,20 +6775,20 @@
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="36">
-        <f t="shared" si="12"/>
-        <v>140.84392145400116</v>
-      </c>
-      <c r="H78" s="35">
+        <f t="shared" si="8"/>
+        <v>633.79764654300516</v>
+      </c>
+      <c r="H78" s="180">
+        <f t="shared" si="9"/>
+        <v>1676.0291115030052</v>
+      </c>
+      <c r="I78" s="37">
         <f t="shared" si="10"/>
-        <v>1166.3067094468331</v>
-      </c>
-      <c r="I78" s="37">
-        <f t="shared" si="11"/>
-        <v>50.306030901504002</v>
+        <v>226.37713905676799</v>
       </c>
       <c r="J78" s="35">
         <f t="shared" si="4"/>
-        <v>1216.6127403483372</v>
+        <v>1902.4062505597731</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6801,22 +6807,22 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="36">
-        <f t="shared" si="12"/>
-        <v>118.60078128324339</v>
-      </c>
-      <c r="H79" s="38">
+        <f t="shared" si="8"/>
+        <v>533.70351577459519</v>
+      </c>
+      <c r="H79" s="180">
+        <f t="shared" si="9"/>
+        <v>1584.5038257745953</v>
+      </c>
+      <c r="I79" s="37">
         <f t="shared" si="10"/>
-        <v>1155.2806509485715</v>
-      </c>
-      <c r="I79" s="39">
-        <f t="shared" si="11"/>
-        <v>42.361321004016006</v>
+        <v>190.62594451807203</v>
       </c>
       <c r="J79" s="38">
         <f t="shared" si="4"/>
-        <v>1197.6419719525875</v>
-      </c>
-      <c r="K79" s="50"/>
+        <v>1775.1297702926672</v>
+      </c>
+      <c r="K79" s="49"/>
       <c r="L79" s="22"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9049,7 +9055,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H53:J53 H47:J47" formula="1"/>
+    <ignoredError sqref="J53 J47" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9070,7 +9076,7 @@
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="63"/>
+    <col min="5" max="5" width="11.42578125" style="62"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
@@ -9083,42 +9089,42 @@
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="75" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="74" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="168" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="171" t="s">
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="173" t="s">
+      <c r="N1" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="177" t="s">
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="53"/>
+      <c r="S1" s="52"/>
       <c r="T1" t="s">
         <v>60</v>
       </c>
@@ -9133,45 +9139,45 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="179" t="s">
+      <c r="I2" s="176"/>
+      <c r="J2" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="88" t="s">
+      <c r="K2" s="167"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="178"/>
-      <c r="S2" s="71"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="70"/>
       <c r="T2" t="s">
         <v>14</v>
       </c>
@@ -9187,51 +9193,51 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="118" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="131" t="s">
+      <c r="F3" s="174"/>
+      <c r="G3" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="114" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="128" t="s">
+      <c r="N3" s="179"/>
+      <c r="O3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="128" t="s">
+      <c r="P3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="128" t="s">
+      <c r="Q3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="53"/>
+      <c r="S3" s="52"/>
       <c r="T3" t="s">
         <v>13</v>
       </c>
@@ -9247,66 +9253,66 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
+      <c r="A4" s="100">
         <v>32</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="104">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="102">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="103">
         <v>0.16525852904319999</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="95">
+      <c r="E4" s="51"/>
+      <c r="F4" s="93">
         <f t="shared" ref="F4:F35" si="0">($C$53-C4)/(D4-C4)</f>
         <v>0.18736491688811011</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="135">
         <f t="shared" ref="G4:G35" si="1">$U$7/((C4*(1-F4))+(D4*F4))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="82">
         <f>G4*F4</f>
         <v>0.14075320424349502</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="83">
         <f>H4-$G$55</f>
         <v>0.10376485577017228</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="82">
         <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(I4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.7474546839908689</v>
       </c>
-      <c r="K4" s="96">
+      <c r="K4" s="94">
         <f>J4*12</f>
         <v>8.9694562078904276</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="122">
+      <c r="N4" s="120">
         <f>($C$47-C4)/(D4-C4)</f>
         <v>0.15895834986355586</v>
       </c>
-      <c r="O4" s="89">
+      <c r="O4" s="87">
         <f t="shared" ref="O4:O47" si="2">$U$7/((C4*(1-N4))+(D4*N4))</f>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="88">
         <f>O4*N4</f>
         <v>0.11582267126091907</v>
       </c>
-      <c r="Q4" s="90">
+      <c r="Q4" s="88">
         <f t="shared" ref="Q4:Q47" si="3">P4-$G$55</f>
         <v>7.8834322787596306E-2</v>
       </c>
-      <c r="R4" s="123">
+      <c r="R4" s="121">
         <f>IF(Q4&gt;0, ('BPV Calcs'!$B$8/12)+(Q4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.63043898282165145</v>
       </c>
-      <c r="S4" s="52"/>
+      <c r="S4" s="51"/>
       <c r="T4" t="s">
         <v>61</v>
       </c>
@@ -9315,66 +9321,66 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+      <c r="A5" s="100">
         <v>32.9</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="104">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="102">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="103">
         <v>0.16772615040639999</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="95">
+      <c r="E5" s="51"/>
+      <c r="F5" s="93">
         <f t="shared" si="0"/>
         <v>0.18512214630827489</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="82">
         <f t="shared" ref="H5:H53" si="4">G5*F5</f>
         <v>0.13906837897984459</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="83">
         <f t="shared" ref="I5:I53" si="5">H5-$G$55</f>
         <v>0.10208003050652184</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="82">
         <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(I5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.73954666976143157</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="94">
         <f t="shared" ref="K5:K53" si="6">J5*12</f>
         <v>8.8745600371371793</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="122">
+      <c r="N5" s="120">
         <f t="shared" ref="N5:N47" si="7">($C$47-C5)/(D5-C5)</f>
         <v>0.15658283861487579</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="88">
         <f t="shared" ref="P5:P45" si="8">O5*N5</f>
         <v>0.11409178981512741</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="88">
         <f t="shared" si="3"/>
         <v>7.7103441341804663E-2</v>
       </c>
-      <c r="R5" s="123">
+      <c r="R5" s="121">
         <f>IF(Q5&gt;0, ('BPV Calcs'!$B$8/12)+(Q5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.62231479605991424</v>
       </c>
-      <c r="S5" s="52"/>
+      <c r="S5" s="51"/>
       <c r="T5" t="s">
         <v>36</v>
       </c>
@@ -9383,66 +9389,66 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
+      <c r="A6" s="100">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="104">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="102">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="103">
         <v>0.1702317244288</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="95">
+      <c r="E6" s="51"/>
+      <c r="F6" s="93">
         <f t="shared" si="0"/>
         <v>0.18284364136366457</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="82">
         <f t="shared" si="4"/>
         <v>0.13735670916905462</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="83">
         <f t="shared" si="5"/>
         <v>0.10036836069573188</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="82">
         <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(I6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.73151265607950378</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="94">
         <f t="shared" si="6"/>
         <v>8.7781518729540444</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="122">
+      <c r="N6" s="120">
         <f t="shared" si="7"/>
         <v>0.1541689886823846</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="88">
         <f t="shared" si="8"/>
         <v>0.112332973449431</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="88">
         <f t="shared" si="3"/>
         <v>7.5344624976108249E-2</v>
       </c>
-      <c r="R6" s="123">
+      <c r="R6" s="121">
         <f>IF(Q6&gt;0, ('BPV Calcs'!$B$8/12)+(Q6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.61405949199546828</v>
       </c>
-      <c r="S6" s="52"/>
+      <c r="S6" s="51"/>
       <c r="T6" t="s">
         <v>37</v>
       </c>
@@ -9451,3009 +9457,3009 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="A7" s="100">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="104">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="102">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="103">
         <v>0.17277604664159998</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="95">
+      <c r="E7" s="51"/>
+      <c r="F7" s="93">
         <f t="shared" si="0"/>
         <v>0.18053067987595114</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="82">
         <f t="shared" si="4"/>
         <v>0.1356191547426735</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="83">
         <f t="shared" si="5"/>
         <v>9.8630806269350751E-2</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="82">
         <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(I7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.72335714854724331</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="94">
         <f t="shared" si="6"/>
         <v>8.6802857825669193</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="122">
+      <c r="N7" s="120">
         <f t="shared" si="7"/>
         <v>0.15171807787171285</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="88">
         <f t="shared" si="8"/>
         <v>0.11054715321816959</v>
       </c>
-      <c r="Q7" s="90">
+      <c r="Q7" s="88">
         <f t="shared" si="3"/>
         <v>7.3558804744846829E-2</v>
       </c>
-      <c r="R7" s="123">
+      <c r="R7" s="121">
         <f>IF(Q7&gt;0, ('BPV Calcs'!$B$8/12)+(Q7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.60567744069037677</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="42" t="s">
+      <c r="S7" s="51"/>
+      <c r="T7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="41">
         <f>U5*U6</f>
         <v>1.0976899397500375</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="102">
+      <c r="A8" s="100">
         <v>35.6</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="104">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="102">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="103">
         <v>0.17536002899519998</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="95">
+      <c r="E8" s="51"/>
+      <c r="F8" s="93">
         <f t="shared" si="0"/>
         <v>0.17818152870115089</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="82">
         <f t="shared" si="4"/>
         <v>0.13385441371966245</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="83">
         <f t="shared" si="5"/>
         <v>9.68660652463397E-2</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="82">
         <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(I8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.71507403609497255</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="94">
         <f t="shared" si="6"/>
         <v>8.5808884331396698</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="122">
+      <c r="N8" s="120">
         <f t="shared" si="7"/>
         <v>0.14922826351373839</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P8" s="88">
         <f t="shared" si="8"/>
         <v>0.10873298648750131</v>
       </c>
-      <c r="Q8" s="90">
+      <c r="Q8" s="88">
         <f t="shared" si="3"/>
         <v>7.1744638014178547E-2</v>
       </c>
-      <c r="R8" s="123">
+      <c r="R8" s="121">
         <f>IF(Q8&gt;0, ('BPV Calcs'!$B$8/12)+(Q8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.59716234026410897</v>
       </c>
-      <c r="S8" s="52"/>
+      <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="102">
+      <c r="A9" s="100">
         <v>36.5</v>
       </c>
-      <c r="B9" s="106">
+      <c r="B9" s="104">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="102">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="103">
         <v>0.17798456403679999</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="95">
+      <c r="E9" s="51"/>
+      <c r="F9" s="93">
         <f t="shared" si="0"/>
         <v>0.17579439116722953</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <f t="shared" si="4"/>
         <v>0.13206113639512471</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="83">
         <f t="shared" si="5"/>
         <v>9.507278792180196E-2</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="82">
         <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(I9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.70665698365296103</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="94">
         <f t="shared" si="6"/>
         <v>8.4798838038355324</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="122">
+      <c r="N9" s="120">
         <f t="shared" si="7"/>
         <v>0.14669763583368992</v>
       </c>
-      <c r="O9" s="89">
+      <c r="O9" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="88">
         <f t="shared" si="8"/>
         <v>0.10688908172803678</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="88">
         <f t="shared" si="3"/>
         <v>6.990073325471402E-2</v>
       </c>
-      <c r="R9" s="123">
+      <c r="R9" s="121">
         <f>IF(Q9&gt;0, ('BPV Calcs'!$B$8/12)+(Q9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.58850765933655724</v>
       </c>
-      <c r="S9" s="52"/>
+      <c r="S9" s="51"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
+      <c r="A10" s="100">
         <v>37.4</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="104">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="102">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="103">
         <v>0.18065056371679999</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="95">
+      <c r="E10" s="51"/>
+      <c r="F10" s="93">
         <f t="shared" si="0"/>
         <v>0.17336740843776965</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="82">
         <f t="shared" si="4"/>
         <v>0.13023792636472664</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="83">
         <f t="shared" si="5"/>
         <v>9.3249577891403895E-2</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="82">
         <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(I10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.69809943695971999</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="94">
         <f t="shared" si="6"/>
         <v>8.3771932435166399</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="122">
+      <c r="N10" s="120">
         <f t="shared" si="7"/>
         <v>0.14412421839668005</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="88">
         <f t="shared" si="8"/>
         <v>0.10501399883947034</v>
       </c>
-      <c r="Q10" s="90">
+      <c r="Q10" s="88">
         <f t="shared" si="3"/>
         <v>6.8025650366147578E-2</v>
       </c>
-      <c r="R10" s="123">
+      <c r="R10" s="121">
         <f>IF(Q10&gt;0, ('BPV Calcs'!$B$8/12)+(Q10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57970663855174887</v>
       </c>
-      <c r="S10" s="52"/>
+      <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="102">
+      <c r="A11" s="100">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="104">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="102">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="103">
         <v>0.18335905640479999</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="95">
+      <c r="E11" s="51"/>
+      <c r="F11" s="93">
         <f t="shared" si="0"/>
         <v>0.17090179823980461</v>
       </c>
-      <c r="G11" s="137">
+      <c r="G11" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <f t="shared" si="4"/>
         <v>0.12838569841542352</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="83">
         <f t="shared" si="5"/>
         <v>9.1397349942100775E-2</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="82">
         <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(I11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68940568972357363</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="94">
         <f t="shared" si="6"/>
         <v>8.2728682766828836</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="122">
+      <c r="N11" s="120">
         <f t="shared" si="7"/>
         <v>0.14150921576045203</v>
       </c>
-      <c r="O11" s="89">
+      <c r="O11" s="87">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="88">
         <f t="shared" si="8"/>
         <v>0.10310861550514253</v>
       </c>
-      <c r="Q11" s="90">
+      <c r="Q11" s="88">
         <f t="shared" si="3"/>
         <v>6.6120267031819779E-2</v>
       </c>
-      <c r="R11" s="123">
+      <c r="R11" s="121">
         <f>IF(Q11&gt;0, ('BPV Calcs'!$B$8/12)+(Q11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57076339746587479</v>
       </c>
-      <c r="S11" s="52"/>
+      <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="102">
+      <c r="A12" s="100">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="104">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="102">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="103">
         <v>0.18611099285759999</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="95">
+      <c r="E12" s="51"/>
+      <c r="F12" s="93">
         <f t="shared" si="0"/>
         <v>0.16839248697229939</v>
       </c>
-      <c r="G12" s="137">
+      <c r="G12" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="82">
         <f t="shared" si="4"/>
         <v>0.12650064113142523</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="83">
         <f t="shared" si="5"/>
         <v>8.9512292658102482E-2</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="82">
         <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(I12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68055785241558797</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="94">
         <f t="shared" si="6"/>
         <v>8.1666942289870548</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="122">
+      <c r="N12" s="120">
         <f t="shared" si="7"/>
         <v>0.13884731825649951</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="88">
         <f t="shared" si="8"/>
         <v>0.1011690629129371</v>
       </c>
-      <c r="Q12" s="90">
+      <c r="Q12" s="88">
         <f t="shared" si="3"/>
         <v>6.4180714439614345E-2</v>
       </c>
-      <c r="R12" s="123">
+      <c r="R12" s="121">
         <f>IF(Q12&gt;0, ('BPV Calcs'!$B$8/12)+(Q12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.56165977715057258</v>
       </c>
-      <c r="S12" s="52"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
+      <c r="A13" s="100">
         <v>40.1</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="104">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="102">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="103">
         <v>0.1889074790576</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="95">
+      <c r="E13" s="51"/>
+      <c r="F13" s="93">
         <f t="shared" si="0"/>
         <v>0.16584166910419268</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <f t="shared" si="4"/>
         <v>0.12458440305259647</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="83">
         <f t="shared" si="5"/>
         <v>8.7596054579273719E-2</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="82">
         <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(I13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67156366273829482</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="94">
         <f t="shared" si="6"/>
         <v>8.0587639528595378</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="122">
+      <c r="N13" s="120">
         <f t="shared" si="7"/>
         <v>0.13614073631623833</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="88">
         <f t="shared" si="8"/>
         <v>9.9196951661299826E-2</v>
       </c>
-      <c r="Q13" s="90">
+      <c r="Q13" s="88">
         <f t="shared" si="3"/>
         <v>6.2208603187977073E-2</v>
       </c>
-      <c r="R13" s="123">
+      <c r="R13" s="121">
         <f>IF(Q13&gt;0, ('BPV Calcs'!$B$8/12)+(Q13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.55240333722386414</v>
       </c>
-      <c r="S13" s="52"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="102">
+      <c r="A14" s="100">
         <v>41</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="104">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="102">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="103">
         <v>0.19174958218079999</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="95">
+      <c r="E14" s="51"/>
+      <c r="F14" s="93">
         <f t="shared" si="0"/>
         <v>0.16324517830239926</v>
       </c>
-      <c r="G14" s="137">
+      <c r="G14" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="82">
         <f t="shared" si="4"/>
         <v>0.12263385432548642</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="83">
         <f t="shared" si="5"/>
         <v>8.5645505852163656E-2</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="82">
         <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(I14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.66240843019164086</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="94">
         <f t="shared" si="6"/>
         <v>7.9489011622996903</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="122">
+      <c r="N14" s="120">
         <f t="shared" si="7"/>
         <v>0.1333850924260572</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="88">
         <f t="shared" si="8"/>
         <v>9.718909213911324E-2</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="88">
         <f t="shared" si="3"/>
         <v>6.0200743665790486E-2</v>
       </c>
-      <c r="R14" s="123">
+      <c r="R14" s="121">
         <f>IF(Q14&gt;0, ('BPV Calcs'!$B$8/12)+(Q14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.54297910670291372</v>
       </c>
-      <c r="S14" s="52"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="102">
+      <c r="A15" s="100">
         <v>41.9</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="104">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="103">
         <v>0.19463846641919999</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="95">
+      <c r="E15" s="51"/>
+      <c r="F15" s="93">
         <f t="shared" si="0"/>
         <v>0.16060302380499611</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <f t="shared" si="4"/>
         <v>0.12064900188996915</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="83">
         <f t="shared" si="5"/>
         <v>8.3660653416646386E-2</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="82">
         <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(I15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.65309218734910679</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="94">
         <f t="shared" si="6"/>
         <v>7.837106248189281</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="122">
+      <c r="N15" s="120">
         <f t="shared" si="7"/>
         <v>0.13058032854768797</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="88">
         <f t="shared" si="8"/>
         <v>9.5145442057644081E-2</v>
       </c>
-      <c r="Q15" s="90">
+      <c r="Q15" s="88">
         <f t="shared" si="3"/>
         <v>5.8157093584321327E-2</v>
       </c>
-      <c r="R15" s="123">
+      <c r="R15" s="121">
         <f>IF(Q15&gt;0, ('BPV Calcs'!$B$8/12)+(Q15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.5333868870983518</v>
       </c>
-      <c r="S15" s="52"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="102">
+      <c r="A16" s="100">
         <v>42.8</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="104">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="102">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="103">
         <v>0.19757531536799999</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="95">
+      <c r="E16" s="51"/>
+      <c r="F16" s="93">
         <f t="shared" si="0"/>
         <v>0.15791193997714462</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="82">
         <f t="shared" si="4"/>
         <v>0.11862739251960797</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="83">
         <f t="shared" si="5"/>
         <v>8.163904404628522E-2</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="82">
         <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(I16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.64360341957473133</v>
       </c>
-      <c r="K16" s="96">
+      <c r="K16" s="94">
         <f t="shared" si="6"/>
         <v>7.7232410348967759</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="122">
+      <c r="N16" s="120">
         <f t="shared" si="7"/>
         <v>0.12772299193084816</v>
       </c>
-      <c r="O16" s="89">
+      <c r="O16" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="88">
         <f t="shared" si="8"/>
         <v>9.3063485621017156E-2</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="88">
         <f t="shared" si="3"/>
         <v>5.6075137147694402E-2</v>
       </c>
-      <c r="R16" s="123">
+      <c r="R16" s="121">
         <f>IF(Q16&gt;0, ('BPV Calcs'!$B$8/12)+(Q16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52361487009390451</v>
       </c>
-      <c r="S16" s="52"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="102">
+      <c r="A17" s="100">
         <v>43.7</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="104">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="102">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="103">
         <v>0.20056135142879999</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="95">
+      <c r="E17" s="51"/>
+      <c r="F17" s="93">
         <f t="shared" si="0"/>
         <v>0.15517073555268265</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="82">
         <f t="shared" si="4"/>
         <v>0.11656813130551485</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="83">
         <f t="shared" si="5"/>
         <v>7.9579782832192109E-2</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="82">
         <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(I17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63393792646128322</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="94">
         <f t="shared" si="6"/>
         <v>7.6072551175353986</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="122">
+      <c r="N17" s="120">
         <f t="shared" si="7"/>
         <v>0.1248117746228357</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O17" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="88">
         <f t="shared" si="8"/>
         <v>9.0942269808671011E-2</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="88">
         <f t="shared" si="3"/>
         <v>5.3953921335348258E-2</v>
       </c>
-      <c r="R17" s="123">
+      <c r="R17" s="121">
         <f>IF(Q17&gt;0, ('BPV Calcs'!$B$8/12)+(Q17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.51365858252530772</v>
       </c>
-      <c r="S17" s="52"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="102">
+      <c r="A18" s="100">
         <v>44.6</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="104">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="102">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="103">
         <v>0.20359789401919998</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="95">
+      <c r="E18" s="51"/>
+      <c r="F18" s="93">
         <f t="shared" si="0"/>
         <v>0.15237817442287846</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="82">
         <f t="shared" si="4"/>
         <v>0.11447028965194368</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="83">
         <f t="shared" si="5"/>
         <v>7.7481941178620922E-2</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="82">
         <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(I18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.62409134948652745</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="94">
         <f t="shared" si="6"/>
         <v>7.4890961938383294</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="122">
+      <c r="N18" s="120">
         <f t="shared" si="7"/>
         <v>0.12184531722222625</v>
       </c>
-      <c r="O18" s="89">
+      <c r="O18" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="88">
         <f t="shared" si="8"/>
         <v>8.8780804112686948E-2</v>
       </c>
-      <c r="Q18" s="90">
+      <c r="Q18" s="88">
         <f t="shared" si="3"/>
         <v>5.1792455639364195E-2</v>
       </c>
-      <c r="R18" s="123">
+      <c r="R18" s="121">
         <f>IF(Q18&gt;0, ('BPV Calcs'!$B$8/12)+(Q18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.50351337527500317</v>
       </c>
-      <c r="S18" s="52"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="102">
+      <c r="A19" s="100">
         <v>45.5</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="104">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="102">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="103">
         <v>0.20668630136319999</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="95">
+      <c r="E19" s="51"/>
+      <c r="F19" s="93">
         <f t="shared" si="0"/>
         <v>0.14953184761109797</v>
       </c>
-      <c r="G19" s="137">
+      <c r="G19" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="82">
         <f t="shared" si="4"/>
         <v>0.11233205787549259</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="83">
         <f t="shared" si="5"/>
         <v>7.5343709402169834E-2</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="82">
         <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(I19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.61405519459330482</v>
       </c>
-      <c r="K19" s="96">
+      <c r="K19" s="94">
         <f t="shared" si="6"/>
         <v>7.3686623351196578</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="122">
+      <c r="N19" s="120">
         <f t="shared" si="7"/>
         <v>0.11882104131137136</v>
       </c>
-      <c r="O19" s="89">
+      <c r="O19" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P19" s="88">
         <f t="shared" si="8"/>
         <v>8.6577209806845648E-2</v>
       </c>
-      <c r="Q19" s="90">
+      <c r="Q19" s="88">
         <f t="shared" si="3"/>
         <v>4.9588861333522895E-2</v>
       </c>
-      <c r="R19" s="123">
+      <c r="R19" s="121">
         <f>IF(Q19&gt;0, ('BPV Calcs'!$B$8/12)+(Q19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.493170430221613</v>
       </c>
-      <c r="S19" s="52"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="102">
+      <c r="A20" s="100">
         <v>46.4</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="104">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="102">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="103">
         <v>0.2098279704912</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="95">
+      <c r="E20" s="51"/>
+      <c r="F20" s="93">
         <f t="shared" si="0"/>
         <v>0.14662924681830652</v>
       </c>
-      <c r="G20" s="137">
+      <c r="G20" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="82">
         <f t="shared" si="4"/>
         <v>0.11015155167929216</v>
       </c>
-      <c r="I20" s="85">
+      <c r="I20" s="83">
         <f t="shared" si="5"/>
         <v>7.3163203205969418E-2</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="82">
         <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(I20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.60382061751344285</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K20" s="94">
         <f t="shared" si="6"/>
         <v>7.2458474101613142</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="122">
+      <c r="N20" s="120">
         <f t="shared" si="7"/>
         <v>0.11573626116593252</v>
       </c>
-      <c r="O20" s="89">
+      <c r="O20" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="88">
         <f t="shared" si="8"/>
         <v>8.4329529977481194E-2</v>
       </c>
-      <c r="Q20" s="90">
+      <c r="Q20" s="88">
         <f t="shared" si="3"/>
         <v>4.734118150415844E-2</v>
       </c>
-      <c r="R20" s="123">
+      <c r="R20" s="121">
         <f>IF(Q20&gt;0, ('BPV Calcs'!$B$8/12)+(Q20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.48262056225766659</v>
       </c>
-      <c r="S20" s="52"/>
+      <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="102">
+      <c r="A21" s="100">
         <v>47.3</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="104">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="102">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="103">
         <v>0.21302437604639998</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="95">
+      <c r="E21" s="51"/>
+      <c r="F21" s="93">
         <f t="shared" si="0"/>
         <v>0.14366890189539364</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="82">
         <f t="shared" si="4"/>
         <v>0.10792766665061956</v>
       </c>
-      <c r="I21" s="85">
+      <c r="I21" s="83">
         <f t="shared" si="5"/>
         <v>7.0939318177296817E-2</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="82">
         <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(I21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.59338243449779193</v>
       </c>
-      <c r="K21" s="96">
+      <c r="K21" s="94">
         <f t="shared" si="6"/>
         <v>7.1205892139735028</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="122">
+      <c r="N21" s="120">
         <f t="shared" si="7"/>
         <v>0.11258936129657487</v>
       </c>
-      <c r="O21" s="89">
+      <c r="O21" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="88">
         <f t="shared" si="8"/>
         <v>8.2036587521973195E-2</v>
       </c>
-      <c r="Q21" s="90">
+      <c r="Q21" s="88">
         <f t="shared" si="3"/>
         <v>4.5048239048650442E-2</v>
       </c>
-      <c r="R21" s="123">
+      <c r="R21" s="121">
         <f>IF(Q21&gt;0, ('BPV Calcs'!$B$8/12)+(Q21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.47185824645160424</v>
       </c>
-      <c r="S21" s="52"/>
+      <c r="S21" s="51"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="102">
+      <c r="A22" s="100">
         <v>48.2</v>
       </c>
-      <c r="B22" s="106">
+      <c r="B22" s="104">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="102">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="103">
         <v>0.21627710909119999</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="95">
+      <c r="E22" s="51"/>
+      <c r="F22" s="93">
         <f t="shared" si="0"/>
         <v>0.14064697985759764</v>
       </c>
-      <c r="G22" s="137">
+      <c r="G22" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="82">
         <f t="shared" si="4"/>
         <v>0.10565752335560866</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="83">
         <f t="shared" si="5"/>
         <v>6.866917488228591E-2</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="82">
         <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(I22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.58272713043325564</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="94">
         <f t="shared" si="6"/>
         <v>6.9927255651990681</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="122">
+      <c r="N22" s="120">
         <f t="shared" si="7"/>
         <v>0.10937627096550176</v>
       </c>
-      <c r="O22" s="89">
+      <c r="O22" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P22" s="90">
+      <c r="P22" s="88">
         <f t="shared" si="8"/>
         <v>7.9695416356904122E-2</v>
       </c>
-      <c r="Q22" s="90">
+      <c r="Q22" s="88">
         <f t="shared" si="3"/>
         <v>4.2707067883581369E-2</v>
       </c>
-      <c r="R22" s="123">
+      <c r="R22" s="121">
         <f>IF(Q22&gt;0, ('BPV Calcs'!$B$8/12)+(Q22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.46086956098590726</v>
       </c>
-      <c r="S22" s="52"/>
+      <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="102">
+      <c r="A23" s="100">
         <v>49.1</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="104">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="102">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="103">
         <v>0.21958774128479999</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="95">
+      <c r="E23" s="51"/>
+      <c r="F23" s="93">
         <f t="shared" si="0"/>
         <v>0.13756180288548553</v>
       </c>
-      <c r="G23" s="137">
+      <c r="G23" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="82">
         <f t="shared" si="4"/>
         <v>0.10333986137440462</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="83">
         <f t="shared" si="5"/>
         <v>6.6351512901081877E-2</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="82">
         <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(I23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.57184878932464911</v>
       </c>
-      <c r="K23" s="96">
+      <c r="K23" s="94">
         <f t="shared" si="6"/>
         <v>6.8621854718957893</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="122">
+      <c r="N23" s="120">
         <f t="shared" si="7"/>
         <v>0.10609514903040819</v>
       </c>
-      <c r="O23" s="89">
+      <c r="O23" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P23" s="90">
+      <c r="P23" s="88">
         <f t="shared" si="8"/>
         <v>7.730467496092501E-2</v>
       </c>
-      <c r="Q23" s="90">
+      <c r="Q23" s="88">
         <f t="shared" si="3"/>
         <v>4.0316326487602257E-2</v>
       </c>
-      <c r="R23" s="123">
+      <c r="R23" s="121">
         <f>IF(Q23&gt;0, ('BPV Calcs'!$B$8/12)+(Q23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.44964820920171994</v>
       </c>
-      <c r="S23" s="52"/>
+      <c r="S23" s="51"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="102">
+      <c r="A24" s="100">
         <v>50</v>
       </c>
-      <c r="B24" s="106">
+      <c r="B24" s="104">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="102">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="103">
         <v>0.22295801891519998</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="95">
+      <c r="E24" s="51"/>
+      <c r="F24" s="93">
         <f t="shared" si="0"/>
         <v>0.13441045075864813</v>
       </c>
-      <c r="G24" s="137">
+      <c r="G24" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="82">
         <f t="shared" si="4"/>
         <v>0.10097248696451551</v>
       </c>
-      <c r="I24" s="85">
+      <c r="I24" s="83">
         <f t="shared" si="5"/>
         <v>6.3984138491192749E-2</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="82">
         <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(I24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.56073711446808461</v>
       </c>
-      <c r="K24" s="96">
+      <c r="K24" s="94">
         <f t="shared" si="6"/>
         <v>6.7288453736170153</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="122">
+      <c r="N24" s="120">
         <f t="shared" si="7"/>
         <v>0.10274285797407841</v>
       </c>
-      <c r="O24" s="89">
+      <c r="O24" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P24" s="90">
+      <c r="P24" s="88">
         <f t="shared" si="8"/>
         <v>7.4862077228113361E-2</v>
       </c>
-      <c r="Q24" s="90">
+      <c r="Q24" s="88">
         <f t="shared" si="3"/>
         <v>3.7873728754790607E-2</v>
       </c>
-      <c r="R24" s="123">
+      <c r="R24" s="121">
         <f>IF(Q24&gt;0, ('BPV Calcs'!$B$8/12)+(Q24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.43818346087166787</v>
       </c>
-      <c r="S24" s="52"/>
+      <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="100">
         <v>50.9</v>
       </c>
-      <c r="B25" s="106">
+      <c r="B25" s="104">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="102">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="103">
         <v>0.22638970767359998</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="95">
+      <c r="E25" s="51"/>
+      <c r="F25" s="93">
         <f t="shared" si="0"/>
         <v>0.13119105233236464</v>
       </c>
-      <c r="G25" s="137">
+      <c r="G25" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="82">
         <f t="shared" si="4"/>
         <v>9.8553994475302747E-2</v>
       </c>
-      <c r="I25" s="85">
+      <c r="I25" s="83">
         <f t="shared" si="5"/>
         <v>6.1565646001979994E-2</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="82">
         <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(I25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.54938550820296761</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="94">
         <f t="shared" si="6"/>
         <v>6.5926260984356109</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="122">
+      <c r="N25" s="120">
         <f t="shared" si="7"/>
         <v>9.9317342419351473E-2</v>
       </c>
-      <c r="O25" s="89">
+      <c r="O25" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="88">
         <f t="shared" si="8"/>
         <v>7.2366125538033149E-2</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="88">
         <f t="shared" si="3"/>
         <v>3.5377777064710396E-2</v>
       </c>
-      <c r="R25" s="123">
+      <c r="R25" s="121">
         <f>IF(Q25&gt;0, ('BPV Calcs'!$B$8/12)+(Q25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.42646828665925313</v>
       </c>
-      <c r="S25" s="52"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="102">
+      <c r="A26" s="100">
         <v>51.8</v>
       </c>
-      <c r="B26" s="106">
+      <c r="B26" s="104">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="102">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="103">
         <v>0.22988470907359998</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="95">
+      <c r="E26" s="51"/>
+      <c r="F26" s="93">
         <f t="shared" si="0"/>
         <v>0.12789925363670013</v>
       </c>
-      <c r="G26" s="137">
+      <c r="G26" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="82">
         <f t="shared" si="4"/>
         <v>9.6081113095828549E-2</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="83">
         <f t="shared" si="5"/>
         <v>5.9092764622505796E-2</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="82">
         <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(I26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.5377786184212805</v>
       </c>
-      <c r="K26" s="96">
+      <c r="K26" s="94">
         <f t="shared" si="6"/>
         <v>6.453343421055366</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="122">
+      <c r="N26" s="120">
         <f t="shared" si="7"/>
         <v>9.5813964526532028E-2</v>
       </c>
-      <c r="O26" s="89">
+      <c r="O26" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="88">
         <f t="shared" si="8"/>
         <v>6.9813440596782211E-2</v>
       </c>
-      <c r="Q26" s="90">
+      <c r="Q26" s="88">
         <f t="shared" si="3"/>
         <v>3.2825092123459458E-2</v>
       </c>
-      <c r="R26" s="123">
+      <c r="R26" s="121">
         <f>IF(Q26&gt;0, ('BPV Calcs'!$B$8/12)+(Q26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.41448682527319503</v>
       </c>
-      <c r="S26" s="52"/>
+      <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="102">
+      <c r="A27" s="100">
         <v>52.7</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="104">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="102">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="103">
         <v>0.23344498283839998</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="95">
+      <c r="E27" s="51"/>
+      <c r="F27" s="93">
         <f t="shared" si="0"/>
         <v>0.12453171014032675</v>
       </c>
-      <c r="G27" s="137">
+      <c r="G27" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="82">
         <f t="shared" si="4"/>
         <v>9.3551330330643362E-2</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="83">
         <f t="shared" si="5"/>
         <v>5.6562981857320609E-2</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="82">
         <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(I27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.5259046522978591</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="94">
         <f t="shared" si="6"/>
         <v>6.3108558275743096</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="122">
+      <c r="N27" s="120">
         <f t="shared" si="7"/>
         <v>9.2229125421012484E-2</v>
       </c>
-      <c r="O27" s="89">
+      <c r="O27" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="88">
         <f t="shared" si="8"/>
         <v>6.7201400137138059E-2</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="88">
         <f t="shared" si="3"/>
         <v>3.0213051663815306E-2</v>
       </c>
-      <c r="R27" s="123">
+      <c r="R27" s="121">
         <f>IF(Q27&gt;0, ('BPV Calcs'!$B$8/12)+(Q27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.40222676865582369</v>
       </c>
-      <c r="S27" s="52"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="102">
+      <c r="A28" s="100">
         <v>53.6</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="104">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="102">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="105">
+      <c r="D28" s="103">
         <v>0.23707262451360001</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="95">
+      <c r="E28" s="51"/>
+      <c r="F28" s="93">
         <f t="shared" si="0"/>
         <v>0.12108614470086151</v>
       </c>
-      <c r="G28" s="137">
+      <c r="G28" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="82">
         <f t="shared" si="4"/>
         <v>9.0962935533526718E-2</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="83">
         <f t="shared" si="5"/>
         <v>5.3974587060203964E-2</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="82">
         <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(I28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.51375558062341697</v>
       </c>
-      <c r="K28" s="96">
+      <c r="K28" s="94">
         <f t="shared" si="6"/>
         <v>6.1650669674810032</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="122">
+      <c r="N28" s="120">
         <f t="shared" si="7"/>
         <v>8.8560323374262145E-2</v>
       </c>
-      <c r="O28" s="89">
+      <c r="O28" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="88">
         <f t="shared" si="8"/>
         <v>6.4528181311282753E-2</v>
       </c>
-      <c r="Q28" s="90">
+      <c r="Q28" s="88">
         <f t="shared" si="3"/>
         <v>2.753983283796E-2</v>
       </c>
-      <c r="R28" s="123">
+      <c r="R28" s="121">
         <f>IF(Q28&gt;0, ('BPV Calcs'!$B$8/12)+(Q28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.38967956096055162</v>
       </c>
-      <c r="S28" s="52"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="102">
+      <c r="A29" s="100">
         <v>54.5</v>
       </c>
-      <c r="B29" s="106">
+      <c r="B29" s="104">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="102">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="105">
+      <c r="D29" s="103">
         <v>0.2407698072576</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="95">
+      <c r="E29" s="51"/>
+      <c r="F29" s="93">
         <f t="shared" si="0"/>
         <v>0.11755644588442445</v>
       </c>
-      <c r="G29" s="137">
+      <c r="G29" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="82">
         <f t="shared" si="4"/>
         <v>8.8311337642739754E-2</v>
       </c>
-      <c r="I29" s="85">
+      <c r="I29" s="83">
         <f t="shared" si="5"/>
         <v>5.1322989169417001E-2</v>
       </c>
-      <c r="J29" s="84">
+      <c r="J29" s="82">
         <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(I29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.50130985446801912</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="94">
         <f t="shared" si="6"/>
         <v>6.0157182536162299</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="122">
+      <c r="N29" s="120">
         <f t="shared" si="7"/>
         <v>8.4801071831599392E-2</v>
       </c>
-      <c r="O29" s="89">
+      <c r="O29" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="88">
         <f t="shared" si="8"/>
         <v>6.1789057786241962E-2</v>
       </c>
-      <c r="Q29" s="90">
+      <c r="Q29" s="88">
         <f t="shared" si="3"/>
         <v>2.4800709312919209E-2</v>
       </c>
-      <c r="R29" s="123">
+      <c r="R29" s="121">
         <f>IF(Q29&gt;0, ('BPV Calcs'!$B$8/12)+(Q29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.37682301833886922</v>
       </c>
-      <c r="S29" s="52"/>
+      <c r="S29" s="51"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="102">
+      <c r="A30" s="100">
         <v>55.4</v>
       </c>
-      <c r="B30" s="106">
+      <c r="B30" s="104">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="102">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="105">
+      <c r="D30" s="103">
         <v>0.24453885945439999</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="95">
+      <c r="E30" s="51"/>
+      <c r="F30" s="93">
         <f t="shared" si="0"/>
         <v>0.11394121977368245</v>
       </c>
-      <c r="G30" s="137">
+      <c r="G30" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="82">
         <f t="shared" si="4"/>
         <v>8.5595489512774417E-2</v>
       </c>
-      <c r="I30" s="85">
+      <c r="I30" s="83">
         <f t="shared" si="5"/>
         <v>4.8607141039451664E-2</v>
       </c>
-      <c r="J30" s="84">
+      <c r="J30" s="82">
         <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(I30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.48856255887593891</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="94">
         <f t="shared" si="6"/>
         <v>5.8627507065112674</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="122">
+      <c r="N30" s="120">
         <f t="shared" si="7"/>
         <v>8.0949764895709625E-2</v>
       </c>
-      <c r="O30" s="89">
+      <c r="O30" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P30" s="90">
+      <c r="P30" s="88">
         <f t="shared" si="8"/>
         <v>5.8982859448480231E-2</v>
       </c>
-      <c r="Q30" s="90">
+      <c r="Q30" s="88">
         <f t="shared" si="3"/>
         <v>2.1994510975157477E-2</v>
       </c>
-      <c r="R30" s="123">
+      <c r="R30" s="121">
         <f>IF(Q30&gt;0, ('BPV Calcs'!$B$8/12)+(Q30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.36365164866367694</v>
       </c>
-      <c r="S30" s="52"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="102">
+      <c r="A31" s="100">
         <v>56.3</v>
       </c>
-      <c r="B31" s="106">
+      <c r="B31" s="104">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="102">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="105">
+      <c r="D31" s="103">
         <v>0.24838222590720002</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="95">
+      <c r="E31" s="51"/>
+      <c r="F31" s="93">
         <f t="shared" si="0"/>
         <v>0.11023518674553594</v>
       </c>
-      <c r="G31" s="137">
+      <c r="G31" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="82">
         <f t="shared" si="4"/>
         <v>8.2811424958921173E-2</v>
       </c>
-      <c r="I31" s="85">
+      <c r="I31" s="83">
         <f t="shared" si="5"/>
         <v>4.582307648559842E-2</v>
       </c>
-      <c r="J31" s="84">
+      <c r="J31" s="82">
         <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(I31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.4754950778839685</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="94">
         <f t="shared" si="6"/>
         <v>5.7059409346076215</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="122">
+      <c r="N31" s="120">
         <f t="shared" si="7"/>
         <v>7.7000755915053343E-2</v>
       </c>
-      <c r="O31" s="89">
+      <c r="O31" s="87">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P31" s="90">
+      <c r="P31" s="88">
         <f t="shared" si="8"/>
         <v>5.6105471948134568E-2</v>
       </c>
-      <c r="Q31" s="90">
+      <c r="Q31" s="88">
         <f t="shared" si="3"/>
         <v>1.9117123474811815E-2</v>
       </c>
-      <c r="R31" s="123">
+      <c r="R31" s="121">
         <f>IF(Q31&gt;0, ('BPV Calcs'!$B$8/12)+(Q31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.3501461405333931</v>
       </c>
-      <c r="S31" s="52"/>
+      <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="102">
+      <c r="A32" s="100">
         <v>57.2</v>
       </c>
-      <c r="B32" s="106">
+      <c r="B32" s="104">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="102">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="103">
         <v>0.25230250664479997</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="95">
+      <c r="E32" s="51"/>
+      <c r="F32" s="93">
         <f t="shared" si="0"/>
         <v>0.10643407956180023</v>
       </c>
-      <c r="G32" s="137">
+      <c r="G32" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="82">
         <f t="shared" si="4"/>
         <v>7.9955938325298792E-2</v>
       </c>
-      <c r="I32" s="85">
+      <c r="I32" s="83">
         <f t="shared" si="5"/>
         <v>4.2967589851976039E-2</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="82">
         <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(I32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.46209236520044183</v>
       </c>
-      <c r="K32" s="96">
+      <c r="K32" s="94">
         <f t="shared" si="6"/>
         <v>5.545108382405302</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="122">
+      <c r="N32" s="120">
         <f t="shared" si="7"/>
         <v>7.2949435155999456E-2</v>
       </c>
-      <c r="O32" s="89">
+      <c r="O32" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P32" s="90">
+      <c r="P32" s="88">
         <f t="shared" si="8"/>
         <v>5.3153536470374449E-2</v>
       </c>
-      <c r="Q32" s="90">
+      <c r="Q32" s="88">
         <f t="shared" si="3"/>
         <v>1.6165187997051696E-2</v>
       </c>
-      <c r="R32" s="123">
+      <c r="R32" s="121">
         <f>IF(Q32&gt;0, ('BPV Calcs'!$B$8/12)+(Q32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.33629072877874644</v>
       </c>
-      <c r="S32" s="52"/>
+      <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="102">
+      <c r="A33" s="100">
         <v>58.1</v>
       </c>
-      <c r="B33" s="106">
+      <c r="B33" s="104">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="102">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="103">
         <v>0.25630243751839998</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="95">
+      <c r="E33" s="51"/>
+      <c r="F33" s="93">
         <f t="shared" si="0"/>
         <v>0.10253210256655709</v>
       </c>
-      <c r="G33" s="137">
+      <c r="G33" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H33" s="84">
+      <c r="H33" s="82">
         <f t="shared" si="4"/>
         <v>7.7024675770458517E-2</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="83">
         <f t="shared" si="5"/>
         <v>4.0036327297135764E-2</v>
       </c>
-      <c r="J33" s="84">
+      <c r="J33" s="82">
         <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(I33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.44833398532924401</v>
       </c>
-      <c r="K33" s="96">
+      <c r="K33" s="94">
         <f t="shared" si="6"/>
         <v>5.3800078239509279</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="122">
+      <c r="N33" s="120">
         <f t="shared" si="7"/>
         <v>6.8789593883226779E-2</v>
       </c>
-      <c r="O33" s="89">
+      <c r="O33" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P33" s="90">
+      <c r="P33" s="88">
         <f t="shared" si="8"/>
         <v>5.0122529111229636E-2</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="Q33" s="88">
         <f t="shared" si="3"/>
         <v>1.3134180637906882E-2</v>
       </c>
-      <c r="R33" s="123">
+      <c r="R33" s="121">
         <f>IF(Q33&gt;0, ('BPV Calcs'!$B$8/12)+(Q33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.32206417968622314</v>
       </c>
-      <c r="S33" s="52"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="102">
+      <c r="A34" s="100">
         <v>59</v>
       </c>
-      <c r="B34" s="106">
+      <c r="B34" s="104">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="102">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="103">
         <v>0.26038490960479999</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="95">
+      <c r="E34" s="51"/>
+      <c r="F34" s="93">
         <f t="shared" si="0"/>
         <v>9.8524459836365458E-2</v>
       </c>
-      <c r="G34" s="137">
+      <c r="G34" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H34" s="84">
+      <c r="H34" s="82">
         <f t="shared" si="4"/>
         <v>7.4014034476952761E-2</v>
       </c>
-      <c r="I34" s="85">
+      <c r="I34" s="83">
         <f t="shared" si="5"/>
         <v>3.7025686003630008E-2</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="82">
         <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(I34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.43420302783327736</v>
       </c>
-      <c r="K34" s="96">
+      <c r="K34" s="94">
         <f t="shared" si="6"/>
         <v>5.2104363339993283</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="122">
+      <c r="N34" s="120">
         <f t="shared" si="7"/>
         <v>6.4516045601971481E-2</v>
       </c>
-      <c r="O34" s="89">
+      <c r="O34" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P34" s="90">
+      <c r="P34" s="88">
         <f t="shared" si="8"/>
         <v>4.7008670807325716E-2</v>
       </c>
-      <c r="Q34" s="90">
+      <c r="Q34" s="88">
         <f t="shared" si="3"/>
         <v>1.0020322334002962E-2</v>
       </c>
-      <c r="R34" s="123">
+      <c r="R34" s="121">
         <f>IF(Q34&gt;0, ('BPV Calcs'!$B$8/12)+(Q34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.30744875557846069</v>
       </c>
-      <c r="S34" s="52"/>
+      <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="102">
+      <c r="A35" s="100">
         <v>59.9</v>
       </c>
-      <c r="B35" s="106">
+      <c r="B35" s="104">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="102">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="105">
+      <c r="D35" s="103">
         <v>0.26455302741599995</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="95">
+      <c r="E35" s="51"/>
+      <c r="F35" s="93">
         <f t="shared" si="0"/>
         <v>9.4404755900095283E-2</v>
       </c>
-      <c r="G35" s="137">
+      <c r="G35" s="135">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="82">
         <f t="shared" si="4"/>
         <v>7.0919210007167707E-2</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="83">
         <f t="shared" si="5"/>
         <v>3.3930861533844954E-2</v>
       </c>
-      <c r="J35" s="84">
+      <c r="J35" s="82">
         <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(I35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.41967694226660884</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="94">
         <f t="shared" si="6"/>
         <v>5.0361233071993059</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="122">
+      <c r="N35" s="120">
         <f t="shared" si="7"/>
         <v>6.0121926464803473E-2</v>
       </c>
-      <c r="O35" s="89">
+      <c r="O35" s="87">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P35" s="90">
+      <c r="P35" s="88">
         <f t="shared" si="8"/>
         <v>4.3806960316858386E-2</v>
       </c>
-      <c r="Q35" s="90">
+      <c r="Q35" s="88">
         <f t="shared" si="3"/>
         <v>6.8186118435356324E-3</v>
       </c>
-      <c r="R35" s="123">
+      <c r="R35" s="121">
         <f>IF(Q35&gt;0, ('BPV Calcs'!$B$8/12)+(Q35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.29242098227555063</v>
       </c>
-      <c r="S35" s="52"/>
+      <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="102">
+      <c r="A36" s="100">
         <v>60.8</v>
       </c>
-      <c r="B36" s="106">
+      <c r="B36" s="104">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="102">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="105">
+      <c r="D36" s="103">
         <v>0.2688100700928</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="95">
+      <c r="E36" s="51"/>
+      <c r="F36" s="93">
         <f t="shared" ref="F36:F53" si="9">($C$53-C36)/(D36-C36)</f>
         <v>9.0167576361954008E-2</v>
       </c>
-      <c r="G36" s="137">
+      <c r="G36" s="135">
         <f t="shared" ref="G36:G53" si="10">$U$7/((C36*(1-F36))+(D36*F36))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="82">
         <f t="shared" si="4"/>
         <v>6.7736134931781461E-2</v>
       </c>
-      <c r="I36" s="85">
+      <c r="I36" s="83">
         <f t="shared" si="5"/>
         <v>3.0747786458458708E-2</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="82">
         <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(I36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.40473663745720501</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="94">
         <f t="shared" si="6"/>
         <v>4.8568396494864601</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="122">
+      <c r="N36" s="120">
         <f t="shared" si="7"/>
         <v>5.5601372945089003E-2</v>
       </c>
-      <c r="O36" s="89">
+      <c r="O36" s="87">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P36" s="90">
+      <c r="P36" s="88">
         <f t="shared" si="8"/>
         <v>4.0513125267106653E-2</v>
       </c>
-      <c r="Q36" s="90">
+      <c r="Q36" s="88">
         <f t="shared" si="3"/>
         <v>3.5247767937839E-3</v>
       </c>
-      <c r="R36" s="123">
+      <c r="R36" s="121">
         <f>IF(Q36&gt;0, ('BPV Calcs'!$B$8/12)+(Q36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.27696080666872258</v>
       </c>
-      <c r="S36" s="52"/>
+      <c r="S36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="102">
+      <c r="A37" s="100">
         <v>61.7</v>
       </c>
-      <c r="B37" s="106">
+      <c r="B37" s="104">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="102">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="105">
+      <c r="D37" s="103">
         <v>0.27315953021120004</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="95">
+      <c r="E37" s="51"/>
+      <c r="F37" s="93">
         <f t="shared" si="9"/>
         <v>8.5805817247007074E-2</v>
       </c>
-      <c r="G37" s="137">
+      <c r="G37" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="82">
         <f t="shared" si="4"/>
         <v>6.4459472567430315E-2</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I37" s="83">
         <f t="shared" si="5"/>
         <v>2.7471124094107562E-2</v>
       </c>
-      <c r="J37" s="84">
+      <c r="J37" s="82">
         <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(I37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.38935706477308674</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="94">
         <f t="shared" si="6"/>
         <v>4.6722847772770404</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="122">
+      <c r="N37" s="120">
         <f t="shared" si="7"/>
         <v>5.0946747774153422E-2</v>
       </c>
-      <c r="O37" s="89">
+      <c r="O37" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P37" s="90">
+      <c r="P37" s="88">
         <f t="shared" si="8"/>
         <v>3.7121600874214893E-2</v>
       </c>
-      <c r="Q37" s="90">
+      <c r="Q37" s="88">
         <f t="shared" si="3"/>
         <v>1.332524008921393E-4</v>
       </c>
-      <c r="R37" s="123">
+      <c r="R37" s="121">
         <f>IF(Q37&gt;0, ('BPV Calcs'!$B$8/12)+(Q37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.26104210949750278</v>
       </c>
-      <c r="S37" s="52" t="s">
+      <c r="S37" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="102">
+      <c r="A38" s="100">
         <v>62.6</v>
       </c>
-      <c r="B38" s="106">
+      <c r="B38" s="104">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="104">
+      <c r="C38" s="102">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="105">
+      <c r="D38" s="103">
         <v>0.27760515258880003</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="95">
+      <c r="E38" s="51"/>
+      <c r="F38" s="93">
         <f t="shared" si="9"/>
         <v>8.1311947956176495E-2</v>
       </c>
-      <c r="G38" s="137">
+      <c r="G38" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="82">
         <f t="shared" si="4"/>
         <v>6.1083565740040757E-2</v>
       </c>
-      <c r="I38" s="85">
+      <c r="I38" s="83">
         <f t="shared" si="5"/>
         <v>2.4095217266718004E-2</v>
       </c>
-      <c r="J38" s="84">
+      <c r="J38" s="82">
         <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(I38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.37351167130456248</v>
       </c>
-      <c r="K38" s="96">
+      <c r="K38" s="94">
         <f t="shared" si="6"/>
         <v>4.4821400556547495</v>
       </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="122">
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="120">
         <f t="shared" si="7"/>
         <v>4.6149947630415508E-2</v>
       </c>
-      <c r="O38" s="89">
+      <c r="O38" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P38" s="90">
+      <c r="P38" s="88">
         <f t="shared" si="8"/>
         <v>3.3626482771709584E-2</v>
       </c>
-      <c r="Q38" s="90">
+      <c r="Q38" s="88">
         <f t="shared" si="3"/>
         <v>-3.3618657016131689E-3</v>
       </c>
-      <c r="R38" s="123">
+      <c r="R38" s="121">
         <v>0.24521116920246497</v>
       </c>
-      <c r="S38" s="52">
+      <c r="S38" s="51">
         <f>((1/3)*PI()*(R38^2)*((3*('BPV Calcs'!$B$8/12))-R38))-P38</f>
         <v>1.2597211388159363E-4</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="102">
+      <c r="A39" s="100">
         <v>63.5</v>
       </c>
-      <c r="B39" s="106">
+      <c r="B39" s="104">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="104">
+      <c r="C39" s="102">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="105">
+      <c r="D39" s="103">
         <v>0.28215091488159999</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="95">
+      <c r="E39" s="51"/>
+      <c r="F39" s="93">
         <f t="shared" si="9"/>
         <v>7.6677969006389013E-2</v>
       </c>
-      <c r="G39" s="137">
+      <c r="G39" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="82">
         <f t="shared" si="4"/>
         <v>5.7602405038173606E-2</v>
       </c>
-      <c r="I39" s="85">
+      <c r="I39" s="83">
         <f t="shared" si="5"/>
         <v>2.0614056564850852E-2</v>
       </c>
-      <c r="J39" s="84">
+      <c r="J39" s="82">
         <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(I39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.35717225085589382</v>
       </c>
-      <c r="K39" s="96">
+      <c r="K39" s="94">
         <f t="shared" si="6"/>
         <v>4.2860670102707257</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="122">
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="120">
         <f t="shared" si="7"/>
         <v>4.1202358029293618E-2</v>
       </c>
-      <c r="O39" s="89">
+      <c r="O39" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P39" s="90">
+      <c r="P39" s="88">
         <f t="shared" si="8"/>
         <v>3.0021494141690707E-2</v>
       </c>
-      <c r="Q39" s="90">
+      <c r="Q39" s="88">
         <f t="shared" si="3"/>
         <v>-6.9668543316320462E-3</v>
       </c>
-      <c r="R39" s="123">
+      <c r="R39" s="121">
         <v>0.22780916988569017</v>
       </c>
-      <c r="S39" s="52">
+      <c r="S39" s="51">
         <f>((1/3)*PI()*(R39^2)*((3*('BPV Calcs'!$B$8/12))-R39))-P39</f>
         <v>5.6039214801024972E-5</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="102">
+      <c r="A40" s="100">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="106">
+      <c r="B40" s="104">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="104">
+      <c r="C40" s="102">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="105">
+      <c r="D40" s="103">
         <v>0.28680106639039998</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="95">
+      <c r="E40" s="51"/>
+      <c r="F40" s="93">
         <f t="shared" si="9"/>
         <v>7.1896792063500151E-2</v>
       </c>
-      <c r="G40" s="137">
+      <c r="G40" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="82">
         <f t="shared" si="4"/>
         <v>5.4010665528217192E-2</v>
       </c>
-      <c r="I40" s="85">
+      <c r="I40" s="83">
         <f t="shared" si="5"/>
         <v>1.7022317054894438E-2</v>
       </c>
-      <c r="J40" s="84">
+      <c r="J40" s="82">
         <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(I40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.34031380994456339</v>
       </c>
-      <c r="K40" s="96">
+      <c r="K40" s="94">
         <f t="shared" si="6"/>
         <v>4.0837657193347603</v>
       </c>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="122">
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="120">
         <f t="shared" si="7"/>
         <v>3.6096283439178707E-2</v>
       </c>
-      <c r="O40" s="89">
+      <c r="O40" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P40" s="90">
+      <c r="P40" s="88">
         <f t="shared" si="8"/>
         <v>2.6301027747869639E-2</v>
       </c>
-      <c r="Q40" s="90">
+      <c r="Q40" s="88">
         <f t="shared" si="3"/>
         <v>-1.0687320725453114E-2</v>
       </c>
-      <c r="R40" s="123">
+      <c r="R40" s="121">
         <v>0.21248930599027482</v>
       </c>
-      <c r="S40" s="52">
+      <c r="S40" s="51">
         <f>((1/3)*PI()*(R40^2)*((3*('BPV Calcs'!$B$8/12))-R40))-P40</f>
         <v>5.915448439288637E-4</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="102">
+      <c r="A41" s="100">
         <v>65.3</v>
       </c>
-      <c r="B41" s="106">
+      <c r="B41" s="104">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="102">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="103">
         <v>0.29156020567359997</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="95">
+      <c r="E41" s="51"/>
+      <c r="F41" s="93">
         <f t="shared" si="9"/>
         <v>6.6956521460969767E-2</v>
       </c>
-      <c r="G41" s="137">
+      <c r="G41" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="82">
         <f t="shared" si="4"/>
         <v>5.0299410888420645E-2</v>
       </c>
-      <c r="I41" s="85">
+      <c r="I41" s="83">
         <f t="shared" si="5"/>
         <v>1.3311062415097892E-2</v>
       </c>
-      <c r="J41" s="84">
+      <c r="J41" s="82">
         <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(I41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.32289440442295581</v>
       </c>
-      <c r="K41" s="96">
+      <c r="K41" s="94">
         <f t="shared" si="6"/>
         <v>3.8747328530754697</v>
       </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="122">
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="120">
         <f t="shared" si="7"/>
         <v>3.0819003777835637E-2</v>
       </c>
-      <c r="O41" s="89">
+      <c r="O41" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P41" s="90">
+      <c r="P41" s="88">
         <f t="shared" si="8"/>
         <v>2.2455815288805175E-2</v>
       </c>
-      <c r="Q41" s="90">
+      <c r="Q41" s="88">
         <f t="shared" si="3"/>
         <v>-1.4532533184517579E-2</v>
       </c>
-      <c r="R41" s="123">
+      <c r="R41" s="121">
         <v>0.1907150772829011</v>
       </c>
-      <c r="S41" s="52">
+      <c r="S41" s="51">
         <f>((1/3)*PI()*(R41^2)*((3*('BPV Calcs'!$B$8/12))-R41))-P41</f>
         <v>3.7022964005109515E-5</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="102">
+      <c r="A42" s="100">
         <v>66.2</v>
       </c>
-      <c r="B42" s="106">
+      <c r="B42" s="104">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="102">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="105">
+      <c r="D42" s="103">
         <v>0.29643326114399998</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="95">
+      <c r="E42" s="51"/>
+      <c r="F42" s="93">
         <f t="shared" si="9"/>
         <v>6.1847405437448669E-2</v>
       </c>
-      <c r="G42" s="137">
+      <c r="G42" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="82">
         <f t="shared" si="4"/>
         <v>4.6461315352147849E-2</v>
       </c>
-      <c r="I42" s="85">
+      <c r="I42" s="83">
         <f t="shared" si="5"/>
         <v>9.4729668788250954E-3</v>
       </c>
-      <c r="J42" s="84">
+      <c r="J42" s="82">
         <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(I42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.3048796495580961</v>
       </c>
-      <c r="K42" s="96">
+      <c r="K42" s="94">
         <f t="shared" si="6"/>
         <v>3.6585557946971532</v>
       </c>
-      <c r="L42" s="181" t="s">
+      <c r="L42" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="52"/>
-      <c r="N42" s="122">
+      <c r="M42" s="51"/>
+      <c r="N42" s="120">
         <f t="shared" si="7"/>
         <v>2.5359990565452944E-2</v>
       </c>
-      <c r="O42" s="89">
+      <c r="O42" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P42" s="90">
+      <c r="P42" s="88">
         <f t="shared" si="8"/>
         <v>1.8478185342032709E-2</v>
       </c>
-      <c r="Q42" s="90">
+      <c r="Q42" s="88">
         <f t="shared" si="3"/>
         <v>-1.8510163131290044E-2</v>
       </c>
-      <c r="R42" s="123">
+      <c r="R42" s="121">
         <v>0.17168996493983751</v>
       </c>
-      <c r="S42" s="52">
+      <c r="S42" s="51">
         <f>((1/3)*PI()*(R42^2)*((3*('BPV Calcs'!$B$8/12))-R42))-P42</f>
         <v>3.3814492316293354E-4</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="102">
+      <c r="A43" s="100">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="106">
+      <c r="B43" s="104">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="102">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="105">
+      <c r="D43" s="103">
         <v>0.301425510472</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="95">
+      <c r="E43" s="51"/>
+      <c r="F43" s="93">
         <f t="shared" si="9"/>
         <v>5.6559004365802502E-2</v>
       </c>
-      <c r="G43" s="137">
+      <c r="G43" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="82">
         <f t="shared" si="4"/>
         <v>4.2488536410808235E-2</v>
       </c>
-      <c r="I43" s="85">
+      <c r="I43" s="83">
         <f t="shared" si="5"/>
         <v>5.5001879374854817E-3</v>
       </c>
-      <c r="J43" s="84">
+      <c r="J43" s="82">
         <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(I43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.28623273520066694</v>
       </c>
-      <c r="K43" s="96">
+      <c r="K43" s="94">
         <f t="shared" si="6"/>
         <v>3.4347928224080033</v>
       </c>
-      <c r="L43" s="181"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="122">
+      <c r="L43" s="168"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="120">
         <f t="shared" si="7"/>
         <v>1.9707963149169245E-2</v>
       </c>
-      <c r="O43" s="89">
+      <c r="O43" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P43" s="90">
+      <c r="P43" s="88">
         <f t="shared" si="8"/>
         <v>1.4359918425221848E-2</v>
       </c>
-      <c r="Q43" s="90">
+      <c r="Q43" s="88">
         <f t="shared" si="3"/>
         <v>-2.2628430048100903E-2</v>
       </c>
-      <c r="R43" s="123">
+      <c r="R43" s="121">
         <v>0.14850498963246994</v>
       </c>
-      <c r="S43" s="52">
+      <c r="S43" s="51">
         <f>((1/3)*PI()*(R43^2)*((3*('BPV Calcs'!$B$8/12))-R43))-P43</f>
         <v>2.5308340552952779E-4</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="102">
+      <c r="A44" s="100">
         <v>68</v>
       </c>
-      <c r="B44" s="106">
+      <c r="B44" s="104">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="102">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="105">
+      <c r="D44" s="103">
         <v>0.30654265819839999</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="95">
+      <c r="E44" s="51"/>
+      <c r="F44" s="93">
         <f t="shared" si="9"/>
         <v>5.1078607093820678E-2</v>
       </c>
-      <c r="G44" s="137">
+      <c r="G44" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="82">
         <f t="shared" si="4"/>
         <v>3.8371525129451856E-2</v>
       </c>
-      <c r="I44" s="85">
+      <c r="I44" s="83">
         <f t="shared" si="5"/>
         <v>1.3831766561291023E-3</v>
       </c>
-      <c r="J44" s="84">
+      <c r="J44" s="82">
         <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(I44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.266908841798701</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="94">
         <f t="shared" si="6"/>
         <v>3.202906101584412</v>
       </c>
-      <c r="L44" s="52" t="s">
+      <c r="L44" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="122">
+      <c r="M44" s="51"/>
+      <c r="N44" s="120">
         <f t="shared" si="7"/>
         <v>1.3849237062883164E-2</v>
       </c>
-      <c r="O44" s="89">
+      <c r="O44" s="87">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P44" s="90">
+      <c r="P44" s="88">
         <f t="shared" si="8"/>
         <v>1.0091043552765345E-2</v>
       </c>
-      <c r="Q44" s="90">
+      <c r="Q44" s="88">
         <f t="shared" si="3"/>
         <v>-2.6897304920557408E-2</v>
       </c>
-      <c r="R44" s="123">
+      <c r="R44" s="121">
         <v>0.12149580367635861</v>
       </c>
-      <c r="S44" s="52">
+      <c r="S44" s="51">
         <f>((1/3)*PI()*(R44^2)*((3*('BPV Calcs'!$B$8/12))-R44))-P44</f>
         <v>1.0738682726090833E-4</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="102">
+      <c r="A45" s="100">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="106">
+      <c r="B45" s="104">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="102">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="105">
+      <c r="D45" s="103">
         <v>0.31179093275039999</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="95">
+      <c r="E45" s="51"/>
+      <c r="F45" s="93">
         <f t="shared" si="9"/>
         <v>4.5391024185220959E-2</v>
       </c>
-      <c r="G45" s="137">
+      <c r="G45" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="82">
         <f t="shared" si="4"/>
         <v>3.4098870824249061E-2</v>
       </c>
-      <c r="I45" s="85">
+      <c r="I45" s="83">
         <f t="shared" si="5"/>
         <v>-2.889477649073692E-3</v>
       </c>
-      <c r="J45" s="132">
+      <c r="J45" s="130">
         <v>0.24687064833561331</v>
       </c>
-      <c r="K45" s="97">
+      <c r="K45" s="95">
         <f t="shared" si="6"/>
         <v>2.9624477800273596</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="51">
         <f>((1/3)*PI()*(J45^2)*((3*('BPV Calcs'!$B$8/12))-J45))-H45</f>
         <v>6.0622701216830888E-6</v>
       </c>
-      <c r="M45" s="52"/>
-      <c r="N45" s="122">
+      <c r="M45" s="51"/>
+      <c r="N45" s="120">
         <f t="shared" si="7"/>
         <v>7.7675006515787424E-3</v>
       </c>
-      <c r="O45" s="89">
+      <c r="O45" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P45" s="90">
+      <c r="P45" s="88">
         <f t="shared" si="8"/>
         <v>5.6596754763685508E-3</v>
       </c>
-      <c r="Q45" s="90">
+      <c r="Q45" s="88">
         <f t="shared" si="3"/>
         <v>-3.1328672996954202E-2</v>
       </c>
-      <c r="R45" s="123">
+      <c r="R45" s="121">
         <v>9.2278680376457742E-2</v>
       </c>
-      <c r="S45" s="52">
+      <c r="S45" s="51">
         <f>((1/3)*PI()*(R45^2)*((3*('BPV Calcs'!$B$8/12))-R45))-P45</f>
         <v>4.8406005108301859E-4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="102">
+      <c r="A46" s="100">
         <v>69.8</v>
       </c>
-      <c r="B46" s="106">
+      <c r="B46" s="104">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="102">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D46" s="103">
         <v>0.31717698942559996</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="95">
+      <c r="E46" s="51"/>
+      <c r="F46" s="93">
         <f t="shared" si="9"/>
         <v>3.9483036942300216E-2</v>
       </c>
-      <c r="G46" s="137">
+      <c r="G46" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="82">
         <f t="shared" si="4"/>
         <v>2.9660643279402023E-2</v>
       </c>
-      <c r="I46" s="85">
+      <c r="I46" s="83">
         <f t="shared" si="5"/>
         <v>-7.3277051939207305E-3</v>
       </c>
-      <c r="J46" s="132">
+      <c r="J46" s="130">
         <v>0.22573990311305595</v>
       </c>
-      <c r="K46" s="97">
+      <c r="K46" s="95">
         <f t="shared" si="6"/>
         <v>2.7088788373566715</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="51">
         <f>((1/3)*PI()*(J46^2)*((3*('BPV Calcs'!$B$8/12))-J46))-H46</f>
         <v>-1.6613311757913279E-5</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="122">
+      <c r="M46" s="51"/>
+      <c r="N46" s="120">
         <f t="shared" si="7"/>
         <v>1.4484372022368131E-3</v>
       </c>
-      <c r="O46" s="89">
+      <c r="O46" s="87">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P46" s="90">
+      <c r="P46" s="88">
         <f>O46*N46</f>
         <v>1.0553825329764717E-3</v>
       </c>
-      <c r="Q46" s="90">
+      <c r="Q46" s="88">
         <f t="shared" si="3"/>
         <v>-3.5932965940346284E-2</v>
       </c>
-      <c r="R46" s="123">
+      <c r="R46" s="121">
         <v>4.3206062949403698E-2</v>
       </c>
-      <c r="S46" s="52">
+      <c r="S46" s="51">
         <f>((1/3)*PI()*(R46^2)*((3*('BPV Calcs'!$B$8/12))-R46))-P46</f>
         <v>3.8739783094345016E-4</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107">
+      <c r="A47" s="105">
         <v>70</v>
       </c>
-      <c r="B47" s="108">
+      <c r="B47" s="106">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="109">
+      <c r="C47" s="107">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="110">
+      <c r="D47" s="108">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="98">
+      <c r="E47" s="48"/>
+      <c r="F47" s="96">
         <f t="shared" si="9"/>
         <v>3.8129176343576189E-2</v>
       </c>
-      <c r="G47" s="138">
+      <c r="G47" s="136">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H47" s="86">
+      <c r="H47" s="84">
         <f t="shared" si="4"/>
         <v>2.8643589390475625E-2</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="85">
         <f t="shared" si="5"/>
         <v>-8.3447590828471287E-3</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="131">
         <v>0.22082528187997902</v>
       </c>
-      <c r="K47" s="97">
+      <c r="K47" s="95">
         <f t="shared" si="6"/>
         <v>2.6499033825597484</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="51">
         <f>((1/3)*PI()*(J47^2)*((3*('BPV Calcs'!$B$8/12))-J47))-H47</f>
         <v>-2.5312125090250215E-5</v>
       </c>
-      <c r="M47" s="52"/>
-      <c r="N47" s="124">
+      <c r="M47" s="51"/>
+      <c r="N47" s="122">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O47" s="125">
+      <c r="O47" s="123">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P47" s="126">
+      <c r="P47" s="124">
         <f>O47*N47</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="126">
+      <c r="Q47" s="124">
         <f t="shared" si="3"/>
         <v>-3.6988348473322753E-2</v>
       </c>
-      <c r="R47" s="127">
+      <c r="R47" s="125">
         <v>2.9265192002976545E-2</v>
       </c>
-      <c r="S47" s="52">
+      <c r="S47" s="51">
         <f>((1/3)*PI()*(R47^2)*((3*('BPV Calcs'!$B$8/12))-R47))-P47</f>
         <v>6.7443552849545511E-4</v>
       </c>
-      <c r="T47" s="51"/>
+      <c r="T47" s="50"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="102">
+      <c r="A48" s="100">
         <v>70.7</v>
       </c>
-      <c r="B48" s="106">
+      <c r="B48" s="104">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="102">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="105">
+      <c r="D48" s="103">
         <v>0.32270816263359997</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="95">
+      <c r="E48" s="51"/>
+      <c r="F48" s="93">
         <f t="shared" si="9"/>
         <v>3.3337176339955747E-2</v>
       </c>
-      <c r="G48" s="137">
+      <c r="G48" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H48" s="84">
+      <c r="H48" s="82">
         <f t="shared" si="4"/>
         <v>2.50437193270357E-2</v>
       </c>
-      <c r="I48" s="85">
+      <c r="I48" s="83">
         <f t="shared" si="5"/>
         <v>-1.1944629146287054E-2</v>
       </c>
-      <c r="J48" s="132">
+      <c r="J48" s="130">
         <v>0.20311497711219526</v>
       </c>
-      <c r="K48" s="97">
+      <c r="K48" s="95">
         <f t="shared" si="6"/>
         <v>2.437379725346343</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="51">
         <f>((1/3)*PI()*(J48^2)*((3*('BPV Calcs'!$B$8/12))-J48))-H48</f>
         <v>-6.6631916129235996E-5</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="52"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="102">
+      <c r="A49" s="100">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="106">
+      <c r="B49" s="104">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="102">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="105">
+      <c r="D49" s="103">
         <v>0.32839236888000001</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="95">
+      <c r="E49" s="51"/>
+      <c r="F49" s="93">
         <f t="shared" si="9"/>
         <v>2.693291798927008E-2</v>
       </c>
-      <c r="G49" s="137">
+      <c r="G49" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H49" s="84">
+      <c r="H49" s="82">
         <f t="shared" si="4"/>
         <v>2.0232680533682115E-2</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="83">
         <f t="shared" si="5"/>
         <v>-1.6755667939640638E-2</v>
       </c>
-      <c r="J49" s="132">
+      <c r="J49" s="130">
         <v>0.17870440324472858</v>
       </c>
-      <c r="K49" s="97">
+      <c r="K49" s="95">
         <f t="shared" si="6"/>
         <v>2.144452838936743</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="51">
         <f>((1/3)*PI()*(J49^2)*((3*('BPV Calcs'!$B$8/12))-J49))-H49</f>
         <v>-8.2031347252611853E-5</v>
       </c>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="52"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="51"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="102">
+      <c r="A50" s="100">
         <v>72.5</v>
       </c>
-      <c r="B50" s="106">
+      <c r="B50" s="104">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="102">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="105">
+      <c r="D50" s="103">
         <v>0.33423830079839995</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="95">
+      <c r="E50" s="51"/>
+      <c r="F50" s="93">
         <f t="shared" si="9"/>
         <v>2.0249656851450533E-2</v>
       </c>
-      <c r="G50" s="137">
+      <c r="G50" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H50" s="84">
+      <c r="H50" s="82">
         <f t="shared" si="4"/>
         <v>1.5212047879673117E-2</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="83">
         <f t="shared" si="5"/>
         <v>-2.1776300593649635E-2</v>
       </c>
-      <c r="J50" s="132">
+      <c r="J50" s="130">
         <v>0.14877637433762442</v>
       </c>
-      <c r="K50" s="97">
+      <c r="K50" s="95">
         <f t="shared" si="6"/>
         <v>1.785316492051493</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="51">
         <f>((1/3)*PI()*(J50^2)*((3*('BPV Calcs'!$B$8/12))-J50))-H50</f>
         <v>-5.5187878595190296E-4</v>
       </c>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="52"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="51"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="102">
+      <c r="A51" s="100">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="106">
+      <c r="B51" s="104">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="104">
+      <c r="C51" s="102">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D51" s="103">
         <v>0.34025552416639998</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="95">
+      <c r="E51" s="51"/>
+      <c r="F51" s="93">
         <f t="shared" si="9"/>
         <v>1.3264956550221583E-2</v>
       </c>
-      <c r="G51" s="137">
+      <c r="G51" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H51" s="84">
+      <c r="H51" s="82">
         <f t="shared" si="4"/>
         <v>9.964966598893241E-3</v>
       </c>
-      <c r="I51" s="85">
+      <c r="I51" s="83">
         <f t="shared" si="5"/>
         <v>-2.7023381874429514E-2</v>
       </c>
-      <c r="J51" s="132">
+      <c r="J51" s="130">
         <v>0.11973998427717275</v>
       </c>
-      <c r="K51" s="97">
+      <c r="K51" s="95">
         <f t="shared" si="6"/>
         <v>1.436879811326073</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="51">
         <f>((1/3)*PI()*(J51^2)*((3*('BPV Calcs'!$B$8/12))-J51))-H51</f>
         <v>-3.2812807474297614E-5</v>
       </c>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="147" t="s">
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="52"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="51"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="102">
+      <c r="A52" s="100">
         <v>74.3</v>
       </c>
-      <c r="B52" s="106">
+      <c r="B52" s="104">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="102">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="105">
+      <c r="D52" s="103">
         <v>0.34645449730880001</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="95">
+      <c r="E52" s="51"/>
+      <c r="F52" s="93">
         <f t="shared" si="9"/>
         <v>5.9508601980526824E-3</v>
       </c>
-      <c r="G52" s="137">
+      <c r="G52" s="135">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H52" s="84">
+      <c r="H52" s="82">
         <f t="shared" si="4"/>
         <v>4.4704347793199243E-3</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="83">
         <f t="shared" si="5"/>
         <v>-3.251791369400283E-2</v>
       </c>
-      <c r="J52" s="132">
+      <c r="J52" s="130">
         <v>7.5494467975184554E-2</v>
       </c>
-      <c r="K52" s="97">
+      <c r="K52" s="95">
         <f t="shared" si="6"/>
         <v>0.90593361570221465</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="51">
         <f>((1/3)*PI()*(J52^2)*((3*('BPV Calcs'!$B$8/12))-J52))-H52</f>
         <v>-2.5819420832306778E-4</v>
       </c>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="52"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="51"/>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="107">
+      <c r="A53" s="105">
         <v>75</v>
       </c>
-      <c r="B53" s="108">
+      <c r="B53" s="106">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="109">
+      <c r="C53" s="107">
         <f t="shared" ref="C53:D53" si="11">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="110">
+      <c r="D53" s="108">
         <f t="shared" si="11"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="99">
+      <c r="E53" s="48"/>
+      <c r="F53" s="97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G53" s="139">
+      <c r="G53" s="137">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H53" s="136">
+      <c r="H53" s="134">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="100">
+      <c r="I53" s="98">
         <f t="shared" si="5"/>
         <v>-3.6988348473322753E-2</v>
       </c>
-      <c r="J53" s="134">
+      <c r="J53" s="132">
         <v>0</v>
       </c>
-      <c r="K53" s="101">
+      <c r="K53" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="51">
         <f>((1/3)*PI()*(J53^2)*((3*('BPV Calcs'!$B$8/12))-J53))-H53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="42"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102">
+      <c r="A54" s="100">
         <v>75.2</v>
       </c>
-      <c r="B54" s="106">
+      <c r="B54" s="104">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="102">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="105">
+      <c r="D54" s="103">
         <v>0.35284684274239997</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="52"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="51"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="102">
+      <c r="A55" s="100">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="106">
+      <c r="B55" s="104">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="102">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="105">
+      <c r="D55" s="103">
         <v>0.35944542478879998</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="91" t="s">
+      <c r="E55" s="51"/>
+      <c r="F55" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="140">
+      <c r="G55" s="138">
         <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
         <v>3.6988348473322753E-2</v>
       </c>
-      <c r="H55" s="40"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="74"/>
+      <c r="R55" s="73"/>
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="102">
+      <c r="A56" s="100">
         <v>77</v>
       </c>
-      <c r="B56" s="106">
+      <c r="B56" s="104">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="104">
+      <c r="C56" s="102">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="105">
+      <c r="D56" s="103">
         <v>0.36626458241279997</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="92" t="s">
+      <c r="E56" s="51"/>
+      <c r="F56" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="39">
         <f>G4-(2*G55)</f>
         <v>0.67724827398827869</v>
       </c>
-      <c r="H56" s="40"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="74"/>
+      <c r="R56" s="73"/>
       <c r="S56" s="17"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="102">
+      <c r="A57" s="100">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="106">
+      <c r="B57" s="104">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="104">
+      <c r="C57" s="102">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="105">
+      <c r="D57" s="103">
         <v>0.37332036206079999</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="92" t="s">
+      <c r="E57" s="51"/>
+      <c r="F57" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="39">
         <f>G56/(PI()*(('BPV Calcs'!B8/12)^2))</f>
         <v>3.1787800807053701</v>
       </c>
-      <c r="H57" s="40"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
@@ -12463,31 +12469,31 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="74"/>
+      <c r="R57" s="73"/>
       <c r="S57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102">
+      <c r="A58" s="100">
         <v>78.8</v>
       </c>
-      <c r="B58" s="106">
+      <c r="B58" s="104">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="102">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="105">
+      <c r="D58" s="103">
         <v>0.38063080870880001</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="93" t="s">
+      <c r="E58" s="51"/>
+      <c r="F58" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="141">
+      <c r="G58" s="139">
         <f>G57+(2*'BPV Calcs'!B8/12)</f>
         <v>3.6996134140387036</v>
       </c>
-      <c r="H58" s="40"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
@@ -12497,26 +12503,26 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="74"/>
+      <c r="R58" s="73"/>
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="102">
+      <c r="A59" s="100">
         <v>79.7</v>
       </c>
-      <c r="B59" s="106">
+      <c r="B59" s="104">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="104">
+      <c r="C59" s="102">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="105">
+      <c r="D59" s="103">
         <v>0.38821637332959996</v>
       </c>
-      <c r="E59" s="52"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
@@ -12526,55 +12532,55 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="74"/>
+      <c r="R59" s="73"/>
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="102">
+      <c r="A60" s="100">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="106">
+      <c r="B60" s="104">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="104">
+      <c r="C60" s="102">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D60" s="103">
         <v>0.3961002815536</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="40"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="164"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="165"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="74"/>
+      <c r="R60" s="73"/>
       <c r="S60" s="17"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="102">
+      <c r="A61" s="100">
         <v>81.5</v>
       </c>
-      <c r="B61" s="106">
+      <c r="B61" s="104">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="104">
+      <c r="C61" s="102">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="105">
+      <c r="D61" s="103">
         <v>0.40430919337760002</v>
       </c>
-      <c r="E61" s="52"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -12584,26 +12590,26 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="74"/>
+      <c r="R61" s="73"/>
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="102">
+      <c r="A62" s="100">
         <v>82.4</v>
       </c>
-      <c r="B62" s="106">
+      <c r="B62" s="104">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="104">
+      <c r="C62" s="102">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="105">
+      <c r="D62" s="103">
         <v>0.41287390167999999</v>
       </c>
-      <c r="E62" s="52"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -12613,26 +12619,26 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="74"/>
+      <c r="R62" s="73"/>
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="102">
+      <c r="A63" s="100">
         <v>83.3</v>
       </c>
-      <c r="B63" s="106">
+      <c r="B63" s="104">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="104">
+      <c r="C63" s="102">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="105">
+      <c r="D63" s="103">
         <v>0.42183024417120002</v>
       </c>
-      <c r="E63" s="52"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -12642,26 +12648,26 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="74"/>
+      <c r="R63" s="73"/>
       <c r="S63" s="17"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="102">
+      <c r="A64" s="100">
         <v>84.2</v>
       </c>
-      <c r="B64" s="106">
+      <c r="B64" s="104">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="104">
+      <c r="C64" s="102">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="105">
+      <c r="D64" s="103">
         <v>0.43122034519840002</v>
       </c>
-      <c r="E64" s="52"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -12671,26 +12677,26 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="74"/>
+      <c r="R64" s="73"/>
       <c r="S64" s="17"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="102">
+      <c r="A65" s="100">
         <v>85.1</v>
       </c>
-      <c r="B65" s="106">
+      <c r="B65" s="104">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="104">
+      <c r="C65" s="102">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="105">
+      <c r="D65" s="103">
         <v>0.44109424561439997</v>
       </c>
-      <c r="E65" s="52"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
@@ -12700,26 +12706,26 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="74"/>
+      <c r="R65" s="73"/>
       <c r="S65" s="17"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="102">
+      <c r="A66" s="100">
         <v>86</v>
       </c>
-      <c r="B66" s="106">
+      <c r="B66" s="104">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="104">
+      <c r="C66" s="102">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="105">
+      <c r="D66" s="103">
         <v>0.45151211474239994</v>
       </c>
-      <c r="E66" s="52"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
@@ -12729,26 +12735,26 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-      <c r="R66" s="74"/>
+      <c r="R66" s="73"/>
       <c r="S66" s="17"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="102">
+      <c r="A67" s="100">
         <v>86.9</v>
       </c>
-      <c r="B67" s="106">
+      <c r="B67" s="104">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="104">
+      <c r="C67" s="102">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="105">
+      <c r="D67" s="103">
         <v>0.4625472966784</v>
       </c>
-      <c r="E67" s="52"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
@@ -12758,26 +12764,26 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
-      <c r="R67" s="74"/>
+      <c r="R67" s="73"/>
       <c r="S67" s="17"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="102">
+      <c r="A68" s="100">
         <v>87.8</v>
       </c>
-      <c r="B68" s="106">
+      <c r="B68" s="104">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="104">
+      <c r="C68" s="102">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="105">
+      <c r="D68" s="103">
         <v>0.47429065660800002</v>
       </c>
-      <c r="E68" s="52"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
@@ -12787,26 +12793,26 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-      <c r="R68" s="74"/>
+      <c r="R68" s="73"/>
       <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="102">
+      <c r="A69" s="100">
         <v>88.7</v>
       </c>
-      <c r="B69" s="106">
+      <c r="B69" s="104">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="104">
+      <c r="C69" s="102">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="105">
+      <c r="D69" s="103">
         <v>0.48685690624959999</v>
       </c>
-      <c r="E69" s="52"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
@@ -12816,26 +12822,26 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
-      <c r="R69" s="74"/>
+      <c r="R69" s="73"/>
       <c r="S69" s="17"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="102">
+      <c r="A70" s="100">
         <v>89.6</v>
       </c>
-      <c r="B70" s="106">
+      <c r="B70" s="104">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="104">
+      <c r="C70" s="102">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D70" s="103">
         <v>0.50039415022879996</v>
       </c>
-      <c r="E70" s="52"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -12845,26 +12851,26 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
-      <c r="R70" s="74"/>
+      <c r="R70" s="73"/>
       <c r="S70" s="17"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="102">
+      <c r="A71" s="100">
         <v>90.5</v>
       </c>
-      <c r="B71" s="106">
+      <c r="B71" s="104">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="104">
+      <c r="C71" s="102">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="105">
+      <c r="D71" s="103">
         <v>0.51509886534880001</v>
       </c>
-      <c r="E71" s="52"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
@@ -12874,26 +12880,26 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
-      <c r="R71" s="74"/>
+      <c r="R71" s="73"/>
       <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="102">
+      <c r="A72" s="100">
         <v>91.4</v>
       </c>
-      <c r="B72" s="106">
+      <c r="B72" s="104">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="104">
+      <c r="C72" s="102">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="105">
+      <c r="D72" s="103">
         <v>0.53124065907359996</v>
       </c>
-      <c r="E72" s="52"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -12903,26 +12909,26 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
-      <c r="R72" s="74"/>
+      <c r="R72" s="73"/>
       <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="102">
+      <c r="A73" s="100">
         <v>92.3</v>
       </c>
-      <c r="B73" s="106">
+      <c r="B73" s="104">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="104">
+      <c r="C73" s="102">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="105">
+      <c r="D73" s="103">
         <v>0.54920555806720006</v>
       </c>
-      <c r="E73" s="52"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
@@ -12932,26 +12938,26 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
-      <c r="R73" s="74"/>
+      <c r="R73" s="73"/>
       <c r="S73" s="17"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="102">
+      <c r="A74" s="100">
         <v>93.2</v>
       </c>
-      <c r="B74" s="106">
+      <c r="B74" s="104">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="104">
+      <c r="C74" s="102">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="105">
+      <c r="D74" s="103">
         <v>0.56957841358399997</v>
       </c>
-      <c r="E74" s="52"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
@@ -12961,26 +12967,26 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-      <c r="R74" s="74"/>
+      <c r="R74" s="73"/>
       <c r="S74" s="17"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="102">
+      <c r="A75" s="100">
         <v>94.1</v>
       </c>
-      <c r="B75" s="106">
+      <c r="B75" s="104">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="104">
+      <c r="C75" s="102">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="105">
+      <c r="D75" s="103">
         <v>0.59331624965759999</v>
       </c>
-      <c r="E75" s="52"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
@@ -12990,26 +12996,26 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-      <c r="R75" s="74"/>
+      <c r="R75" s="73"/>
       <c r="S75" s="17"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="102">
+      <c r="A76" s="100">
         <v>95</v>
       </c>
-      <c r="B76" s="106">
+      <c r="B76" s="104">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="104">
+      <c r="C76" s="102">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="103">
         <v>0.6221741633408</v>
       </c>
-      <c r="E76" s="52"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
@@ -13019,26 +13025,26 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-      <c r="R76" s="74"/>
+      <c r="R76" s="73"/>
       <c r="S76" s="17"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="102">
+      <c r="A77" s="100">
         <v>95.9</v>
       </c>
-      <c r="B77" s="106">
+      <c r="B77" s="104">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="104">
+      <c r="C77" s="102">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="105">
+      <c r="D77" s="103">
         <v>0.66003374539039994</v>
       </c>
-      <c r="E77" s="52"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -13048,26 +13054,26 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-      <c r="R77" s="74"/>
+      <c r="R77" s="73"/>
       <c r="S77" s="17"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="102">
+      <c r="A78" s="100">
         <v>96.8</v>
       </c>
-      <c r="B78" s="106">
+      <c r="B78" s="104">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="104">
+      <c r="C78" s="102">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="105">
+      <c r="D78" s="103">
         <v>0.7195324357888</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
@@ -13077,26 +13083,26 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
-      <c r="R78" s="74"/>
+      <c r="R78" s="73"/>
       <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="111">
+      <c r="A79" s="109">
         <v>97.47</v>
       </c>
-      <c r="B79" s="112">
+      <c r="B79" s="110">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="113">
+      <c r="C79" s="111">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="114">
+      <c r="D79" s="112">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="70"/>
+      <c r="E79" s="69"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -13106,7 +13112,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="74"/>
+      <c r="R79" s="73"/>
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
@@ -15332,16 +15338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.125.xlsx
+++ b/Critical_RT_Calcs_IR-3.125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1494B2-1484-44FD-84BD-C1A4850DF71B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1703D-3C5F-4D54-B7F2-B8D9F904F0EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -1192,6 +1192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,26 +1234,8 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,8 +1270,23 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2088,232 +2088,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>1071.0011774925808</c:v>
+                  <c:v>9.0902877719277697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1067.9891320584188</c:v>
+                  <c:v>9.0647225714834931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1064.9546527303921</c:v>
+                  <c:v>9.0389669599030196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1061.9001009710125</c:v>
+                  <c:v>9.0130409804638401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1058.8242960490243</c:v>
+                  <c:v>8.9869346115272126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1055.7260572331713</c:v>
+                  <c:v>8.9606378314543864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1052.6042037921975</c:v>
+                  <c:v>8.9341406186066141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1049.4610971886148</c:v>
+                  <c:v>8.9074630162613921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1046.2920144973994</c:v>
+                  <c:v>8.8805649378637312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1043.100497912319</c:v>
+                  <c:v>8.853476448329868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1039.8830052396061</c:v>
+                  <c:v>8.8261674827435694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1036.6407172105157</c:v>
+                  <c:v>8.7986480627435757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1033.3712723625367</c:v>
+                  <c:v>8.7708981450523957</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1030.0746706956688</c:v>
+                  <c:v>8.7429177296700296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1026.750912209912</c:v>
+                  <c:v>8.7147068165964754</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1023.3988161740098</c:v>
+                  <c:v>8.6862553841929842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1020.0172018567068</c:v>
+                  <c:v>8.6575534108208156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1016.6060692580028</c:v>
+                  <c:v>8.6286008964799628</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1013.1630569153857</c:v>
+                  <c:v>8.5993777978929344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1009.6881648288556</c:v>
+                  <c:v>8.5698841150597307</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1006.180212267156</c:v>
+                  <c:v>8.5401098263416007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1002.6391992302874</c:v>
+                  <c:v>8.5100549317385514</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>999.06276425573765</c:v>
+                  <c:v>8.4796993879730831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>995.4497266122504</c:v>
+                  <c:v>8.4490331734064483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>991.80008629982615</c:v>
+                  <c:v>8.4180562880386489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>988.11030112469621</c:v>
+                  <c:v>8.3867386669534412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>984.38155181811715</c:v>
+                  <c:v>8.3550903317895759</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>980.61147691757617</c:v>
+                  <c:v>8.3230912392695515</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>976.79889569181819</c:v>
+                  <c:v>8.2907313677546313</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>972.94144667833029</c:v>
+                  <c:v>8.2579906739673099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>969.03794914585717</c:v>
+                  <c:v>8.224859136268849</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>965.08604163188602</c:v>
+                  <c:v>8.1913167113817504</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>961.0845434051613</c:v>
+                  <c:v>8.1573533776672651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>957.03109300317067</c:v>
+                  <c:v>8.1229490918479001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>952.92332896340213</c:v>
+                  <c:v>8.088083810646161</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>948.75888982334345</c:v>
+                  <c:v>8.052737490784553</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>944.53659485173887</c:v>
+                  <c:v>8.0169001106243272</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>940.25172112356427</c:v>
+                  <c:v>7.9805315836104995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>935.90190717630719</c:v>
+                  <c:v>7.9436118664655702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>931.48479154745553</c:v>
+                  <c:v>7.9061209159120471</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>926.99683204324185</c:v>
+                  <c:v>7.8680286670336903</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>922.43330573864137</c:v>
+                  <c:v>7.829295033275506</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>917.79185117114196</c:v>
+                  <c:v>7.7898999713600023</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>916.74204989215912</c:v>
+                  <c:v>7.7809896209982634</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>913.06774541571974</c:v>
+                  <c:v>7.7498033947321909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>908.25508481609427</c:v>
+                  <c:v>7.7089551951983326</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>903.34914644724176</c:v>
+                  <c:v>7.6673152862034426</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>898.34520738413767</c:v>
+                  <c:v>7.6248435811925264</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>893.23618323924586</c:v>
+                  <c:v>7.5814799503331063</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>889.17525487263367</c:v>
+                  <c:v>7.547012194135009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>888.01498962503024</c:v>
+                  <c:v>7.5371642637926959</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>882.67336142269835</c:v>
+                  <c:v>7.4918263701000631</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>877.20421424471374</c:v>
+                  <c:v>7.4454061394227251</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>871.59692150977241</c:v>
+                  <c:v>7.3978133770119587</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>865.84085663656992</c:v>
+                  <c:v>7.3489578881190356</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>859.92303158128971</c:v>
+                  <c:v>7.2987294347177381</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>853.8304583001152</c:v>
+                  <c:v>7.2470177787818431</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>847.54542582420606</c:v>
+                  <c:v>7.1936725957301455</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>841.05140391597763</c:v>
+                  <c:v>7.1385535826201805</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>834.324777950309</c:v>
+                  <c:v>7.0814603066770054</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>827.33957183956716</c:v>
+                  <c:v>7.0221722918481797</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>820.06626730235143</c:v>
+                  <c:v>6.9604389971650198</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>812.46826166972403</c:v>
+                  <c:v>6.8959497518263611</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>804.49950642269948</c:v>
+                  <c:v>6.8283137119210613</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>796.10568792350023</c:v>
+                  <c:v>6.7570698820667463</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>787.21478156550734</c:v>
+                  <c:v>6.6816069422998323</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>777.73587104200601</c:v>
+                  <c:v>6.6011532264367796</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>767.54970249613541</c:v>
+                  <c:v>6.514696548964114</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>756.48743135828227</c:v>
+                  <c:v>6.4208038155409755</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>744.3117306459817</c:v>
+                  <c:v>6.3174606767791666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>730.66129659488536</c:v>
+                  <c:v>6.201600511222022</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>714.94340211446047</c:v>
+                  <c:v>6.0681924562184149</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>696.07059371789228</c:v>
+                  <c:v>5.9080065824821117</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>671.63536037411257</c:v>
+                  <c:v>5.7006087686074371</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>633.79764654300516</c:v>
+                  <c:v>5.3794553333125448</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>533.70351577459519</c:v>
+                  <c:v>4.5298909517905459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,232 +2587,232 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>1523.8214165325808</c:v>
+                  <c:v>461.91052681192775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1526.6427994584187</c:v>
+                  <c:v>467.71838997148353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1529.4983133103922</c:v>
+                  <c:v>473.582627539903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1532.3874187910124</c:v>
+                  <c:v>479.50035880046374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1535.3103855490242</c:v>
+                  <c:v>485.4730241115272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1538.2674832331713</c:v>
+                  <c:v>491.50206383145445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1541.2560807321975</c:v>
+                  <c:v>497.58601755860656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1544.2814402686147</c:v>
+                  <c:v>503.72780609626136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1547.3373885373994</c:v>
+                  <c:v>509.92593897786372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1550.4274677323192</c:v>
+                  <c:v>516.18044626832989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1553.5510364196061</c:v>
+                  <c:v>522.49419866274354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1556.7063745705157</c:v>
+                  <c:v>528.86430542274354</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1559.8925711025367</c:v>
+                  <c:v>535.29219688505236</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1563.111076395669</c:v>
+                  <c:v>541.77932342967006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1566.3618904499122</c:v>
+                  <c:v>548.32568505659651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1569.6452829140098</c:v>
+                  <c:v>554.93272212419311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1572.9571722967069</c:v>
+                  <c:v>561.59752385082083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1576.3004593580026</c:v>
+                  <c:v>568.32299099647992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1579.6742330153857</c:v>
+                  <c:v>575.11055389789283</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1583.0755925088556</c:v>
+                  <c:v>581.9573117950597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1586.5062578671559</c:v>
+                  <c:v>588.86615542634161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1589.9662290902875</c:v>
+                  <c:v>595.83708479173856</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1593.4531447157376</c:v>
+                  <c:v>602.87007984797299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1596.9672743922506</c:v>
+                  <c:v>609.96658095340649</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1600.5071677398262</c:v>
+                  <c:v>617.12513772803868</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1604.0721833246962</c:v>
+                  <c:v>624.34862086695341</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1607.6620514981171</c:v>
+                  <c:v>631.63559001178953</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1611.2758611775762</c:v>
+                  <c:v>638.98747549926952</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1614.9124316318182</c:v>
+                  <c:v>646.40426730775471</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1618.5694013983302</c:v>
+                  <c:v>653.8859453939674</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1622.2484905058573</c:v>
+                  <c:v>661.43540049626881</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1625.9444367318861</c:v>
+                  <c:v>669.04971181138183</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1629.6604104851613</c:v>
+                  <c:v>676.73322045766736</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1633.3911495431707</c:v>
+                  <c:v>684.48300563184785</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1637.1357428234021</c:v>
+                  <c:v>692.30049767064611</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1640.8932792433434</c:v>
+                  <c:v>700.18712691078463</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1644.6640284517389</c:v>
+                  <c:v>708.14433371062432</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1648.4403667635643</c:v>
+                  <c:v>716.16917722361052</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1652.224283856307</c:v>
+                  <c:v>724.26598854646545</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1656.0134182674556</c:v>
+                  <c:v>732.43474763591212</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1659.8027774232419</c:v>
+                  <c:v>740.67397404703377</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1663.5905391586414</c:v>
+                  <c:v>748.98652845327547</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1667.372891631142</c:v>
+                  <c:v>757.37094043135994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1668.2118074188256</c:v>
+                  <c:v>759.25074714766492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1671.1480126757197</c:v>
+                  <c:v>765.83007065473214</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1674.9099986360943</c:v>
+                  <c:v>774.36386901519825</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1678.6541265872418</c:v>
+                  <c:v>782.97229542620346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1682.3771239841376</c:v>
+                  <c:v>791.65676018119257</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1686.071906439246</c:v>
+                  <c:v>800.41720315033319</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1688.9204272393004</c:v>
+                  <c:v>807.29218456080173</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1689.7342903250301</c:v>
+                  <c:v>809.25646496379261</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1693.3560105226984</c:v>
+                  <c:v>818.17447547010011</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1696.9299826447136</c:v>
+                  <c:v>827.17117453942274</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1700.4470304897725</c:v>
+                  <c:v>836.24792235701204</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1703.8979778565699</c:v>
+                  <c:v>845.406079108119</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1707.2712870812898</c:v>
+                  <c:v>854.64698493471769</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1710.5539701201151</c:v>
+                  <c:v>863.97052959878181</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1713.731216764206</c:v>
+                  <c:v>873.37946353573011</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1716.7850463959776</c:v>
+                  <c:v>882.87219606262022</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1719.6961955303091</c:v>
+                  <c:v>892.45287788667702</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1722.4401384595672</c:v>
+                  <c:v>902.12273891184816</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1724.9859065223513</c:v>
+                  <c:v>911.88007821716508</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1727.302698569724</c:v>
+                  <c:v>921.73038665182639</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1729.3430157026996</c:v>
+                  <c:v>931.67182299192109</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1731.0568954235005</c:v>
+                  <c:v>941.70827738206685</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1732.3752138855073</c:v>
+                  <c:v>951.84203926229975</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1733.2070547820063</c:v>
+                  <c:v>962.07233696643686</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1733.4375153961355</c:v>
+                  <c:v>972.40250944896411</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1732.9035526782823</c:v>
+                  <c:v>982.83692513554092</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1731.3678396459818</c:v>
+                  <c:v>993.37356967677931</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1728.4792251948852</c:v>
+                  <c:v>1004.019529111222</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1723.6478829944604</c:v>
+                  <c:v>1014.7726733362184</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1715.7965122178923</c:v>
+                  <c:v>1025.6339250824822</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1702.5292048741126</c:v>
+                  <c:v>1036.5944532686076</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1676.0291115030052</c:v>
+                  <c:v>1047.6109202933126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1584.5038257745953</c:v>
+                  <c:v>1055.3302009517906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,7 +3973,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,44 +3985,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="D5" s="151" t="s">
+      <c r="B5" s="152"/>
+      <c r="D5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="151"/>
+      <c r="E5" s="152"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.34080172949531423</v>
+        <v>0.15752042931199059</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.15672716517621357</v>
+        <v>7.5707300363438326E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.34080172949531423</v>
+        <v>0.15752042931199059</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="E12" s="142">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.16158965910121664</v>
+        <v>7.6823998773083296E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="E13" s="144">
         <f>E12</f>
-        <v>0.16158965910121664</v>
+        <v>7.6823998773083296E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B16" s="60">
         <f>'N2O Pressure Calcs'!H53</f>
-        <v>1688.9204272393004</v>
+        <v>807.29218456080173</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B17" s="58">
         <f>B10*B16</f>
-        <v>3377.8408544786007</v>
+        <v>1614.5843691216035</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B19" s="60">
         <f>'N2O Pressure Calcs'!J53</f>
-        <v>2006.5122507748604</v>
+        <v>809.98779417414357</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -4212,9 +4212,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,19 +4235,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="159"/>
       <c r="K1" s="45"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -4278,14 +4278,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154" t="s">
+      <c r="H2" s="155"/>
+      <c r="I2" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="155"/>
+      <c r="J2" s="156"/>
       <c r="K2" s="44"/>
       <c r="L2" s="61" t="s">
         <v>14</v>
@@ -4360,20 +4360,20 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36">
-        <f>C4*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>1071.0011774925808</v>
-      </c>
-      <c r="H4" s="180">
+        <f>(C4*($M$3*($P$5+1))*($M$2+$M$4))/144</f>
+        <v>9.0902877719277697</v>
+      </c>
+      <c r="H4" s="149">
         <f>B4+G4</f>
-        <v>1523.8214165325808</v>
+        <v>461.91052681192775</v>
       </c>
       <c r="I4" s="37">
-        <f>C4*($M$3*$P$5)*$M$1</f>
-        <v>382.53563074843203</v>
+        <f>(C4*($M$3*($P$5+1))*$M$1)/144</f>
+        <v>3.246830199253667</v>
       </c>
       <c r="J4" s="35">
         <f t="shared" ref="J4:J33" si="0">H4+I4</f>
-        <v>1906.3570472810129</v>
+        <v>465.15735701118143</v>
       </c>
       <c r="L4" s="146" t="s">
         <v>61</v>
@@ -4398,20 +4398,20 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="36">
-        <f t="shared" ref="G5:G68" si="1">C5*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>1067.9891320584188</v>
-      </c>
-      <c r="H5" s="180">
+        <f t="shared" ref="G5:G68" si="1">(C5*($M$3*($P$5+1))*($M$2+$M$4))/144</f>
+        <v>9.0647225714834931</v>
+      </c>
+      <c r="H5" s="149">
         <f t="shared" ref="H5:H68" si="2">B5+G5</f>
-        <v>1526.6427994584187</v>
+        <v>467.71838997148353</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" ref="I5:I68" si="3">C5*($M$3*$P$5)*$M$1</f>
-        <v>381.45980121228001</v>
+        <f t="shared" ref="I5:I68" si="3">(C5*($M$3*($P$5+1))*$M$1)/144</f>
+        <v>3.2376989300425003</v>
       </c>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>1908.1026006706988</v>
+        <v>470.95608890152602</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -4443,19 +4443,19 @@
       <c r="F6" s="17"/>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>1064.9546527303921</v>
-      </c>
-      <c r="H6" s="180">
+        <v>9.0389669599030196</v>
+      </c>
+      <c r="H6" s="149">
         <f t="shared" si="2"/>
-        <v>1529.4983133103922</v>
+        <v>473.582627539903</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="3"/>
-        <v>380.37595883364003</v>
+        <v>3.2284996505941672</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1909.8742721440321</v>
+        <v>476.81112719049719</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -4481,19 +4481,19 @@
       <c r="F7" s="17"/>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>1061.9001009710125</v>
-      </c>
-      <c r="H7" s="180">
+        <v>9.0130409804638401</v>
+      </c>
+      <c r="H7" s="149">
         <f t="shared" si="2"/>
-        <v>1532.3874187910124</v>
+        <v>479.50035880046374</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="3"/>
-        <v>379.28494706961601</v>
+        <v>3.2192395198809995</v>
       </c>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1911.6723658606284</v>
+        <v>482.71959832034474</v>
       </c>
       <c r="L7" s="147" t="s">
         <v>38</v>
@@ -4520,19 +4520,19 @@
       <c r="F8" s="17"/>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>1058.8242960490243</v>
-      </c>
-      <c r="H8" s="180">
+        <v>8.9869346115272126</v>
+      </c>
+      <c r="H8" s="149">
         <f t="shared" si="2"/>
-        <v>1535.3103855490242</v>
+        <v>485.4730241115272</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="3"/>
-        <v>378.18634419165596</v>
+        <v>3.2099149584168334</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1913.4967297406802</v>
+        <v>488.68293906994404</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4552,19 +4552,19 @@
       <c r="F9" s="17"/>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>1055.7260572331713</v>
-      </c>
-      <c r="H9" s="180">
+        <v>8.9606378314543864</v>
+      </c>
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
-        <v>1538.2674832331713</v>
+        <v>491.50206383145445</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="3"/>
-        <v>377.079728471208</v>
+        <v>3.2005223867155004</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>1915.3472117043793</v>
+        <v>494.70258621816993</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4584,19 +4584,19 @@
       <c r="F10" s="17"/>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>1052.6042037921975</v>
-      </c>
-      <c r="H10" s="180">
+        <v>8.9341406186066141</v>
+      </c>
+      <c r="H10" s="149">
         <f t="shared" si="2"/>
-        <v>1541.2560807321975</v>
+        <v>497.58601755860656</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="3"/>
-        <v>375.96467817972001</v>
+        <v>3.1910582252908335</v>
       </c>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1917.2207589119175</v>
+        <v>500.77707578389737</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4616,19 +4616,19 @@
       <c r="F11" s="17"/>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>1049.4610971886148</v>
-      </c>
-      <c r="H11" s="180">
+        <v>8.9074630162613921</v>
+      </c>
+      <c r="H11" s="149">
         <f t="shared" si="2"/>
-        <v>1544.2814402686147</v>
+        <v>503.72780609626136</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>374.84203677429599</v>
+        <v>3.1815296331151668</v>
       </c>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>1919.1234770429107</v>
+        <v>506.90933572937655</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4648,19 +4648,19 @@
       <c r="F12" s="17"/>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>1046.2920144973994</v>
-      </c>
-      <c r="H12" s="180">
+        <v>8.8805649378637312</v>
+      </c>
+      <c r="H12" s="149">
         <f t="shared" si="2"/>
-        <v>1547.3373885373994</v>
+        <v>509.92593897786372</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>373.710117340728</v>
+        <v>3.1719222922438335</v>
       </c>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>1921.0475058781274</v>
+        <v>513.0978612701075</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4680,19 +4680,19 @@
       <c r="F13" s="17"/>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>1043.100497912319</v>
-      </c>
-      <c r="H13" s="180">
+        <v>8.853476448329868</v>
+      </c>
+      <c r="H13" s="149">
         <f t="shared" si="2"/>
-        <v>1550.4274677323192</v>
+        <v>516.18044626832989</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>372.57018506467205</v>
+        <v>3.1622469411353333</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>1922.9976527969911</v>
+        <v>519.34269320946521</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4712,19 +4712,19 @@
       <c r="F14" s="17"/>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>1039.8830052396061</v>
-      </c>
-      <c r="H14" s="180">
+        <v>8.8261674827435694</v>
+      </c>
+      <c r="H14" s="149">
         <f t="shared" si="2"/>
-        <v>1553.5510364196061</v>
+        <v>522.49419866274354</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>371.42097476047206</v>
+        <v>3.152492841331167</v>
       </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>1924.9720111800782</v>
+        <v>525.64669150407474</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4744,19 +4744,19 @@
       <c r="F15" s="17"/>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>1036.6407172105157</v>
-      </c>
-      <c r="H15" s="180">
+        <v>8.7986480627435757</v>
+      </c>
+      <c r="H15" s="149">
         <f t="shared" si="2"/>
-        <v>1556.7063745705157</v>
+        <v>528.86430542274354</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>370.26290815668</v>
+        <v>3.1426635723175003</v>
       </c>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1926.9692827271956</v>
+        <v>532.00696899506102</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4776,19 +4776,19 @@
       <c r="F16" s="17"/>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>1033.3712723625367</v>
-      </c>
-      <c r="H16" s="180">
+        <v>8.7708981450523957</v>
+      </c>
+      <c r="H16" s="149">
         <f t="shared" si="2"/>
-        <v>1559.8925711025367</v>
+        <v>535.29219688505236</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="3"/>
-        <v>369.09514179619202</v>
+        <v>3.1327519751220003</v>
       </c>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>1928.9877128987287</v>
+        <v>538.42494886017437</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4808,19 +4808,19 @@
       <c r="F17" s="17"/>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>1030.0746706956688</v>
-      </c>
-      <c r="H17" s="180">
+        <v>8.7429177296700296</v>
+      </c>
+      <c r="H17" s="149">
         <f t="shared" si="2"/>
-        <v>1563.111076395669</v>
+        <v>541.77932342967006</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>367.91767567900803</v>
+        <v>3.1227580497446668</v>
       </c>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>1931.028752074677</v>
+        <v>544.90208147941473</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4840,19 +4840,19 @@
       <c r="F18" s="17"/>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>1026.750912209912</v>
-      </c>
-      <c r="H18" s="180">
+        <v>8.7147068165964754</v>
+      </c>
+      <c r="H18" s="149">
         <f t="shared" si="2"/>
-        <v>1566.3618904499122</v>
+        <v>548.32568505659651</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>366.73050980512807</v>
+        <v>3.1126817961855004</v>
       </c>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1933.0924002550403</v>
+        <v>551.438366852782</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4872,19 +4872,19 @@
       <c r="F19" s="17"/>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>1023.3988161740098</v>
-      </c>
-      <c r="H19" s="180">
+        <v>8.6862553841929842</v>
+      </c>
+      <c r="H19" s="149">
         <f t="shared" si="2"/>
-        <v>1569.6452829140098</v>
+        <v>554.93272212419311</v>
       </c>
       <c r="I19" s="37">
         <f t="shared" si="3"/>
-        <v>365.53322244599997</v>
+        <v>3.1025196349583331</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>1935.1785053600097</v>
+        <v>558.0352417591514</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4904,19 +4904,19 @@
       <c r="F20" s="17"/>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>1020.0172018567068</v>
-      </c>
-      <c r="H20" s="180">
+        <v>8.6575534108208156</v>
+      </c>
+      <c r="H20" s="149">
         <f t="shared" si="2"/>
-        <v>1572.9571722967069</v>
+        <v>561.59752385082083</v>
       </c>
       <c r="I20" s="37">
         <f t="shared" si="3"/>
-        <v>364.32539187307202</v>
+        <v>3.0922679865770006</v>
       </c>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>1937.2825641697789</v>
+        <v>564.68979183739782</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4936,19 +4936,19 @@
       <c r="F21" s="17"/>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>1016.6060692580028</v>
-      </c>
-      <c r="H21" s="180">
+        <v>8.6286008964799628</v>
+      </c>
+      <c r="H21" s="149">
         <f t="shared" si="2"/>
-        <v>1576.3004593580026</v>
+        <v>568.32299099647992</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" si="3"/>
-        <v>363.107018086344</v>
+        <v>3.0819268510415001</v>
       </c>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1939.4074774443466</v>
+        <v>571.40491784752146</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4968,19 +4968,19 @@
       <c r="F22" s="17"/>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>1013.1630569153857</v>
-      </c>
-      <c r="H22" s="180">
+        <v>8.5993777978929344</v>
+      </c>
+      <c r="H22" s="149">
         <f t="shared" si="2"/>
-        <v>1579.6742330153857</v>
+        <v>575.11055389789283</v>
       </c>
       <c r="I22" s="37">
         <f t="shared" si="3"/>
-        <v>361.87725762871196</v>
+        <v>3.0714890693795005</v>
       </c>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>1941.5514906440976</v>
+        <v>578.18204296727231</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5000,19 +5000,19 @@
       <c r="F23" s="17"/>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>1009.6881648288556</v>
-      </c>
-      <c r="H23" s="180">
+        <v>8.5698841150597307</v>
+      </c>
+      <c r="H23" s="149">
         <f t="shared" si="2"/>
-        <v>1583.0755925088556</v>
+        <v>581.9573117950597</v>
       </c>
       <c r="I23" s="37">
         <f t="shared" si="3"/>
-        <v>360.63611050017607</v>
+        <v>3.0609546415910009</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>1943.7117030090317</v>
+        <v>585.01826643665072</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5032,19 +5032,19 @@
       <c r="F24" s="17"/>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>1006.180212267156</v>
-      </c>
-      <c r="H24" s="180">
+        <v>8.5401098263416007</v>
+      </c>
+      <c r="H24" s="149">
         <f t="shared" si="2"/>
-        <v>1586.5062578671559</v>
+        <v>588.86615542634161</v>
       </c>
       <c r="I24" s="37">
         <f t="shared" si="3"/>
-        <v>359.383154972184</v>
+        <v>3.0503199881898331</v>
       </c>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>1945.8894128393399</v>
+        <v>591.91647541453142</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5064,19 +5064,19 @@
       <c r="F25" s="17"/>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>1002.6391992302874</v>
-      </c>
-      <c r="H25" s="180">
+        <v>8.5100549317385514</v>
+      </c>
+      <c r="H25" s="149">
         <f t="shared" si="2"/>
-        <v>1589.9662290902875</v>
+        <v>595.83708479173856</v>
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>358.11839104473603</v>
+        <v>3.0395851091760004</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>1948.0846201350234</v>
+        <v>598.87666990091452</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5096,19 +5096,19 @@
       <c r="F26" s="17"/>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>999.06276425573765</v>
-      </c>
-      <c r="H26" s="180">
+        <v>8.4796993879730831</v>
+      </c>
+      <c r="H26" s="149">
         <f t="shared" si="2"/>
-        <v>1593.4531447157376</v>
+        <v>602.87007984797299</v>
       </c>
       <c r="I26" s="37">
         <f t="shared" si="3"/>
-        <v>356.84097526072804</v>
+        <v>3.0287428455771672</v>
       </c>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1950.2941199764657</v>
+        <v>605.89882269355019</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5128,19 +5128,19 @@
       <c r="F27" s="17"/>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>995.4497266122504</v>
-      </c>
-      <c r="H27" s="180">
+        <v>8.4490331734064483</v>
+      </c>
+      <c r="H27" s="149">
         <f t="shared" si="2"/>
-        <v>1596.9672743922506</v>
+        <v>609.96658095340649</v>
       </c>
       <c r="I27" s="37">
         <f t="shared" si="3"/>
-        <v>355.55048589160799</v>
+        <v>3.0177896179071673</v>
       </c>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>1952.5177602838585</v>
+        <v>612.98437057131366</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5160,19 +5160,19 @@
       <c r="F28" s="17"/>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>991.80008629982615</v>
-      </c>
-      <c r="H28" s="180">
+        <v>8.4180562880386489</v>
+      </c>
+      <c r="H28" s="149">
         <f t="shared" si="2"/>
-        <v>1600.5071677398262</v>
+        <v>617.12513772803868</v>
       </c>
       <c r="I28" s="37">
         <f t="shared" si="3"/>
-        <v>354.24692293737604</v>
+        <v>3.0067254261660006</v>
       </c>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>1954.7540906772022</v>
+        <v>620.13186315420467</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5192,19 +5192,19 @@
       <c r="F29" s="17"/>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>988.11030112469621</v>
-      </c>
-      <c r="H29" s="180">
+        <v>8.3867386669534412</v>
+      </c>
+      <c r="H29" s="149">
         <f t="shared" si="2"/>
-        <v>1604.0721833246962</v>
+        <v>624.34862086695341</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="3"/>
-        <v>352.92902121237603</v>
+        <v>2.995539531895167</v>
       </c>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>1957.0012045370722</v>
+        <v>627.34416039884854</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5224,19 +5224,19 @@
       <c r="F30" s="17"/>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>984.38155181811715</v>
-      </c>
-      <c r="H30" s="180">
+        <v>8.3550903317895759</v>
+      </c>
+      <c r="H30" s="149">
         <f t="shared" si="2"/>
-        <v>1607.6620514981171</v>
+        <v>631.63559001178953</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="3"/>
-        <v>351.59720244516006</v>
+        <v>2.9842355145808344</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>1959.2592539432771</v>
+        <v>634.61982552637039</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5256,19 +5256,19 @@
       <c r="F31" s="17"/>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>980.61147691757617</v>
-      </c>
-      <c r="H31" s="180">
+        <v>8.3230912392695515</v>
+      </c>
+      <c r="H31" s="149">
         <f t="shared" si="2"/>
-        <v>1611.2758611775762</v>
+        <v>638.98747549926952</v>
       </c>
       <c r="I31" s="37">
         <f t="shared" si="3"/>
-        <v>350.25062317862398</v>
+        <v>2.9728062152506669</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>1961.5264843562002</v>
+        <v>641.96028171452019</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5288,19 +5288,19 @@
       <c r="F32" s="17"/>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>976.79889569181819</v>
-      </c>
-      <c r="H32" s="180">
+        <v>8.2907313677546313</v>
+      </c>
+      <c r="H32" s="149">
         <f t="shared" si="2"/>
-        <v>1614.9124316318182</v>
+        <v>646.40426730775471</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="3"/>
-        <v>348.88886168421601</v>
+        <v>2.9612480544185007</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>1963.8012933160342</v>
+        <v>649.36551536217326</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5320,19 +5320,19 @@
       <c r="F33" s="17"/>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>972.94144667833029</v>
-      </c>
-      <c r="H33" s="180">
+        <v>8.2579906739673099</v>
+      </c>
+      <c r="H33" s="149">
         <f t="shared" si="2"/>
-        <v>1618.5694013983302</v>
+        <v>653.8859453939674</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="3"/>
-        <v>347.51107450483198</v>
+        <v>2.9495538731119999</v>
       </c>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1966.0804759031621</v>
+        <v>656.8354992670794</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5352,19 +5352,19 @@
       <c r="F34" s="17"/>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>969.03794914585717</v>
-      </c>
-      <c r="H34" s="180">
+        <v>8.224859136268849</v>
+      </c>
+      <c r="H34" s="149">
         <f t="shared" si="2"/>
-        <v>1622.2484905058573</v>
+        <v>661.43540049626881</v>
       </c>
       <c r="I34" s="37">
         <f t="shared" si="3"/>
-        <v>346.11683991192001</v>
+        <v>2.9377200918450002</v>
       </c>
       <c r="J34" s="35">
         <f t="shared" ref="J34:J79" si="4">H34+I34</f>
-        <v>1968.3653304177774</v>
+        <v>664.37312058811381</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5384,19 +5384,19 @@
       <c r="F35" s="17"/>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>965.08604163188602</v>
-      </c>
-      <c r="H35" s="180">
+        <v>8.1913167113817504</v>
+      </c>
+      <c r="H35" s="149">
         <f t="shared" si="2"/>
-        <v>1625.9444367318861</v>
+        <v>669.04971181138183</v>
       </c>
       <c r="I35" s="37">
         <f t="shared" si="3"/>
-        <v>344.70531444837599</v>
+        <v>2.925739551645167</v>
       </c>
       <c r="J35" s="35">
         <f t="shared" si="4"/>
-        <v>1970.649751180262</v>
+        <v>671.97545136302699</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5416,19 +5416,19 @@
       <c r="F36" s="17"/>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>961.0845434051613</v>
-      </c>
-      <c r="H36" s="180">
+        <v>8.1573533776672651</v>
+      </c>
+      <c r="H36" s="149">
         <f t="shared" si="2"/>
-        <v>1629.6604104851613</v>
+        <v>676.73322045766736</v>
       </c>
       <c r="I36" s="37">
         <f t="shared" si="3"/>
-        <v>343.27607638564803</v>
+        <v>2.9136086730263338</v>
       </c>
       <c r="J36" s="35">
         <f t="shared" si="4"/>
-        <v>1972.9364868708094</v>
+        <v>679.64682913069373</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5448,19 +5448,19 @@
       <c r="F37" s="17"/>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>957.03109300317067</v>
-      </c>
-      <c r="H37" s="180">
+        <v>8.1229490918479001</v>
+      </c>
+      <c r="H37" s="149">
         <f t="shared" si="2"/>
-        <v>1633.3911495431707</v>
+        <v>684.48300563184785</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="3"/>
-        <v>341.82828226663207</v>
+        <v>2.9013202970161669</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="4"/>
-        <v>1975.2194318098027</v>
+        <v>687.38432592886397</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5480,19 +5480,19 @@
       <c r="F38" s="17"/>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>952.92332896340213</v>
-      </c>
-      <c r="H38" s="180">
+        <v>8.088083810646161</v>
+      </c>
+      <c r="H38" s="149">
         <f t="shared" si="2"/>
-        <v>1637.1357428234021</v>
+        <v>692.30049767064611</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="3"/>
-        <v>340.36108863422402</v>
+        <v>2.8888672646423337</v>
       </c>
       <c r="J38" s="35">
         <f t="shared" si="4"/>
-        <v>1977.4968314576261</v>
+        <v>695.18936493528849</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5512,19 +5512,19 @@
       <c r="F39" s="17"/>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>948.75888982334345</v>
-      </c>
-      <c r="H39" s="180">
+        <v>8.052737490784553</v>
+      </c>
+      <c r="H39" s="149">
         <f t="shared" si="2"/>
-        <v>1640.8932792433434</v>
+        <v>700.18712691078463</v>
       </c>
       <c r="I39" s="37">
         <f t="shared" si="3"/>
-        <v>338.87365203131998</v>
+        <v>2.8762424169325005</v>
       </c>
       <c r="J39" s="35">
         <f t="shared" si="4"/>
-        <v>1979.7669312746634</v>
+        <v>703.06336932771717</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5544,19 +5544,19 @@
       <c r="F40" s="17"/>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>944.53659485173887</v>
-      </c>
-      <c r="H40" s="180">
+        <v>8.0169001106243272</v>
+      </c>
+      <c r="H40" s="149">
         <f t="shared" si="2"/>
-        <v>1644.6640284517389</v>
+        <v>708.14433371062432</v>
       </c>
       <c r="I40" s="37">
         <f t="shared" si="3"/>
-        <v>337.36555072936801</v>
+        <v>2.8634421744005003</v>
       </c>
       <c r="J40" s="35">
         <f t="shared" si="4"/>
-        <v>1982.0295791811068</v>
+        <v>711.00777588502478</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5576,19 +5576,19 @@
       <c r="F41" s="17"/>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>940.25172112356427</v>
-      </c>
-      <c r="H41" s="180">
+        <v>7.9805315836104995</v>
+      </c>
+      <c r="H41" s="149">
         <f t="shared" si="2"/>
-        <v>1648.4403667635643</v>
+        <v>716.16917722361052</v>
       </c>
       <c r="I41" s="37">
         <f t="shared" si="3"/>
-        <v>335.83509781416001</v>
+        <v>2.8504522191016672</v>
       </c>
       <c r="J41" s="35">
         <f t="shared" si="4"/>
-        <v>1984.2754645777243</v>
+        <v>719.01962944271213</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5608,19 +5608,19 @@
       <c r="F42" s="17"/>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>935.90190717630719</v>
-      </c>
-      <c r="H42" s="180">
+        <v>7.9436118664655702</v>
+      </c>
+      <c r="H42" s="149">
         <f t="shared" si="2"/>
-        <v>1652.224283856307</v>
+        <v>724.26598854646545</v>
       </c>
       <c r="I42" s="37">
         <f t="shared" si="3"/>
-        <v>334.28144982859203</v>
+        <v>2.8372653920636668</v>
       </c>
       <c r="J42" s="35">
         <f t="shared" si="4"/>
-        <v>1986.505733684899</v>
+        <v>727.10325393852906</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5640,19 +5640,19 @@
       <c r="F43" s="17"/>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>931.48479154745553</v>
-      </c>
-      <c r="H43" s="180">
+        <v>7.9061209159120471</v>
+      </c>
+      <c r="H43" s="149">
         <f t="shared" si="2"/>
-        <v>1656.0134182674556</v>
+        <v>732.43474763591212</v>
       </c>
       <c r="I43" s="37">
         <f t="shared" si="3"/>
-        <v>332.70376331555997</v>
+        <v>2.8238745343141667</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="4"/>
-        <v>1988.7171815830156</v>
+        <v>735.25862217022632</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5672,19 +5672,19 @@
       <c r="F44" s="17"/>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>926.99683204324185</v>
-      </c>
-      <c r="H44" s="180">
+        <v>7.8680286670336903</v>
+      </c>
+      <c r="H44" s="149">
         <f t="shared" si="2"/>
-        <v>1659.8027774232419</v>
+        <v>740.67397404703377</v>
       </c>
       <c r="I44" s="37">
         <f t="shared" si="3"/>
-        <v>331.10077308940799</v>
+        <v>2.8102689073946672</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="4"/>
-        <v>1990.9035505126499</v>
+        <v>743.4842429544284</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5704,19 +5704,19 @@
       <c r="F45" s="17"/>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>922.43330573864137</v>
-      </c>
-      <c r="H45" s="180">
+        <v>7.829295033275506</v>
+      </c>
+      <c r="H45" s="149">
         <f t="shared" si="2"/>
-        <v>1663.5905391586414</v>
+        <v>748.98652845327547</v>
       </c>
       <c r="I45" s="37">
         <f t="shared" si="3"/>
-        <v>329.470792235928</v>
+        <v>2.7964341933605006</v>
       </c>
       <c r="J45" s="35">
         <f t="shared" si="4"/>
-        <v>1993.0613313945694</v>
+        <v>751.78296264663595</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5736,19 +5736,19 @@
       <c r="F46" s="17"/>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>917.79185117114196</v>
-      </c>
-      <c r="H46" s="180">
+        <v>7.7898999713600023</v>
+      </c>
+      <c r="H46" s="149">
         <f t="shared" si="2"/>
-        <v>1667.372891631142</v>
+        <v>757.37094043135994</v>
       </c>
       <c r="I46" s="37">
         <f t="shared" si="3"/>
-        <v>327.81297729801599</v>
+        <v>2.7823632332393338</v>
       </c>
       <c r="J46" s="35">
         <f t="shared" si="4"/>
-        <v>1995.185868929158</v>
+        <v>760.15330366459932</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5771,19 +5771,19 @@
       <c r="F47" s="17"/>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>916.74204989215912</v>
-      </c>
-      <c r="H47" s="180">
+        <v>7.7809896209982634</v>
+      </c>
+      <c r="H47" s="149">
         <f t="shared" si="2"/>
-        <v>1668.2118074188256</v>
+        <v>759.25074714766492</v>
       </c>
       <c r="I47" s="37">
         <f t="shared" si="3"/>
-        <v>327.43801375655994</v>
+        <v>2.7791806723164814</v>
       </c>
       <c r="J47" s="42">
-        <f t="shared" ref="H47:J47" si="5">J46+(((J48-J46)/($A$48-$A$46))*($A$47-$A$46))</f>
-        <v>1995.649821175386</v>
+        <f t="shared" ref="J47" si="5">J46+(((J48-J46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>762.02992781998137</v>
       </c>
       <c r="K47" s="40" t="s">
         <v>33</v>
@@ -5807,19 +5807,19 @@
       <c r="F48" s="17"/>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>913.06774541571974</v>
-      </c>
-      <c r="H48" s="180">
+        <v>7.7498033947321909</v>
+      </c>
+      <c r="H48" s="149">
         <f t="shared" si="2"/>
-        <v>1671.1480126757197</v>
+        <v>765.83007065473214</v>
       </c>
       <c r="I48" s="37">
         <f t="shared" si="3"/>
-        <v>326.12564136146403</v>
+        <v>2.7680417090865004</v>
       </c>
       <c r="J48" s="35">
         <f t="shared" si="4"/>
-        <v>1997.2736540371836</v>
+        <v>768.59811236381859</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5839,19 +5839,19 @@
       <c r="F49" s="17"/>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>908.25508481609427</v>
-      </c>
-      <c r="H49" s="180">
+        <v>7.7089551951983326</v>
+      </c>
+      <c r="H49" s="149">
         <f t="shared" si="2"/>
-        <v>1674.9099986360943</v>
+        <v>774.36386901519825</v>
       </c>
       <c r="I49" s="37">
         <f t="shared" si="3"/>
-        <v>324.40667578351196</v>
+        <v>2.7534517234711671</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="4"/>
-        <v>1999.3166744196062</v>
+        <v>777.11732073866938</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5871,19 +5871,19 @@
       <c r="F50" s="17"/>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>903.34914644724176</v>
-      </c>
-      <c r="H50" s="180">
+        <v>7.6673152862034426</v>
+      </c>
+      <c r="H50" s="149">
         <f t="shared" si="2"/>
-        <v>1678.6541265872418</v>
+        <v>782.97229542620346</v>
       </c>
       <c r="I50" s="37">
         <f t="shared" si="3"/>
-        <v>322.654393649952</v>
+        <v>2.7385789584486671</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="4"/>
-        <v>2001.3085202371938</v>
+        <v>785.71087438465213</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5903,19 +5903,19 @@
       <c r="F51" s="17"/>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>898.34520738413767</v>
-      </c>
-      <c r="H51" s="180">
+        <v>7.6248435811925264</v>
+      </c>
+      <c r="H51" s="149">
         <f t="shared" si="2"/>
-        <v>1682.3771239841376</v>
+        <v>791.65676018119257</v>
       </c>
       <c r="I51" s="37">
         <f t="shared" si="3"/>
-        <v>320.86710804657599</v>
+        <v>2.7234090960743331</v>
       </c>
       <c r="J51" s="35">
         <f t="shared" si="4"/>
-        <v>2003.2442320307136</v>
+        <v>794.38016927726687</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5935,19 +5935,19 @@
       <c r="F52" s="17"/>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>893.23618323924586</v>
-      </c>
-      <c r="H52" s="180">
+        <v>7.5814799503331063</v>
+      </c>
+      <c r="H52" s="149">
         <f t="shared" si="2"/>
-        <v>1686.071906439246</v>
+        <v>800.41720315033319</v>
       </c>
       <c r="I52" s="37">
         <f t="shared" si="3"/>
-        <v>319.04228860207201</v>
+        <v>2.7079206594311671</v>
       </c>
       <c r="J52" s="35">
         <f t="shared" si="4"/>
-        <v>2005.114195041318</v>
+        <v>803.12512380976432</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5970,19 +5970,19 @@
       <c r="F53" s="81"/>
       <c r="G53" s="36">
         <f t="shared" si="1"/>
-        <v>889.17525487263367</v>
-      </c>
-      <c r="H53" s="180">
+        <v>7.547012194135009</v>
+      </c>
+      <c r="H53" s="149">
         <f t="shared" si="2"/>
-        <v>1688.9204272393004</v>
+        <v>807.29218456080173</v>
       </c>
       <c r="I53" s="37">
         <f t="shared" si="3"/>
-        <v>317.59182353556002</v>
+        <v>2.6956096133419449</v>
       </c>
       <c r="J53" s="80">
         <f t="shared" ref="J53" si="7">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>2006.5122507748604</v>
+        <v>809.98779417414357</v>
       </c>
       <c r="K53" s="41" t="s">
         <v>33</v>
@@ -6008,19 +6008,19 @@
       <c r="F54" s="17"/>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>888.01498962503024</v>
-      </c>
-      <c r="H54" s="180">
+        <v>7.5371642637926959</v>
+      </c>
+      <c r="H54" s="149">
         <f t="shared" si="2"/>
-        <v>1689.7342903250301</v>
+        <v>809.25646496379261</v>
       </c>
       <c r="I54" s="37">
         <f t="shared" si="3"/>
-        <v>317.17740494512805</v>
+        <v>2.6920921716021673</v>
       </c>
       <c r="J54" s="35">
         <f t="shared" si="4"/>
-        <v>2006.9116952701581</v>
+        <v>811.94855713539482</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6040,19 +6040,19 @@
       <c r="F55" s="17"/>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>882.67336142269835</v>
-      </c>
-      <c r="H55" s="180">
+        <v>7.4918263701000631</v>
+      </c>
+      <c r="H55" s="149">
         <f t="shared" si="2"/>
-        <v>1693.3560105226984</v>
+        <v>818.17447547010011</v>
       </c>
       <c r="I55" s="37">
         <f t="shared" si="3"/>
-        <v>315.26950497588007</v>
+        <v>2.6758985761841672</v>
       </c>
       <c r="J55" s="35">
         <f t="shared" si="4"/>
-        <v>2008.6255154985784</v>
+        <v>820.85037404628429</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6072,19 +6072,19 @@
       <c r="F56" s="17"/>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>877.20421424471374</v>
-      </c>
-      <c r="H56" s="180">
+        <v>7.4454061394227251</v>
+      </c>
+      <c r="H56" s="149">
         <f t="shared" si="2"/>
-        <v>1696.9299826447136</v>
+        <v>827.17117453942274</v>
       </c>
       <c r="I56" s="37">
         <f t="shared" si="3"/>
-        <v>313.31605832301602</v>
+        <v>2.6593183962601668</v>
       </c>
       <c r="J56" s="35">
         <f t="shared" si="4"/>
-        <v>2010.2460409677296</v>
+        <v>829.83049293568286</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6104,19 +6104,19 @@
       <c r="F57" s="17"/>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>871.59692150977241</v>
-      </c>
-      <c r="H57" s="180">
+        <v>7.3978133770119587</v>
+      </c>
+      <c r="H57" s="149">
         <f t="shared" si="2"/>
-        <v>1700.4470304897725</v>
+        <v>836.24792235701204</v>
       </c>
       <c r="I57" s="37">
         <f t="shared" si="3"/>
-        <v>311.31326942956798</v>
+        <v>2.6423194164546668</v>
       </c>
       <c r="J57" s="35">
         <f t="shared" si="4"/>
-        <v>2011.7602999193405</v>
+        <v>838.89024177346676</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6136,19 +6136,19 @@
       <c r="F58" s="17"/>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>865.84085663656992</v>
-      </c>
-      <c r="H58" s="180">
+        <v>7.3489578881190356</v>
+      </c>
+      <c r="H58" s="149">
         <f t="shared" si="2"/>
-        <v>1703.8979778565699</v>
+        <v>845.406079108119</v>
       </c>
       <c r="I58" s="37">
         <f t="shared" si="3"/>
-        <v>309.25734273856801</v>
+        <v>2.6248694213921668</v>
       </c>
       <c r="J58" s="35">
         <f t="shared" si="4"/>
-        <v>2013.1553205951379</v>
+        <v>848.03094852951119</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6168,19 +6168,19 @@
       <c r="F59" s="17"/>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>859.92303158128971</v>
-      </c>
-      <c r="H59" s="180">
+        <v>7.2987294347177381</v>
+      </c>
+      <c r="H59" s="149">
         <f t="shared" si="2"/>
-        <v>1707.2712870812898</v>
+        <v>854.64698493471769</v>
       </c>
       <c r="I59" s="37">
         <f t="shared" si="3"/>
-        <v>307.14363923594402</v>
+        <v>2.6069290367248339</v>
       </c>
       <c r="J59" s="35">
         <f t="shared" si="4"/>
-        <v>2014.4149263172337</v>
+        <v>857.25391397144256</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6200,19 +6200,19 @@
       <c r="F60" s="17"/>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>853.8304583001152</v>
-      </c>
-      <c r="H60" s="180">
+        <v>7.2470177787818431</v>
+      </c>
+      <c r="H60" s="149">
         <f t="shared" si="2"/>
-        <v>1710.5539701201151</v>
+        <v>863.97052959878181</v>
       </c>
       <c r="I60" s="37">
         <f t="shared" si="3"/>
-        <v>304.96751990762397</v>
+        <v>2.5884588881048334</v>
       </c>
       <c r="J60" s="35">
         <f t="shared" si="4"/>
-        <v>2015.521490027739</v>
+        <v>866.55898848688662</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6232,19 +6232,19 @@
       <c r="F61" s="17"/>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>847.54542582420606</v>
-      </c>
-      <c r="H61" s="180">
+        <v>7.1936725957301455</v>
+      </c>
+      <c r="H61" s="149">
         <f t="shared" si="2"/>
-        <v>1713.731216764206</v>
+        <v>873.37946353573011</v>
       </c>
       <c r="I61" s="37">
         <f t="shared" si="3"/>
-        <v>302.72265882532798</v>
+        <v>2.5694052832396665</v>
       </c>
       <c r="J61" s="35">
         <f t="shared" si="4"/>
-        <v>2016.4538755895339</v>
+        <v>875.9488688189698</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6264,19 +6264,19 @@
       <c r="F62" s="17"/>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>841.05140391597763</v>
-      </c>
-      <c r="H62" s="180">
+        <v>7.1385535826201805</v>
+      </c>
+      <c r="H62" s="149">
         <f t="shared" si="2"/>
-        <v>1716.7850463959776</v>
+        <v>882.87219606262022</v>
       </c>
       <c r="I62" s="37">
         <f t="shared" si="3"/>
-        <v>300.40315178932798</v>
+        <v>2.5497181093230004</v>
       </c>
       <c r="J62" s="35">
         <f t="shared" si="4"/>
-        <v>2017.1881981853055</v>
+        <v>885.42191417194317</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6296,19 +6296,19 @@
       <c r="F63" s="17"/>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>834.324777950309</v>
-      </c>
-      <c r="H63" s="180">
+        <v>7.0814603066770054</v>
+      </c>
+      <c r="H63" s="149">
         <f t="shared" si="2"/>
-        <v>1719.6961955303091</v>
+        <v>892.45287788667702</v>
       </c>
       <c r="I63" s="37">
         <f t="shared" si="3"/>
-        <v>298.00056422858404</v>
+        <v>2.5293257766315005</v>
       </c>
       <c r="J63" s="35">
         <f t="shared" si="4"/>
-        <v>2017.6967597588932</v>
+        <v>894.9822036633085</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6328,19 +6328,19 @@
       <c r="F64" s="17"/>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>827.33957183956716</v>
-      </c>
-      <c r="H64" s="180">
+        <v>7.0221722918481797</v>
+      </c>
+      <c r="H64" s="149">
         <f t="shared" si="2"/>
-        <v>1722.4401384595672</v>
+        <v>902.12273891184816</v>
       </c>
       <c r="I64" s="37">
         <f t="shared" si="3"/>
-        <v>295.50561811495197</v>
+        <v>2.5081495364695003</v>
       </c>
       <c r="J64" s="35">
         <f t="shared" si="4"/>
-        <v>2017.9457565745192</v>
+        <v>904.63088844831771</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6360,19 +6360,19 @@
       <c r="F65" s="17"/>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>820.06626730235143</v>
-      </c>
-      <c r="H65" s="180">
+        <v>6.9604389971650198</v>
+      </c>
+      <c r="H65" s="149">
         <f t="shared" si="2"/>
-        <v>1724.9859065223513</v>
+        <v>911.88007821716508</v>
       </c>
       <c r="I65" s="37">
         <f t="shared" si="3"/>
-        <v>292.90777023463204</v>
+        <v>2.4860999016828336</v>
       </c>
       <c r="J65" s="35">
         <f t="shared" si="4"/>
-        <v>2017.8936767569835</v>
+        <v>914.36617811884787</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6392,19 +6392,19 @@
       <c r="F66" s="17"/>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>812.46826166972403</v>
-      </c>
-      <c r="H66" s="180">
+        <v>6.8959497518263611</v>
+      </c>
+      <c r="H66" s="149">
         <f t="shared" si="2"/>
-        <v>1727.302698569724</v>
+        <v>921.73038665182639</v>
       </c>
       <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>290.193947002512</v>
+        <v>2.4630659082003334</v>
       </c>
       <c r="J66" s="35">
         <f t="shared" si="4"/>
-        <v>2017.496645572236</v>
+        <v>924.19345256002669</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6424,19 +6424,19 @@
       <c r="F67" s="17"/>
       <c r="G67" s="36">
         <f t="shared" si="1"/>
-        <v>804.49950642269948</v>
-      </c>
-      <c r="H67" s="180">
+        <v>6.8283137119210613</v>
+      </c>
+      <c r="H67" s="149">
         <f t="shared" si="2"/>
-        <v>1729.3430157026996</v>
+        <v>931.67182299192109</v>
       </c>
       <c r="I67" s="37">
         <f t="shared" si="3"/>
-        <v>287.34770100506398</v>
+        <v>2.4389079560615006</v>
       </c>
       <c r="J67" s="35">
         <f t="shared" si="4"/>
-        <v>2016.6907167077636</v>
+        <v>934.11073094798257</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6456,19 +6456,19 @@
       <c r="F68" s="17"/>
       <c r="G68" s="36">
         <f t="shared" si="1"/>
-        <v>796.10568792350023</v>
-      </c>
-      <c r="H68" s="180">
+        <v>6.7570698820667463</v>
+      </c>
+      <c r="H68" s="149">
         <f t="shared" si="2"/>
-        <v>1731.0568954235005</v>
+        <v>941.70827738206685</v>
       </c>
       <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>284.34963272889604</v>
+        <v>2.4134613889026668</v>
       </c>
       <c r="J68" s="35">
         <f t="shared" si="4"/>
-        <v>2015.4065281523965</v>
+        <v>944.1217387709695</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6487,20 +6487,20 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:G79" si="8">C69*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>787.21478156550734</v>
-      </c>
-      <c r="H69" s="180">
+        <f t="shared" ref="G69:G79" si="8">(C69*($M$3*($P$5+1))*($M$2+$M$4))/144</f>
+        <v>6.6816069422998323</v>
+      </c>
+      <c r="H69" s="149">
         <f t="shared" ref="H69:H79" si="9">B69+G69</f>
-        <v>1732.3752138855073</v>
+        <v>951.84203926229975</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" ref="I69:I79" si="10">C69*($M$3*$P$5)*$M$1</f>
-        <v>281.17401673233599</v>
+        <f t="shared" ref="I69:I79" si="10">(C69*($M$3*($P$5+1))*$M$1)/144</f>
+        <v>2.3865078580676671</v>
       </c>
       <c r="J69" s="35">
         <f t="shared" si="4"/>
-        <v>2013.5492306178433</v>
+        <v>954.22854712036747</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6520,19 +6520,19 @@
       <c r="F70" s="17"/>
       <c r="G70" s="36">
         <f t="shared" si="8"/>
-        <v>777.73587104200601</v>
-      </c>
-      <c r="H70" s="180">
+        <v>6.6011532264367796</v>
+      </c>
+      <c r="H70" s="149">
         <f t="shared" si="9"/>
-        <v>1733.2070547820063</v>
+        <v>962.07233696643686</v>
       </c>
       <c r="I70" s="37">
         <f t="shared" si="10"/>
-        <v>277.78837991688005</v>
+        <v>2.3577717431216674</v>
       </c>
       <c r="J70" s="35">
         <f t="shared" si="4"/>
-        <v>2010.9954346988864</v>
+        <v>964.43010870955857</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6552,19 +6552,19 @@
       <c r="F71" s="17"/>
       <c r="G71" s="36">
         <f t="shared" si="8"/>
-        <v>767.54970249613541</v>
-      </c>
-      <c r="H71" s="180">
+        <v>6.514696548964114</v>
+      </c>
+      <c r="H71" s="149">
         <f t="shared" si="9"/>
-        <v>1733.4375153961355</v>
+        <v>972.40250944896411</v>
       </c>
       <c r="I71" s="37">
         <f t="shared" si="10"/>
-        <v>274.15012769877598</v>
+        <v>2.326891515961834</v>
       </c>
       <c r="J71" s="35">
         <f t="shared" si="4"/>
-        <v>2007.5876430949115</v>
+        <v>974.72940096492596</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6584,19 +6584,19 @@
       <c r="F72" s="17"/>
       <c r="G72" s="36">
         <f t="shared" si="8"/>
-        <v>756.48743135828227</v>
-      </c>
-      <c r="H72" s="180">
+        <v>6.4208038155409755</v>
+      </c>
+      <c r="H72" s="149">
         <f t="shared" si="9"/>
-        <v>1732.9035526782823</v>
+        <v>982.83692513554092</v>
       </c>
       <c r="I72" s="37">
         <f t="shared" si="10"/>
-        <v>270.19895289508804</v>
+        <v>2.2933553100663335</v>
       </c>
       <c r="J72" s="35">
         <f t="shared" si="4"/>
-        <v>2003.1025055733703</v>
+        <v>985.13028044560724</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6616,19 +6616,19 @@
       <c r="F73" s="17"/>
       <c r="G73" s="36">
         <f t="shared" si="8"/>
-        <v>744.3117306459817</v>
-      </c>
-      <c r="H73" s="180">
+        <v>6.3174606767791666</v>
+      </c>
+      <c r="H73" s="149">
         <f t="shared" si="9"/>
-        <v>1731.3678396459818</v>
+        <v>993.37356967677931</v>
       </c>
       <c r="I73" s="37">
         <f t="shared" si="10"/>
-        <v>265.85008806686398</v>
+        <v>2.2564436487156669</v>
       </c>
       <c r="J73" s="35">
         <f t="shared" si="4"/>
-        <v>1997.2179277128457</v>
+        <v>995.63001332549493</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6648,19 +6648,19 @@
       <c r="F74" s="17"/>
       <c r="G74" s="36">
         <f t="shared" si="8"/>
-        <v>730.66129659488536</v>
-      </c>
-      <c r="H74" s="180">
+        <v>6.201600511222022</v>
+      </c>
+      <c r="H74" s="149">
         <f t="shared" si="9"/>
-        <v>1728.4792251948852</v>
+        <v>1004.019529111222</v>
       </c>
       <c r="I74" s="37">
         <f t="shared" si="10"/>
-        <v>260.974484277192</v>
+        <v>2.2150612091428332</v>
       </c>
       <c r="J74" s="35">
         <f t="shared" si="4"/>
-        <v>1989.4537094720772</v>
+        <v>1006.2345903203649</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6680,19 +6680,19 @@
       <c r="F75" s="17"/>
       <c r="G75" s="36">
         <f t="shared" si="8"/>
-        <v>714.94340211446047</v>
-      </c>
-      <c r="H75" s="180">
+        <v>6.0681924562184149</v>
+      </c>
+      <c r="H75" s="149">
         <f t="shared" si="9"/>
-        <v>1723.6478829944604</v>
+        <v>1014.7726733362184</v>
       </c>
       <c r="I75" s="37">
         <f t="shared" si="10"/>
-        <v>255.36043379296802</v>
+        <v>2.167411089292167</v>
       </c>
       <c r="J75" s="35">
         <f t="shared" si="4"/>
-        <v>1979.0083167874284</v>
+        <v>1016.9400844255106</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6712,19 +6712,19 @@
       <c r="F76" s="17"/>
       <c r="G76" s="36">
         <f t="shared" si="8"/>
-        <v>696.07059371789228</v>
-      </c>
-      <c r="H76" s="180">
+        <v>5.9080065824821117</v>
+      </c>
+      <c r="H76" s="149">
         <f t="shared" si="9"/>
-        <v>1715.7965122178923</v>
+        <v>1025.6339250824822</v>
       </c>
       <c r="I76" s="37">
         <f t="shared" si="10"/>
-        <v>248.61952461780001</v>
+        <v>2.1101965824041669</v>
       </c>
       <c r="J76" s="35">
         <f t="shared" si="4"/>
-        <v>1964.4160368356922</v>
+        <v>1027.7441216648863</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6744,19 +6744,19 @@
       <c r="F77" s="17"/>
       <c r="G77" s="36">
         <f t="shared" si="8"/>
-        <v>671.63536037411257</v>
-      </c>
-      <c r="H77" s="180">
+        <v>5.7006087686074371</v>
+      </c>
+      <c r="H77" s="149">
         <f t="shared" si="9"/>
-        <v>1702.5292048741126</v>
+        <v>1036.5944532686076</v>
       </c>
       <c r="I77" s="37">
         <f t="shared" si="10"/>
-        <v>239.89185223416001</v>
+        <v>2.0361191161850005</v>
       </c>
       <c r="J77" s="35">
         <f t="shared" si="4"/>
-        <v>1942.4210571082726</v>
+        <v>1038.6305723847927</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6776,19 +6776,19 @@
       <c r="F78" s="17"/>
       <c r="G78" s="36">
         <f t="shared" si="8"/>
-        <v>633.79764654300516</v>
-      </c>
-      <c r="H78" s="180">
+        <v>5.3794553333125448</v>
+      </c>
+      <c r="H78" s="149">
         <f t="shared" si="9"/>
-        <v>1676.0291115030052</v>
+        <v>1047.6109202933126</v>
       </c>
       <c r="I78" s="37">
         <f t="shared" si="10"/>
-        <v>226.37713905676799</v>
+        <v>1.9214109024880004</v>
       </c>
       <c r="J78" s="35">
         <f t="shared" si="4"/>
-        <v>1902.4062505597731</v>
+        <v>1049.5323311958007</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6808,19 +6808,19 @@
       <c r="F79" s="18"/>
       <c r="G79" s="36">
         <f t="shared" si="8"/>
-        <v>533.70351577459519</v>
-      </c>
-      <c r="H79" s="180">
+        <v>4.5298909517905459</v>
+      </c>
+      <c r="H79" s="149">
         <f t="shared" si="9"/>
-        <v>1584.5038257745953</v>
+        <v>1055.3302009517906</v>
       </c>
       <c r="I79" s="37">
         <f t="shared" si="10"/>
-        <v>190.62594451807203</v>
+        <v>1.6179671216811669</v>
       </c>
       <c r="J79" s="38">
         <f t="shared" si="4"/>
-        <v>1775.1297702926672</v>
+        <v>1056.9481680734718</v>
       </c>
       <c r="K79" s="49"/>
       <c r="L79" s="22"/>
@@ -9096,32 +9096,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="167" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="140"/>
       <c r="H1" s="140"/>
-      <c r="I1" s="175" t="s">
+      <c r="I1" s="170" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="128"/>
       <c r="K1" s="92"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="177" t="s">
+      <c r="N1" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
       <c r="Q1" s="119"/>
-      <c r="R1" s="163" t="s">
+      <c r="R1" s="176" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="52"/>
@@ -9152,21 +9152,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="51"/>
-      <c r="F2" s="173"/>
+      <c r="F2" s="168"/>
       <c r="G2" s="133" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="166" t="s">
+      <c r="I2" s="171"/>
+      <c r="J2" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
-      <c r="N2" s="178"/>
+      <c r="N2" s="173"/>
       <c r="O2" s="86" t="s">
         <v>39</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="Q2" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="164"/>
+      <c r="R2" s="177"/>
       <c r="S2" s="70"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9206,7 +9206,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="174"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="129" t="s">
         <v>40</v>
       </c>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="179"/>
+      <c r="N3" s="174"/>
       <c r="O3" s="126" t="s">
         <v>40</v>
       </c>
@@ -11681,7 +11681,7 @@
         <f t="shared" si="6"/>
         <v>3.6585557946971532</v>
       </c>
-      <c r="L42" s="168" t="s">
+      <c r="L42" s="180" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="51"/>
@@ -11747,7 +11747,7 @@
         <f t="shared" si="6"/>
         <v>3.4347928224080033</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="180"/>
       <c r="M43" s="51"/>
       <c r="N43" s="120">
         <f t="shared" si="7"/>
@@ -12549,16 +12549,16 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="51"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="163"/>
       <c r="H60" s="39"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
+      <c r="N60" s="163"/>
+      <c r="O60" s="163"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="73"/>
@@ -15338,16 +15338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
